--- a/Hit-Name-List-for-January-2023-(ACP).xlsx
+++ b/Hit-Name-List-for-January-2023-(ACP).xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KL1790\Documents\02. AML\51. TARUC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CP1\Documents\GitHub\Google-Risk-Checking\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2296,7 +2296,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2306,6 +2306,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2322,7 +2328,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2333,6 +2339,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2615,7 +2622,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K1432"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A81" sqref="A23:XFD81"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2667,1843 +2676,1843 @@
         <v>700</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="4">
         <v>802048</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E2" t="s">
-        <v>645</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="E2" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>646</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="4">
         <v>10716651</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="4">
         <v>802049</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="D3" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>647</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="4" t="s">
         <v>648</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="4">
         <v>7759185</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="4">
         <v>802050</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="D4" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>647</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="4" t="s">
         <v>648</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="4">
         <v>7759185</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="5" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="4">
         <v>802051</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D5" t="s">
-        <v>96</v>
-      </c>
-      <c r="E5" t="s">
-        <v>649</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="D5" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>650</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="4">
         <v>7494796</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="6" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="4">
         <v>802052</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D6" t="s">
-        <v>96</v>
-      </c>
-      <c r="E6" t="s">
-        <v>645</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="D6" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>646</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="4">
         <v>7546185</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="7" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="4">
         <v>802053</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D7" t="s">
-        <v>96</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="D7" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>647</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="4" t="s">
         <v>648</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="4">
         <v>7759185</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="8" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="4">
         <v>802054</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E8" t="s">
-        <v>645</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="D8" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>651</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="4">
         <v>285890</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="9" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="4">
         <v>802054</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D9" t="s">
-        <v>96</v>
-      </c>
-      <c r="E9" t="s">
-        <v>645</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="D9" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>652</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="4">
         <v>7576363</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="10" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="4">
         <v>802055</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E10" t="s">
-        <v>649</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="D10" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>653</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="4">
         <v>11950847</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="11" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="4">
         <v>802056</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D11" t="s">
-        <v>96</v>
-      </c>
-      <c r="E11" t="s">
-        <v>645</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="D11" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>652</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="4">
         <v>1915358</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12">
+    <row r="12" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="4">
         <v>802057</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D12" t="s">
-        <v>96</v>
-      </c>
-      <c r="E12" t="s">
-        <v>649</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="D12" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>654</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="4">
         <v>10277562</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13">
+    <row r="13" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="4">
         <v>802057</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D13" t="s">
-        <v>96</v>
-      </c>
-      <c r="E13" t="s">
-        <v>645</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="D13" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>646</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="4">
         <v>3751354</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14">
+    <row r="14" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="4">
         <v>802058</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D14" t="s">
-        <v>96</v>
-      </c>
-      <c r="E14" t="s">
-        <v>645</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="D14" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>655</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="4">
         <v>291485</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15">
+    <row r="15" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="4">
         <v>802059</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D15" t="s">
-        <v>96</v>
-      </c>
-      <c r="E15" t="s">
-        <v>649</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="D15" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>656</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="4">
         <v>5628992</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16">
+    <row r="16" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
         <v>15</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="4">
         <v>802060</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D16" t="s">
-        <v>96</v>
-      </c>
-      <c r="E16" t="s">
-        <v>645</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="D16" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F16" s="4" t="s">
         <v>651</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="4">
         <v>285890</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17">
+    <row r="17" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
         <v>16</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="4">
         <v>802060</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D17" t="s">
-        <v>96</v>
-      </c>
-      <c r="E17" t="s">
-        <v>645</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="D17" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F17" s="4" t="s">
         <v>652</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="4">
         <v>7576363</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18">
+    <row r="18" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
         <v>17</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="4">
         <v>802062</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E18" t="s">
-        <v>649</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="D18" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F18" s="4" t="s">
         <v>657</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="4">
         <v>11827950</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19">
+    <row r="19" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
         <v>18</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="4">
         <v>802063</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D19" t="s">
-        <v>96</v>
-      </c>
-      <c r="E19" t="s">
-        <v>649</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="D19" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F19" s="4" t="s">
         <v>650</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="4">
         <v>8218240</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20">
+    <row r="20" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
         <v>19</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="4">
         <v>802064</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D20" t="s">
-        <v>96</v>
-      </c>
-      <c r="E20" t="s">
-        <v>645</v>
-      </c>
-      <c r="F20" t="s">
+      <c r="D20" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F20" s="4" t="s">
         <v>652</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="4">
         <v>1915358</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21">
+    <row r="21" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
         <v>20</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="4">
         <v>802065</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D21" t="s">
-        <v>96</v>
-      </c>
-      <c r="E21" t="s">
-        <v>649</v>
-      </c>
-      <c r="F21" t="s">
+      <c r="D21" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F21" s="4" t="s">
         <v>658</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="4">
         <v>5414094</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22">
+    <row r="22" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
         <v>21</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="4">
         <v>802066</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D22" t="s">
-        <v>96</v>
-      </c>
-      <c r="E22" t="s">
-        <v>645</v>
-      </c>
-      <c r="F22" t="s">
+      <c r="D22" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F22" s="4" t="s">
         <v>652</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="4">
         <v>10697427</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23">
+    <row r="23" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
         <v>22</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="4">
         <v>802068</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D23" t="s">
-        <v>97</v>
-      </c>
-      <c r="E23" t="s">
-        <v>649</v>
-      </c>
-      <c r="F23" t="s">
+      <c r="D23" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F23" s="4" t="s">
         <v>650</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="4">
         <v>11953675</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24">
+    <row r="24" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
         <v>23</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="4">
         <v>802069</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D24" t="s">
-        <v>97</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="D24" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>647</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="4" t="s">
         <v>659</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="4">
         <v>108128940</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25">
+    <row r="25" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
         <v>24</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="4">
         <v>802070</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D25" t="s">
-        <v>97</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="D25" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E25" s="4" t="s">
         <v>647</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="4" t="s">
         <v>659</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="4">
         <v>108128940</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26">
+    <row r="26" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
         <v>25</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="4">
         <v>802071</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D26" t="s">
-        <v>97</v>
-      </c>
-      <c r="E26" t="s">
+      <c r="D26" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E26" s="4" t="s">
         <v>647</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="4" t="s">
         <v>659</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="4">
         <v>108128940</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27">
+    <row r="27" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
         <v>26</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="4">
         <v>802072</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D27" t="s">
-        <v>97</v>
-      </c>
-      <c r="E27" t="s">
-        <v>649</v>
-      </c>
-      <c r="F27" t="s">
+      <c r="D27" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F27" s="4" t="s">
         <v>660</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="4">
         <v>11953815</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28">
+    <row r="28" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
         <v>27</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="4">
         <v>802073</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D28" t="s">
-        <v>97</v>
-      </c>
-      <c r="E28" t="s">
-        <v>649</v>
-      </c>
-      <c r="F28" t="s">
+      <c r="D28" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F28" s="4" t="s">
         <v>660</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="4">
         <v>11953815</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29">
+    <row r="29" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
         <v>28</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="4">
         <v>802074</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D29" t="s">
-        <v>97</v>
-      </c>
-      <c r="E29" t="s">
-        <v>645</v>
-      </c>
-      <c r="F29" t="s">
+      <c r="D29" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F29" s="4" t="s">
         <v>661</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="4">
         <v>11953761</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30">
+    <row r="30" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
         <v>29</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="4">
         <v>802075</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D30" t="s">
-        <v>97</v>
-      </c>
-      <c r="E30" t="s">
-        <v>649</v>
-      </c>
-      <c r="F30" t="s">
+      <c r="D30" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F30" s="4" t="s">
         <v>662</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="4">
         <v>11952725</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31">
+    <row r="31" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
         <v>30</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="4">
         <v>802076</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D31" t="s">
-        <v>97</v>
-      </c>
-      <c r="E31" t="s">
-        <v>645</v>
-      </c>
-      <c r="F31" t="s">
+      <c r="D31" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F31" s="4" t="s">
         <v>661</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="4">
         <v>11953733</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32">
+    <row r="32" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
         <v>31</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="4">
         <v>802077</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D32" t="s">
-        <v>97</v>
-      </c>
-      <c r="E32" t="s">
-        <v>649</v>
-      </c>
-      <c r="F32" t="s">
+      <c r="D32" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F32" s="4" t="s">
         <v>663</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="4">
         <v>11953186</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33">
+    <row r="33" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
         <v>32</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="4">
         <v>802078</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E33" t="s">
-        <v>649</v>
-      </c>
-      <c r="F33" t="s">
+      <c r="E33" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F33" s="4" t="s">
         <v>664</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="4">
         <v>7310844</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34">
+    <row r="34" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
         <v>33</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="4">
         <v>802079</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E34" t="s">
-        <v>649</v>
-      </c>
-      <c r="F34" t="s">
+      <c r="E34" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F34" s="4" t="s">
         <v>664</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="4">
         <v>7310844</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35">
+    <row r="35" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
         <v>34</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="4">
         <v>802080</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D35" t="s">
-        <v>97</v>
-      </c>
-      <c r="E35" t="s">
-        <v>649</v>
-      </c>
-      <c r="F35" t="s">
+      <c r="D35" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F35" s="4" t="s">
         <v>664</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="4">
         <v>11952903</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36">
+    <row r="36" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
         <v>35</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="4">
         <v>802081</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D36" t="s">
-        <v>97</v>
-      </c>
-      <c r="E36" t="s">
-        <v>649</v>
-      </c>
-      <c r="F36" t="s">
+      <c r="D36" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F36" s="4" t="s">
         <v>660</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="4">
         <v>11952867</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37">
+    <row r="37" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
         <v>36</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="4">
         <v>802082</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D37" t="s">
-        <v>97</v>
-      </c>
-      <c r="E37" t="s">
-        <v>649</v>
-      </c>
-      <c r="F37" t="s">
+      <c r="D37" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F37" s="4" t="s">
         <v>663</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="4">
         <v>11953186</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38">
+    <row r="38" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
         <v>37</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="4">
         <v>802083</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D38" t="s">
-        <v>97</v>
-      </c>
-      <c r="E38" t="s">
-        <v>649</v>
-      </c>
-      <c r="F38" t="s">
+      <c r="D38" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F38" s="4" t="s">
         <v>663</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="4">
         <v>11953186</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39">
+    <row r="39" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
         <v>38</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="4">
         <v>802084</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D39" t="s">
-        <v>97</v>
-      </c>
-      <c r="E39" t="s">
-        <v>649</v>
-      </c>
-      <c r="F39" t="s">
+      <c r="D39" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F39" s="4" t="s">
         <v>660</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="4">
         <v>11953819</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40">
+    <row r="40" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
         <v>39</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="4">
         <v>802085</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D40" t="s">
-        <v>97</v>
-      </c>
-      <c r="E40" t="s">
-        <v>649</v>
-      </c>
-      <c r="F40" t="s">
+      <c r="D40" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F40" s="4" t="s">
         <v>662</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="4">
         <v>11953953</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41">
+    <row r="41" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
         <v>40</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="4">
         <v>802086</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D41" t="s">
-        <v>97</v>
-      </c>
-      <c r="E41" t="s">
-        <v>649</v>
-      </c>
-      <c r="F41" t="s">
+      <c r="D41" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F41" s="4" t="s">
         <v>665</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="4">
         <v>11953946</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42">
+    <row r="42" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
         <v>41</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="4">
         <v>802087</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D42" t="s">
-        <v>97</v>
-      </c>
-      <c r="E42" t="s">
-        <v>649</v>
-      </c>
-      <c r="F42" t="s">
+      <c r="D42" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F42" s="4" t="s">
         <v>659</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="4">
         <v>10126763</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43">
+    <row r="43" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
         <v>42</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="4">
         <v>802088</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D43" t="s">
-        <v>97</v>
-      </c>
-      <c r="E43" t="s">
-        <v>649</v>
-      </c>
-      <c r="F43" t="s">
+      <c r="D43" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F43" s="4" t="s">
         <v>650</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="4">
         <v>11953675</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44">
+    <row r="44" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
         <v>43</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="4">
         <v>802089</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D44" t="s">
-        <v>97</v>
-      </c>
-      <c r="E44" t="s">
-        <v>649</v>
-      </c>
-      <c r="F44" t="s">
+      <c r="D44" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F44" s="4" t="s">
         <v>662</v>
       </c>
-      <c r="G44">
+      <c r="G44" s="4">
         <v>11814507</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45">
+    <row r="45" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
         <v>44</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="4">
         <v>802090</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D45" t="s">
-        <v>97</v>
-      </c>
-      <c r="E45" t="s">
-        <v>649</v>
-      </c>
-      <c r="F45" t="s">
+      <c r="D45" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F45" s="4" t="s">
         <v>662</v>
       </c>
-      <c r="G45">
+      <c r="G45" s="4">
         <v>11814507</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46">
+    <row r="46" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
         <v>45</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="4">
         <v>802091</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D46" t="s">
-        <v>97</v>
-      </c>
-      <c r="E46" t="s">
-        <v>649</v>
-      </c>
-      <c r="F46" t="s">
+      <c r="D46" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F46" s="4" t="s">
         <v>662</v>
       </c>
-      <c r="G46">
+      <c r="G46" s="4">
         <v>11814507</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47">
+    <row r="47" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
         <v>46</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="4">
         <v>802092</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D47" t="s">
-        <v>97</v>
-      </c>
-      <c r="E47" t="s">
-        <v>649</v>
-      </c>
-      <c r="F47" t="s">
+      <c r="D47" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F47" s="4" t="s">
         <v>662</v>
       </c>
-      <c r="G47">
+      <c r="G47" s="4">
         <v>11814507</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48">
+    <row r="48" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
         <v>47</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="4">
         <v>802093</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D48" t="s">
-        <v>97</v>
-      </c>
-      <c r="E48" t="s">
-        <v>649</v>
-      </c>
-      <c r="F48" t="s">
+      <c r="D48" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F48" s="4" t="s">
         <v>662</v>
       </c>
-      <c r="G48">
+      <c r="G48" s="4">
         <v>11814507</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49">
+    <row r="49" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
         <v>48</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="4">
         <v>802094</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D49" t="s">
-        <v>97</v>
-      </c>
-      <c r="E49" t="s">
-        <v>649</v>
-      </c>
-      <c r="F49" t="s">
+      <c r="D49" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F49" s="4" t="s">
         <v>662</v>
       </c>
-      <c r="G49">
+      <c r="G49" s="4">
         <v>11814507</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50">
+    <row r="50" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="4">
         <v>49</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="4">
         <v>802095</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D50" t="s">
-        <v>97</v>
-      </c>
-      <c r="E50" t="s">
-        <v>649</v>
-      </c>
-      <c r="F50" t="s">
+      <c r="D50" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F50" s="4" t="s">
         <v>662</v>
       </c>
-      <c r="G50">
+      <c r="G50" s="4">
         <v>11814507</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51">
+    <row r="51" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
         <v>50</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="4">
         <v>802096</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D51" t="s">
-        <v>97</v>
-      </c>
-      <c r="E51" t="s">
-        <v>649</v>
-      </c>
-      <c r="F51" t="s">
+      <c r="D51" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F51" s="4" t="s">
         <v>662</v>
       </c>
-      <c r="G51">
+      <c r="G51" s="4">
         <v>11814507</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52">
+    <row r="52" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
         <v>51</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="4">
         <v>802097</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D52" t="s">
-        <v>97</v>
-      </c>
-      <c r="E52" t="s">
-        <v>649</v>
-      </c>
-      <c r="F52" t="s">
+      <c r="D52" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F52" s="4" t="s">
         <v>662</v>
       </c>
-      <c r="G52">
+      <c r="G52" s="4">
         <v>11814507</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53">
+    <row r="53" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
         <v>52</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="4">
         <v>802098</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D53" t="s">
-        <v>97</v>
-      </c>
-      <c r="E53" t="s">
-        <v>649</v>
-      </c>
-      <c r="F53" t="s">
+      <c r="D53" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F53" s="4" t="s">
         <v>662</v>
       </c>
-      <c r="G53">
+      <c r="G53" s="4">
         <v>11814507</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54">
+    <row r="54" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="4">
         <v>53</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="4">
         <v>802099</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D54" t="s">
-        <v>97</v>
-      </c>
-      <c r="E54" t="s">
-        <v>645</v>
-      </c>
-      <c r="F54" t="s">
+      <c r="D54" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F54" s="4" t="s">
         <v>661</v>
       </c>
-      <c r="G54">
+      <c r="G54" s="4">
         <v>108129131</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55">
+    <row r="55" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="4">
         <v>54</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="4">
         <v>802100</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D55" t="s">
-        <v>97</v>
-      </c>
-      <c r="E55" t="s">
-        <v>645</v>
-      </c>
-      <c r="F55" t="s">
+      <c r="D55" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F55" s="4" t="s">
         <v>655</v>
       </c>
-      <c r="G55">
+      <c r="G55" s="4">
         <v>11953688</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56">
+    <row r="56" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="4">
         <v>55</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="4">
         <v>802101</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D56" t="s">
-        <v>97</v>
-      </c>
-      <c r="E56" t="s">
-        <v>645</v>
-      </c>
-      <c r="F56" t="s">
+      <c r="D56" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F56" s="4" t="s">
         <v>661</v>
       </c>
-      <c r="G56">
+      <c r="G56" s="4">
         <v>11953785</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57">
+    <row r="57" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="4">
         <v>56</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="4">
         <v>802102</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D57" t="s">
-        <v>97</v>
-      </c>
-      <c r="E57" t="s">
-        <v>649</v>
-      </c>
-      <c r="F57" t="s">
+      <c r="D57" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F57" s="4" t="s">
         <v>660</v>
       </c>
-      <c r="G57">
+      <c r="G57" s="4">
         <v>11953815</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58">
+    <row r="58" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="4">
         <v>57</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="4">
         <v>802103</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="E58" t="s">
-        <v>645</v>
-      </c>
-      <c r="F58" t="s">
+      <c r="E58" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F58" s="4" t="s">
         <v>655</v>
       </c>
-      <c r="G58">
+      <c r="G58" s="4">
         <v>11954176</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59">
+    <row r="59" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="4">
         <v>58</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="4">
         <v>802104</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D59" t="s">
-        <v>97</v>
-      </c>
-      <c r="E59" t="s">
-        <v>649</v>
-      </c>
-      <c r="F59" t="s">
+      <c r="D59" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F59" s="4" t="s">
         <v>663</v>
       </c>
-      <c r="G59">
+      <c r="G59" s="4">
         <v>11953186</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60">
+    <row r="60" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="4">
         <v>59</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="4">
         <v>802105</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D60" t="s">
-        <v>97</v>
-      </c>
-      <c r="E60" t="s">
-        <v>649</v>
-      </c>
-      <c r="F60" t="s">
+      <c r="D60" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F60" s="4" t="s">
         <v>663</v>
       </c>
-      <c r="G60">
+      <c r="G60" s="4">
         <v>11953186</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61">
+    <row r="61" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="4">
         <v>60</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="4">
         <v>802106</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D61" t="s">
-        <v>97</v>
-      </c>
-      <c r="E61" t="s">
+      <c r="D61" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E61" s="4" t="s">
         <v>647</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F61" s="4" t="s">
         <v>659</v>
       </c>
-      <c r="G61">
+      <c r="G61" s="4">
         <v>11953851</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62">
+    <row r="62" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="4">
         <v>61</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="4">
         <v>802107</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D62" t="s">
-        <v>97</v>
-      </c>
-      <c r="E62" t="s">
-        <v>649</v>
-      </c>
-      <c r="F62" t="s">
+      <c r="D62" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F62" s="4" t="s">
         <v>663</v>
       </c>
-      <c r="G62">
+      <c r="G62" s="4">
         <v>11690626</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63">
+    <row r="63" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="4">
         <v>62</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="4">
         <v>802108</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="E63" t="s">
-        <v>645</v>
-      </c>
-      <c r="F63" t="s">
+      <c r="E63" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F63" s="4" t="s">
         <v>655</v>
       </c>
-      <c r="G63">
+      <c r="G63" s="4">
         <v>10027279</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64">
+    <row r="64" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="4">
         <v>63</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="4">
         <v>802292</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D64" t="s">
-        <v>96</v>
-      </c>
-      <c r="E64" t="s">
-        <v>649</v>
-      </c>
-      <c r="F64" t="s">
+      <c r="D64" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F64" s="4" t="s">
         <v>664</v>
       </c>
-      <c r="G64">
+      <c r="G64" s="4">
         <v>7177632</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65">
+    <row r="65" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="4">
         <v>64</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="4">
         <v>802293</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D65" t="s">
-        <v>96</v>
-      </c>
-      <c r="E65" t="s">
-        <v>649</v>
-      </c>
-      <c r="F65" t="s">
+      <c r="D65" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F65" s="4" t="s">
         <v>662</v>
       </c>
-      <c r="G65">
+      <c r="G65" s="4">
         <v>10262521</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66">
+    <row r="66" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="4">
         <v>65</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="4">
         <v>802294</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D66" t="s">
-        <v>96</v>
-      </c>
-      <c r="E66" t="s">
-        <v>649</v>
-      </c>
-      <c r="F66" t="s">
+      <c r="D66" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F66" s="4" t="s">
         <v>657</v>
       </c>
-      <c r="G66">
+      <c r="G66" s="4">
         <v>11827950</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67">
+    <row r="67" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="4">
         <v>66</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="4">
         <v>802295</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D67" t="s">
-        <v>97</v>
-      </c>
-      <c r="E67" t="s">
-        <v>649</v>
-      </c>
-      <c r="F67" t="s">
+      <c r="D67" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F67" s="4" t="s">
         <v>664</v>
       </c>
-      <c r="G67">
+      <c r="G67" s="4">
         <v>11956050</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68">
+    <row r="68" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="4">
         <v>67</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="4">
         <v>802296</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D68" t="s">
-        <v>97</v>
-      </c>
-      <c r="E68" t="s">
-        <v>649</v>
-      </c>
-      <c r="F68" t="s">
+      <c r="D68" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F68" s="4" t="s">
         <v>664</v>
       </c>
-      <c r="G68">
+      <c r="G68" s="4">
         <v>11956050</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69">
+    <row r="69" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="4">
         <v>68</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="4">
         <v>802297</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D69" t="s">
-        <v>97</v>
-      </c>
-      <c r="E69" t="s">
-        <v>649</v>
-      </c>
-      <c r="F69" t="s">
+      <c r="D69" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F69" s="4" t="s">
         <v>664</v>
       </c>
-      <c r="G69">
+      <c r="G69" s="4">
         <v>11956050</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70">
+    <row r="70" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="4">
         <v>69</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="4">
         <v>802298</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D70" t="s">
-        <v>97</v>
-      </c>
-      <c r="E70" t="s">
-        <v>649</v>
-      </c>
-      <c r="F70" t="s">
+      <c r="D70" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F70" s="4" t="s">
         <v>664</v>
       </c>
-      <c r="G70">
+      <c r="G70" s="4">
         <v>11956410</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71">
+    <row r="71" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="4">
         <v>70</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="4">
         <v>802299</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D71" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="E71" t="s">
-        <v>649</v>
-      </c>
-      <c r="F71" t="s">
+      <c r="E71" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F71" s="4" t="s">
         <v>654</v>
       </c>
-      <c r="G71">
+      <c r="G71" s="4">
         <v>7000697</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72">
+    <row r="72" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="4">
         <v>71</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="4">
         <v>802300</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D72" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="E72" t="s">
-        <v>649</v>
-      </c>
-      <c r="F72" t="s">
+      <c r="E72" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F72" s="4" t="s">
         <v>654</v>
       </c>
-      <c r="G72">
+      <c r="G72" s="4">
         <v>7000697</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73">
+    <row r="73" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="4">
         <v>72</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="4">
         <v>802301</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D73" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="E73" t="s">
-        <v>649</v>
-      </c>
-      <c r="F73" t="s">
+      <c r="E73" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F73" s="4" t="s">
         <v>654</v>
       </c>
-      <c r="G73">
+      <c r="G73" s="4">
         <v>7000697</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74">
+    <row r="74" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="4">
         <v>73</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="4">
         <v>802302</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D74" t="s">
-        <v>97</v>
-      </c>
-      <c r="E74" t="s">
+      <c r="D74" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E74" s="4" t="s">
         <v>647</v>
       </c>
-      <c r="F74" t="s">
+      <c r="F74" s="4" t="s">
         <v>666</v>
       </c>
-      <c r="G74">
+      <c r="G74" s="4">
         <v>11955830</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75">
+    <row r="75" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="4">
         <v>74</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="4">
         <v>802303</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D75" t="s">
-        <v>97</v>
-      </c>
-      <c r="E75" t="s">
-        <v>649</v>
-      </c>
-      <c r="F75" t="s">
+      <c r="D75" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F75" s="4" t="s">
         <v>656</v>
       </c>
-      <c r="G75">
+      <c r="G75" s="4">
         <v>11956413</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76">
+    <row r="76" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="4">
         <v>75</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="4">
         <v>802304</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D76" t="s">
-        <v>97</v>
-      </c>
-      <c r="E76" t="s">
-        <v>649</v>
-      </c>
-      <c r="F76" t="s">
+      <c r="D76" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F76" s="4" t="s">
         <v>664</v>
       </c>
-      <c r="G76">
+      <c r="G76" s="4">
         <v>11956248</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77">
+    <row r="77" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="4">
         <v>76</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="4">
         <v>802305</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D77" t="s">
-        <v>97</v>
-      </c>
-      <c r="E77" t="s">
-        <v>649</v>
-      </c>
-      <c r="F77" t="s">
+      <c r="D77" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F77" s="4" t="s">
         <v>662</v>
       </c>
-      <c r="G77">
+      <c r="G77" s="4">
         <v>11792392</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78">
+    <row r="78" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="4">
         <v>77</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="4">
         <v>802306</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D78" t="s">
-        <v>97</v>
-      </c>
-      <c r="E78" t="s">
-        <v>649</v>
-      </c>
-      <c r="F78" t="s">
+      <c r="D78" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F78" s="4" t="s">
         <v>662</v>
       </c>
-      <c r="G78">
+      <c r="G78" s="4">
         <v>11792392</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79">
+    <row r="79" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="4">
         <v>78</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="4">
         <v>802307</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D79" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E79" t="s">
-        <v>645</v>
-      </c>
-      <c r="F79" t="s">
+      <c r="E79" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F79" s="4" t="s">
         <v>646</v>
       </c>
-      <c r="G79">
+      <c r="G79" s="4">
         <v>11956593</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80">
+    <row r="80" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="4">
         <v>79</v>
       </c>
-      <c r="B80">
+      <c r="B80" s="4">
         <v>802308</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D80" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E80" t="s">
-        <v>645</v>
-      </c>
-      <c r="F80" t="s">
+      <c r="E80" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F80" s="4" t="s">
         <v>646</v>
       </c>
-      <c r="G80">
+      <c r="G80" s="4">
         <v>11956593</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81">
+    <row r="81" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="4">
         <v>80</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="4">
         <v>802309</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D81" t="s">
-        <v>97</v>
-      </c>
-      <c r="E81" t="s">
-        <v>649</v>
-      </c>
-      <c r="F81" t="s">
+      <c r="D81" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F81" s="4" t="s">
         <v>662</v>
       </c>
-      <c r="G81">
+      <c r="G81" s="4">
         <v>11954973</v>
       </c>
     </row>

--- a/Hit-Name-List-for-January-2023-(ACP).xlsx
+++ b/Hit-Name-List-for-January-2023-(ACP).xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CP1\Documents\GitHub\Google-Risk-Checking\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\con823.TMLPC18109\Desktop\Google-Risk-Checking\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2622,8 +2622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K1432"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="A81" sqref="A23:XFD81"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="A137" sqref="A137:XFD141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4516,463 +4516,463 @@
         <v>11954973</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82">
+    <row r="82" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="4">
         <v>81</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="4">
         <v>802310</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D82" t="s">
-        <v>97</v>
-      </c>
-      <c r="E82" t="s">
-        <v>649</v>
-      </c>
-      <c r="F82" t="s">
+      <c r="D82" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F82" s="4" t="s">
         <v>656</v>
       </c>
-      <c r="G82">
+      <c r="G82" s="4">
         <v>11956454</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83">
+    <row r="83" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="4">
         <v>82</v>
       </c>
-      <c r="B83">
+      <c r="B83" s="4">
         <v>802311</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D83" t="s">
-        <v>97</v>
-      </c>
-      <c r="E83" t="s">
-        <v>649</v>
-      </c>
-      <c r="F83" t="s">
+      <c r="D83" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F83" s="4" t="s">
         <v>663</v>
       </c>
-      <c r="G83">
+      <c r="G83" s="4">
         <v>11690701</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84">
+    <row r="84" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="4">
         <v>83</v>
       </c>
-      <c r="B84">
+      <c r="B84" s="4">
         <v>802312</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C84" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D84" t="s">
-        <v>97</v>
-      </c>
-      <c r="E84" t="s">
-        <v>649</v>
-      </c>
-      <c r="F84" t="s">
+      <c r="D84" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F84" s="4" t="s">
         <v>664</v>
       </c>
-      <c r="G84">
+      <c r="G84" s="4">
         <v>11956587</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85">
+    <row r="85" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="4">
         <v>84</v>
       </c>
-      <c r="B85">
+      <c r="B85" s="4">
         <v>802313</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C85" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D85" t="s">
-        <v>97</v>
-      </c>
-      <c r="E85" t="s">
-        <v>649</v>
-      </c>
-      <c r="F85" t="s">
+      <c r="D85" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F85" s="4" t="s">
         <v>656</v>
       </c>
-      <c r="G85">
+      <c r="G85" s="4">
         <v>11956454</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86">
+    <row r="86" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="4">
         <v>85</v>
       </c>
-      <c r="B86">
+      <c r="B86" s="4">
         <v>802314</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C86" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D86" t="s">
-        <v>97</v>
-      </c>
-      <c r="E86" t="s">
-        <v>649</v>
-      </c>
-      <c r="F86" t="s">
+      <c r="D86" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F86" s="4" t="s">
         <v>656</v>
       </c>
-      <c r="G86">
+      <c r="G86" s="4">
         <v>11956454</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87">
+    <row r="87" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="4">
         <v>86</v>
       </c>
-      <c r="B87">
+      <c r="B87" s="4">
         <v>802315</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D87" t="s">
-        <v>97</v>
-      </c>
-      <c r="E87" t="s">
-        <v>649</v>
-      </c>
-      <c r="F87" t="s">
+      <c r="D87" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F87" s="4" t="s">
         <v>656</v>
       </c>
-      <c r="G87">
+      <c r="G87" s="4">
         <v>11956454</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88">
+    <row r="88" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="4">
         <v>87</v>
       </c>
-      <c r="B88">
+      <c r="B88" s="4">
         <v>802316</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C88" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D88" t="s">
-        <v>97</v>
-      </c>
-      <c r="E88" t="s">
-        <v>649</v>
-      </c>
-      <c r="F88" t="s">
+      <c r="D88" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F88" s="4" t="s">
         <v>656</v>
       </c>
-      <c r="G88">
+      <c r="G88" s="4">
         <v>11956454</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89">
+    <row r="89" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="4">
         <v>88</v>
       </c>
-      <c r="B89">
+      <c r="B89" s="4">
         <v>802317</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C89" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D89" t="s">
-        <v>97</v>
-      </c>
-      <c r="E89" t="s">
-        <v>649</v>
-      </c>
-      <c r="F89" t="s">
+      <c r="D89" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F89" s="4" t="s">
         <v>656</v>
       </c>
-      <c r="G89">
+      <c r="G89" s="4">
         <v>11956454</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90">
+    <row r="90" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="4">
         <v>89</v>
       </c>
-      <c r="B90">
+      <c r="B90" s="4">
         <v>802317</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C90" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D90" t="s">
-        <v>97</v>
-      </c>
-      <c r="E90" t="s">
-        <v>649</v>
-      </c>
-      <c r="F90" t="s">
+      <c r="D90" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F90" s="4" t="s">
         <v>656</v>
       </c>
-      <c r="G90">
+      <c r="G90" s="4">
         <v>11956454</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91">
+    <row r="91" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="4">
         <v>90</v>
       </c>
-      <c r="B91">
+      <c r="B91" s="4">
         <v>802318</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C91" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D91" t="s">
-        <v>97</v>
-      </c>
-      <c r="E91" t="s">
-        <v>649</v>
-      </c>
-      <c r="F91" t="s">
+      <c r="D91" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F91" s="4" t="s">
         <v>656</v>
       </c>
-      <c r="G91">
+      <c r="G91" s="4">
         <v>11956454</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92">
+    <row r="92" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="4">
         <v>91</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="4">
         <v>802319</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C92" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D92" t="s">
-        <v>97</v>
-      </c>
-      <c r="E92" t="s">
-        <v>649</v>
-      </c>
-      <c r="F92" t="s">
+      <c r="D92" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F92" s="4" t="s">
         <v>656</v>
       </c>
-      <c r="G92">
+      <c r="G92" s="4">
         <v>11956454</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93">
+    <row r="93" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="4">
         <v>92</v>
       </c>
-      <c r="B93">
+      <c r="B93" s="4">
         <v>802320</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C93" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D93" t="s">
-        <v>97</v>
-      </c>
-      <c r="E93" t="s">
-        <v>649</v>
-      </c>
-      <c r="F93" t="s">
+      <c r="D93" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F93" s="4" t="s">
         <v>656</v>
       </c>
-      <c r="G93">
+      <c r="G93" s="4">
         <v>11956454</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94">
+    <row r="94" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="4">
         <v>93</v>
       </c>
-      <c r="B94">
+      <c r="B94" s="4">
         <v>802321</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C94" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D94" t="s">
-        <v>97</v>
-      </c>
-      <c r="E94" t="s">
-        <v>649</v>
-      </c>
-      <c r="F94" t="s">
+      <c r="D94" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F94" s="4" t="s">
         <v>650</v>
       </c>
-      <c r="G94">
+      <c r="G94" s="4">
         <v>11851324</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95">
+    <row r="95" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="4">
         <v>94</v>
       </c>
-      <c r="B95">
+      <c r="B95" s="4">
         <v>802322</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C95" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D95" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="E95" t="s">
+      <c r="E95" s="4" t="s">
         <v>667</v>
       </c>
-      <c r="F95" t="s">
+      <c r="F95" s="4" t="s">
         <v>668</v>
       </c>
-      <c r="G95">
+      <c r="G95" s="4">
         <v>7936030</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96">
+    <row r="96" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="4">
         <v>95</v>
       </c>
-      <c r="B96">
+      <c r="B96" s="4">
         <v>802323</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C96" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D96" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="E96" t="s">
-        <v>649</v>
-      </c>
-      <c r="F96" t="s">
+      <c r="E96" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F96" s="4" t="s">
         <v>654</v>
       </c>
-      <c r="G96">
+      <c r="G96" s="4">
         <v>11956284</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97">
-        <v>96</v>
-      </c>
-      <c r="B97">
+    <row r="97" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="4">
+        <v>96</v>
+      </c>
+      <c r="B97" s="4">
         <v>802324</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C97" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D97" t="s">
-        <v>97</v>
-      </c>
-      <c r="E97" t="s">
-        <v>649</v>
-      </c>
-      <c r="F97" t="s">
+      <c r="D97" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F97" s="4" t="s">
         <v>662</v>
       </c>
-      <c r="G97">
+      <c r="G97" s="4">
         <v>11954973</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98">
-        <v>97</v>
-      </c>
-      <c r="B98">
+    <row r="98" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="4">
+        <v>97</v>
+      </c>
+      <c r="B98" s="4">
         <v>802325</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C98" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D98" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="E98" t="s">
+      <c r="E98" s="4" t="s">
         <v>647</v>
       </c>
-      <c r="F98" t="s">
+      <c r="F98" s="4" t="s">
         <v>669</v>
       </c>
-      <c r="G98">
+      <c r="G98" s="4">
         <v>2574567</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99">
+    <row r="99" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="4">
         <v>98</v>
       </c>
-      <c r="B99">
+      <c r="B99" s="4">
         <v>802325</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C99" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D99" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="E99" t="s">
-        <v>645</v>
-      </c>
-      <c r="F99" t="s">
+      <c r="E99" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F99" s="4" t="s">
         <v>655</v>
       </c>
-      <c r="G99">
+      <c r="G99" s="4">
         <v>11955167</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100">
+    <row r="100" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="4">
         <v>99</v>
       </c>
-      <c r="B100">
+      <c r="B100" s="4">
         <v>802326</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C100" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D100" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="E100" t="s">
-        <v>649</v>
-      </c>
-      <c r="F100" t="s">
+      <c r="E100" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F100" s="4" t="s">
         <v>648</v>
       </c>
-      <c r="G100">
+      <c r="G100" s="4">
         <v>107070035</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101">
+    <row r="101" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="4">
         <v>100</v>
       </c>
-      <c r="B101">
+      <c r="B101" s="4">
         <v>802504</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C101" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D101" t="s">
-        <v>96</v>
-      </c>
-      <c r="E101" t="s">
-        <v>645</v>
-      </c>
-      <c r="F101" t="s">
+      <c r="D101" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F101" s="4" t="s">
         <v>652</v>
       </c>
-      <c r="G101">
+      <c r="G101" s="4">
         <v>10020605</v>
       </c>
     </row>

--- a/Hit-Name-List-for-January-2023-(ACP).xlsx
+++ b/Hit-Name-List-for-January-2023-(ACP).xlsx
@@ -2622,8 +2622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K1432"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="A137" sqref="A137:XFD141"/>
+    <sheetView tabSelected="1" topLeftCell="A168" workbookViewId="0">
+      <selection activeCell="A182" sqref="A25:XFD182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4976,1866 +4976,1866 @@
         <v>10020605</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102">
+    <row r="102" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="4">
         <v>101</v>
       </c>
-      <c r="B102">
+      <c r="B102" s="4">
         <v>802505</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C102" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D102" t="s">
-        <v>96</v>
-      </c>
-      <c r="E102" t="s">
-        <v>645</v>
-      </c>
-      <c r="F102" t="s">
+      <c r="D102" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F102" s="4" t="s">
         <v>652</v>
       </c>
-      <c r="G102">
+      <c r="G102" s="4">
         <v>3794347</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103">
+    <row r="103" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="4">
         <v>102</v>
       </c>
-      <c r="B103">
+      <c r="B103" s="4">
         <v>802506</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C103" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D103" t="s">
-        <v>96</v>
-      </c>
-      <c r="E103" t="s">
-        <v>649</v>
-      </c>
-      <c r="F103" t="s">
+      <c r="D103" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F103" s="4" t="s">
         <v>658</v>
       </c>
-      <c r="G103">
+      <c r="G103" s="4">
         <v>11422466</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104">
+    <row r="104" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="4">
         <v>103</v>
       </c>
-      <c r="B104">
+      <c r="B104" s="4">
         <v>802507</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C104" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D104" t="s">
-        <v>96</v>
-      </c>
-      <c r="E104" t="s">
-        <v>649</v>
-      </c>
-      <c r="F104" t="s">
+      <c r="D104" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F104" s="4" t="s">
         <v>654</v>
       </c>
-      <c r="G104">
+      <c r="G104" s="4">
         <v>10277562</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105">
+    <row r="105" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="4">
         <v>104</v>
       </c>
-      <c r="B105">
+      <c r="B105" s="4">
         <v>802507</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C105" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D105" t="s">
-        <v>96</v>
-      </c>
-      <c r="E105" t="s">
-        <v>645</v>
-      </c>
-      <c r="F105" t="s">
+      <c r="D105" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F105" s="4" t="s">
         <v>646</v>
       </c>
-      <c r="G105">
+      <c r="G105" s="4">
         <v>3751354</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106">
+    <row r="106" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="4">
         <v>105</v>
       </c>
-      <c r="B106">
+      <c r="B106" s="4">
         <v>802508</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C106" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D106" t="s">
-        <v>96</v>
-      </c>
-      <c r="E106" t="s">
-        <v>645</v>
-      </c>
-      <c r="F106" t="s">
+      <c r="D106" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F106" s="4" t="s">
         <v>646</v>
       </c>
-      <c r="G106">
+      <c r="G106" s="4">
         <v>101017493</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107">
+    <row r="107" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="4">
         <v>106</v>
       </c>
-      <c r="B107">
+      <c r="B107" s="4">
         <v>802509</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C107" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D107" t="s">
-        <v>96</v>
-      </c>
-      <c r="E107" t="s">
+      <c r="D107" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E107" s="4" t="s">
         <v>647</v>
       </c>
-      <c r="F107" t="s">
+      <c r="F107" s="4" t="s">
         <v>665</v>
       </c>
-      <c r="G107">
+      <c r="G107" s="4">
         <v>5272547</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108">
+    <row r="108" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="4">
         <v>107</v>
       </c>
-      <c r="B108">
+      <c r="B108" s="4">
         <v>802510</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C108" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D108" t="s">
-        <v>96</v>
-      </c>
-      <c r="E108" t="s">
-        <v>649</v>
-      </c>
-      <c r="F108" t="s">
+      <c r="D108" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E108" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F108" s="4" t="s">
         <v>670</v>
       </c>
-      <c r="G108">
+      <c r="G108" s="4">
         <v>9020702</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109">
+    <row r="109" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="4">
         <v>108</v>
       </c>
-      <c r="B109">
+      <c r="B109" s="4">
         <v>802511</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C109" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D109" t="s">
-        <v>96</v>
-      </c>
-      <c r="E109" t="s">
-        <v>649</v>
-      </c>
-      <c r="F109" t="s">
+      <c r="D109" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E109" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F109" s="4" t="s">
         <v>653</v>
       </c>
-      <c r="G109">
+      <c r="G109" s="4">
         <v>1856485</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110">
+    <row r="110" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="4">
         <v>109</v>
       </c>
-      <c r="B110">
+      <c r="B110" s="4">
         <v>802511</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C110" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D110" t="s">
-        <v>96</v>
-      </c>
-      <c r="E110" t="s">
-        <v>649</v>
-      </c>
-      <c r="F110" t="s">
+      <c r="D110" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E110" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F110" s="4" t="s">
         <v>664</v>
       </c>
-      <c r="G110">
+      <c r="G110" s="4">
         <v>7187058</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111">
+    <row r="111" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="4">
         <v>110</v>
       </c>
-      <c r="B111">
+      <c r="B111" s="4">
         <v>802511</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C111" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D111" t="s">
-        <v>96</v>
-      </c>
-      <c r="E111" t="s">
-        <v>645</v>
-      </c>
-      <c r="F111" t="s">
+      <c r="D111" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E111" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F111" s="4" t="s">
         <v>655</v>
       </c>
-      <c r="G111">
+      <c r="G111" s="4">
         <v>1912101</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112">
+    <row r="112" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="4">
         <v>111</v>
       </c>
-      <c r="B112">
+      <c r="B112" s="4">
         <v>802511</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C112" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D112" t="s">
-        <v>96</v>
-      </c>
-      <c r="E112" t="s">
-        <v>645</v>
-      </c>
-      <c r="F112" t="s">
+      <c r="D112" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E112" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F112" s="4" t="s">
         <v>655</v>
       </c>
-      <c r="G112">
+      <c r="G112" s="4">
         <v>1916965</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113">
+    <row r="113" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="4">
         <v>112</v>
       </c>
-      <c r="B113">
+      <c r="B113" s="4">
         <v>802512</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C113" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D113" t="s">
-        <v>96</v>
-      </c>
-      <c r="E113" t="s">
-        <v>645</v>
-      </c>
-      <c r="F113" t="s">
+      <c r="D113" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E113" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F113" s="4" t="s">
         <v>661</v>
       </c>
-      <c r="G113">
+      <c r="G113" s="4">
         <v>9103798</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114">
+    <row r="114" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="4">
         <v>113</v>
       </c>
-      <c r="B114">
+      <c r="B114" s="4">
         <v>802513</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C114" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D114" t="s">
-        <v>96</v>
-      </c>
-      <c r="E114" t="s">
-        <v>645</v>
-      </c>
-      <c r="F114" t="s">
+      <c r="D114" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E114" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F114" s="4" t="s">
         <v>646</v>
       </c>
-      <c r="G114">
+      <c r="G114" s="4">
         <v>10579418</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115">
+    <row r="115" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="4">
         <v>114</v>
       </c>
-      <c r="B115">
+      <c r="B115" s="4">
         <v>802514</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C115" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D115" t="s">
+      <c r="D115" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E115" t="s">
-        <v>645</v>
-      </c>
-      <c r="F115" t="s">
+      <c r="E115" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F115" s="4" t="s">
         <v>646</v>
       </c>
-      <c r="G115">
+      <c r="G115" s="4">
         <v>10581582</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116">
+    <row r="116" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="4">
         <v>115</v>
       </c>
-      <c r="B116">
+      <c r="B116" s="4">
         <v>802515</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C116" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D116" t="s">
-        <v>96</v>
-      </c>
-      <c r="E116" t="s">
-        <v>649</v>
-      </c>
-      <c r="F116" t="s">
+      <c r="D116" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E116" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F116" s="4" t="s">
         <v>654</v>
       </c>
-      <c r="G116">
+      <c r="G116" s="4">
         <v>10277562</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117">
+    <row r="117" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="4">
         <v>116</v>
       </c>
-      <c r="B117">
+      <c r="B117" s="4">
         <v>802515</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C117" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D117" t="s">
-        <v>96</v>
-      </c>
-      <c r="E117" t="s">
-        <v>645</v>
-      </c>
-      <c r="F117" t="s">
+      <c r="D117" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E117" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F117" s="4" t="s">
         <v>646</v>
       </c>
-      <c r="G117">
+      <c r="G117" s="4">
         <v>3751354</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118">
+    <row r="118" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="4">
         <v>117</v>
       </c>
-      <c r="B118">
+      <c r="B118" s="4">
         <v>802516</v>
       </c>
-      <c r="C118" t="s">
+      <c r="C118" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D118" t="s">
-        <v>96</v>
-      </c>
-      <c r="E118" t="s">
-        <v>649</v>
-      </c>
-      <c r="F118" t="s">
+      <c r="D118" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E118" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F118" s="4" t="s">
         <v>658</v>
       </c>
-      <c r="G118">
+      <c r="G118" s="4">
         <v>10503102</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119">
+    <row r="119" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="4">
         <v>118</v>
       </c>
-      <c r="B119">
+      <c r="B119" s="4">
         <v>802522</v>
       </c>
-      <c r="C119" t="s">
+      <c r="C119" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D119" t="s">
+      <c r="D119" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="E119" t="s">
-        <v>645</v>
-      </c>
-      <c r="F119" t="s">
+      <c r="E119" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F119" s="4" t="s">
         <v>652</v>
       </c>
-      <c r="G119">
+      <c r="G119" s="4">
         <v>8581621</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120">
+    <row r="120" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="4">
         <v>119</v>
       </c>
-      <c r="B120">
+      <c r="B120" s="4">
         <v>802523</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C120" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D120" t="s">
+      <c r="D120" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E120" t="s">
-        <v>645</v>
-      </c>
-      <c r="F120" t="s">
+      <c r="E120" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F120" s="4" t="s">
         <v>652</v>
       </c>
-      <c r="G120">
+      <c r="G120" s="4">
         <v>8993370</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121">
+    <row r="121" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="4">
         <v>120</v>
       </c>
-      <c r="B121">
+      <c r="B121" s="4">
         <v>802524</v>
       </c>
-      <c r="C121" t="s">
+      <c r="C121" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D121" t="s">
+      <c r="D121" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="E121" t="s">
-        <v>645</v>
-      </c>
-      <c r="F121" t="s">
+      <c r="E121" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F121" s="4" t="s">
         <v>646</v>
       </c>
-      <c r="G121">
+      <c r="G121" s="4">
         <v>100718854</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122">
+    <row r="122" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="4">
         <v>121</v>
       </c>
-      <c r="B122">
+      <c r="B122" s="4">
         <v>802525</v>
       </c>
-      <c r="C122" t="s">
+      <c r="C122" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D122" t="s">
-        <v>97</v>
-      </c>
-      <c r="E122" t="s">
-        <v>645</v>
-      </c>
-      <c r="F122" t="s">
+      <c r="D122" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E122" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F122" s="4" t="s">
         <v>661</v>
       </c>
-      <c r="G122">
+      <c r="G122" s="4">
         <v>11957518</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123">
+    <row r="123" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="4">
         <v>122</v>
       </c>
-      <c r="B123">
+      <c r="B123" s="4">
         <v>802526</v>
       </c>
-      <c r="C123" t="s">
+      <c r="C123" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D123" t="s">
+      <c r="D123" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="E123" t="s">
-        <v>645</v>
-      </c>
-      <c r="F123" t="s">
+      <c r="E123" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F123" s="4" t="s">
         <v>661</v>
       </c>
-      <c r="G123">
+      <c r="G123" s="4">
         <v>9222403</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124">
+    <row r="124" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="4">
         <v>123</v>
       </c>
-      <c r="B124">
+      <c r="B124" s="4">
         <v>802527</v>
       </c>
-      <c r="C124" t="s">
+      <c r="C124" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D124" t="s">
-        <v>97</v>
-      </c>
-      <c r="E124" t="s">
-        <v>645</v>
-      </c>
-      <c r="F124" t="s">
+      <c r="D124" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E124" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F124" s="4" t="s">
         <v>661</v>
       </c>
-      <c r="G124">
+      <c r="G124" s="4">
         <v>11958632</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125">
+    <row r="125" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="4">
         <v>124</v>
       </c>
-      <c r="B125">
+      <c r="B125" s="4">
         <v>802528</v>
       </c>
-      <c r="C125" t="s">
+      <c r="C125" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D125" t="s">
-        <v>97</v>
-      </c>
-      <c r="E125" t="s">
-        <v>649</v>
-      </c>
-      <c r="F125" t="s">
+      <c r="D125" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E125" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F125" s="4" t="s">
         <v>660</v>
       </c>
-      <c r="G125">
+      <c r="G125" s="4">
         <v>11957681</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126">
+    <row r="126" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="4">
         <v>125</v>
       </c>
-      <c r="B126">
+      <c r="B126" s="4">
         <v>802529</v>
       </c>
-      <c r="C126" t="s">
+      <c r="C126" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D126" t="s">
-        <v>97</v>
-      </c>
-      <c r="E126" t="s">
-        <v>649</v>
-      </c>
-      <c r="F126" t="s">
+      <c r="D126" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E126" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F126" s="4" t="s">
         <v>660</v>
       </c>
-      <c r="G126">
+      <c r="G126" s="4">
         <v>11957681</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127">
+    <row r="127" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="4">
         <v>126</v>
       </c>
-      <c r="B127">
+      <c r="B127" s="4">
         <v>802530</v>
       </c>
-      <c r="C127" t="s">
+      <c r="C127" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D127" t="s">
-        <v>97</v>
-      </c>
-      <c r="E127" t="s">
-        <v>649</v>
-      </c>
-      <c r="F127" t="s">
+      <c r="D127" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E127" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F127" s="4" t="s">
         <v>662</v>
       </c>
-      <c r="G127">
+      <c r="G127" s="4">
         <v>11824223</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128">
+    <row r="128" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="4">
         <v>127</v>
       </c>
-      <c r="B128">
+      <c r="B128" s="4">
         <v>802531</v>
       </c>
-      <c r="C128" t="s">
+      <c r="C128" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D128" t="s">
-        <v>97</v>
-      </c>
-      <c r="E128" t="s">
-        <v>649</v>
-      </c>
-      <c r="F128" t="s">
+      <c r="D128" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E128" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F128" s="4" t="s">
         <v>662</v>
       </c>
-      <c r="G128">
+      <c r="G128" s="4">
         <v>11824223</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129">
+    <row r="129" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="4">
         <v>128</v>
       </c>
-      <c r="B129">
+      <c r="B129" s="4">
         <v>802532</v>
       </c>
-      <c r="C129" t="s">
+      <c r="C129" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D129" t="s">
-        <v>97</v>
-      </c>
-      <c r="E129" t="s">
-        <v>645</v>
-      </c>
-      <c r="F129" t="s">
+      <c r="D129" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E129" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F129" s="4" t="s">
         <v>661</v>
       </c>
-      <c r="G129">
+      <c r="G129" s="4">
         <v>11958632</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130">
+    <row r="130" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="4">
         <v>129</v>
       </c>
-      <c r="B130">
+      <c r="B130" s="4">
         <v>802533</v>
       </c>
-      <c r="C130" t="s">
+      <c r="C130" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D130" t="s">
-        <v>97</v>
-      </c>
-      <c r="E130" t="s">
-        <v>645</v>
-      </c>
-      <c r="F130" t="s">
+      <c r="D130" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E130" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F130" s="4" t="s">
         <v>661</v>
       </c>
-      <c r="G130">
+      <c r="G130" s="4">
         <v>11958632</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131">
+    <row r="131" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="4">
         <v>130</v>
       </c>
-      <c r="B131">
+      <c r="B131" s="4">
         <v>802534</v>
       </c>
-      <c r="C131" t="s">
+      <c r="C131" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D131" t="s">
-        <v>97</v>
-      </c>
-      <c r="E131" t="s">
-        <v>649</v>
-      </c>
-      <c r="F131" t="s">
+      <c r="D131" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E131" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F131" s="4" t="s">
         <v>662</v>
       </c>
-      <c r="G131">
+      <c r="G131" s="4">
         <v>11957992</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132">
+    <row r="132" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="4">
         <v>131</v>
       </c>
-      <c r="B132">
+      <c r="B132" s="4">
         <v>802535</v>
       </c>
-      <c r="C132" t="s">
+      <c r="C132" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D132" t="s">
-        <v>97</v>
-      </c>
-      <c r="E132" t="s">
-        <v>649</v>
-      </c>
-      <c r="F132" t="s">
+      <c r="D132" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E132" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F132" s="4" t="s">
         <v>662</v>
       </c>
-      <c r="G132">
+      <c r="G132" s="4">
         <v>11957992</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133">
+    <row r="133" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="4">
         <v>132</v>
       </c>
-      <c r="B133">
+      <c r="B133" s="4">
         <v>802536</v>
       </c>
-      <c r="C133" t="s">
+      <c r="C133" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D133" t="s">
-        <v>97</v>
-      </c>
-      <c r="E133" t="s">
-        <v>649</v>
-      </c>
-      <c r="F133" t="s">
+      <c r="D133" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E133" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F133" s="4" t="s">
         <v>662</v>
       </c>
-      <c r="G133">
+      <c r="G133" s="4">
         <v>11957992</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134">
+    <row r="134" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="4">
         <v>133</v>
       </c>
-      <c r="B134">
+      <c r="B134" s="4">
         <v>802537</v>
       </c>
-      <c r="C134" t="s">
+      <c r="C134" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D134" t="s">
-        <v>97</v>
-      </c>
-      <c r="E134" t="s">
-        <v>649</v>
-      </c>
-      <c r="F134" t="s">
+      <c r="D134" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E134" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F134" s="4" t="s">
         <v>659</v>
       </c>
-      <c r="G134">
+      <c r="G134" s="4">
         <v>10256636</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A135">
+    <row r="135" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="4">
         <v>134</v>
       </c>
-      <c r="B135">
+      <c r="B135" s="4">
         <v>802538</v>
       </c>
-      <c r="C135" t="s">
+      <c r="C135" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D135" t="s">
-        <v>97</v>
-      </c>
-      <c r="E135" t="s">
-        <v>649</v>
-      </c>
-      <c r="F135" t="s">
+      <c r="D135" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E135" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F135" s="4" t="s">
         <v>659</v>
       </c>
-      <c r="G135">
+      <c r="G135" s="4">
         <v>10256636</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A136">
+    <row r="136" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="4">
         <v>135</v>
       </c>
-      <c r="B136">
+      <c r="B136" s="4">
         <v>802539</v>
       </c>
-      <c r="C136" t="s">
+      <c r="C136" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D136" t="s">
-        <v>97</v>
-      </c>
-      <c r="E136" t="s">
-        <v>649</v>
-      </c>
-      <c r="F136" t="s">
+      <c r="D136" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E136" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F136" s="4" t="s">
         <v>659</v>
       </c>
-      <c r="G136">
+      <c r="G136" s="4">
         <v>10256636</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A137">
+    <row r="137" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="4">
         <v>136</v>
       </c>
-      <c r="B137">
+      <c r="B137" s="4">
         <v>802540</v>
       </c>
-      <c r="C137" t="s">
+      <c r="C137" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D137" t="s">
-        <v>97</v>
-      </c>
-      <c r="E137" t="s">
+      <c r="D137" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E137" s="4" t="s">
         <v>647</v>
       </c>
-      <c r="F137" t="s">
+      <c r="F137" s="4" t="s">
         <v>666</v>
       </c>
-      <c r="G137">
+      <c r="G137" s="4">
         <v>9838195</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A138">
+    <row r="138" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="4">
         <v>137</v>
       </c>
-      <c r="B138">
+      <c r="B138" s="4">
         <v>802541</v>
       </c>
-      <c r="C138" t="s">
+      <c r="C138" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D138" t="s">
+      <c r="D138" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="E138" t="s">
+      <c r="E138" s="4" t="s">
         <v>647</v>
       </c>
-      <c r="F138" t="s">
+      <c r="F138" s="4" t="s">
         <v>663</v>
       </c>
-      <c r="G138">
+      <c r="G138" s="4">
         <v>11958430</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A139">
+    <row r="139" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="4">
         <v>138</v>
       </c>
-      <c r="B139">
+      <c r="B139" s="4">
         <v>802542</v>
       </c>
-      <c r="C139" t="s">
+      <c r="C139" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D139" t="s">
-        <v>97</v>
-      </c>
-      <c r="E139" t="s">
-        <v>645</v>
-      </c>
-      <c r="F139" t="s">
+      <c r="D139" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E139" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F139" s="4" t="s">
         <v>661</v>
       </c>
-      <c r="G139">
+      <c r="G139" s="4">
         <v>11958632</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A140">
+    <row r="140" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="4">
         <v>139</v>
       </c>
-      <c r="B140">
+      <c r="B140" s="4">
         <v>802543</v>
       </c>
-      <c r="C140" t="s">
+      <c r="C140" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D140" t="s">
-        <v>97</v>
-      </c>
-      <c r="E140" t="s">
-        <v>645</v>
-      </c>
-      <c r="F140" t="s">
+      <c r="D140" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E140" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F140" s="4" t="s">
         <v>661</v>
       </c>
-      <c r="G140">
+      <c r="G140" s="4">
         <v>11958632</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A141">
+    <row r="141" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="4">
         <v>140</v>
       </c>
-      <c r="B141">
+      <c r="B141" s="4">
         <v>802544</v>
       </c>
-      <c r="C141" t="s">
+      <c r="C141" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D141" t="s">
+      <c r="D141" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="E141" t="s">
+      <c r="E141" s="4" t="s">
         <v>667</v>
       </c>
-      <c r="F141" t="s">
+      <c r="F141" s="4" t="s">
         <v>668</v>
       </c>
-      <c r="G141">
+      <c r="G141" s="4">
         <v>101250852</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A142">
+    <row r="142" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="4">
         <v>141</v>
       </c>
-      <c r="B142">
+      <c r="B142" s="4">
         <v>802684</v>
       </c>
-      <c r="C142" t="s">
+      <c r="C142" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D142" t="s">
-        <v>96</v>
-      </c>
-      <c r="E142" t="s">
-        <v>649</v>
-      </c>
-      <c r="F142" t="s">
+      <c r="D142" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E142" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F142" s="4" t="s">
         <v>658</v>
       </c>
-      <c r="G142">
+      <c r="G142" s="4">
         <v>9426280</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A143">
+    <row r="143" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="4">
         <v>142</v>
       </c>
-      <c r="B143">
+      <c r="B143" s="4">
         <v>802685</v>
       </c>
-      <c r="C143" t="s">
+      <c r="C143" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D143" t="s">
-        <v>96</v>
-      </c>
-      <c r="E143" t="s">
-        <v>645</v>
-      </c>
-      <c r="F143" t="s">
+      <c r="D143" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E143" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F143" s="4" t="s">
         <v>655</v>
       </c>
-      <c r="G143">
+      <c r="G143" s="4">
         <v>11226062</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A144">
+    <row r="144" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="4">
         <v>143</v>
       </c>
-      <c r="B144">
+      <c r="B144" s="4">
         <v>802686</v>
       </c>
-      <c r="C144" t="s">
+      <c r="C144" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D144" t="s">
-        <v>96</v>
-      </c>
-      <c r="E144" t="s">
-        <v>645</v>
-      </c>
-      <c r="F144" t="s">
+      <c r="D144" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E144" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F144" s="4" t="s">
         <v>646</v>
       </c>
-      <c r="G144">
+      <c r="G144" s="4">
         <v>101017493</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A145">
+    <row r="145" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="4">
         <v>144</v>
       </c>
-      <c r="B145">
+      <c r="B145" s="4">
         <v>802687</v>
       </c>
-      <c r="C145" t="s">
+      <c r="C145" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D145" t="s">
-        <v>96</v>
-      </c>
-      <c r="E145" t="s">
-        <v>649</v>
-      </c>
-      <c r="F145" t="s">
+      <c r="D145" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E145" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F145" s="4" t="s">
         <v>658</v>
       </c>
-      <c r="G145">
+      <c r="G145" s="4">
         <v>10334265</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A146">
+    <row r="146" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="4">
         <v>145</v>
       </c>
-      <c r="B146">
+      <c r="B146" s="4">
         <v>802688</v>
       </c>
-      <c r="C146" t="s">
+      <c r="C146" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D146" t="s">
-        <v>96</v>
-      </c>
-      <c r="E146" t="s">
-        <v>645</v>
-      </c>
-      <c r="F146" t="s">
+      <c r="D146" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E146" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F146" s="4" t="s">
         <v>655</v>
       </c>
-      <c r="G146">
+      <c r="G146" s="4">
         <v>291485</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A147">
+    <row r="147" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="4">
         <v>146</v>
       </c>
-      <c r="B147">
+      <c r="B147" s="4">
         <v>802689</v>
       </c>
-      <c r="C147" t="s">
+      <c r="C147" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D147" t="s">
-        <v>96</v>
-      </c>
-      <c r="E147" t="s">
-        <v>645</v>
-      </c>
-      <c r="F147" t="s">
+      <c r="D147" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E147" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F147" s="4" t="s">
         <v>652</v>
       </c>
-      <c r="G147">
+      <c r="G147" s="4">
         <v>102665972</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A148">
+    <row r="148" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="4">
         <v>147</v>
       </c>
-      <c r="B148">
+      <c r="B148" s="4">
         <v>802690</v>
       </c>
-      <c r="C148" t="s">
+      <c r="C148" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D148" t="s">
-        <v>96</v>
-      </c>
-      <c r="E148" t="s">
-        <v>645</v>
-      </c>
-      <c r="F148" t="s">
+      <c r="D148" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E148" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F148" s="4" t="s">
         <v>661</v>
       </c>
-      <c r="G148">
+      <c r="G148" s="4">
         <v>10773479</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A149">
+    <row r="149" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="4">
         <v>148</v>
       </c>
-      <c r="B149">
+      <c r="B149" s="4">
         <v>802691</v>
       </c>
-      <c r="C149" t="s">
+      <c r="C149" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D149" t="s">
-        <v>97</v>
-      </c>
-      <c r="E149" t="s">
+      <c r="D149" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E149" s="4" t="s">
         <v>671</v>
       </c>
-      <c r="F149" t="s">
+      <c r="F149" s="4" t="s">
         <v>672</v>
       </c>
-      <c r="G149">
+      <c r="G149" s="4">
         <v>103971283</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A150">
+    <row r="150" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="4">
         <v>149</v>
       </c>
-      <c r="B150">
+      <c r="B150" s="4">
         <v>802693</v>
       </c>
-      <c r="C150" t="s">
+      <c r="C150" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="D150" t="s">
-        <v>96</v>
-      </c>
-      <c r="E150" t="s">
-        <v>645</v>
-      </c>
-      <c r="F150" t="s">
+      <c r="D150" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E150" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F150" s="4" t="s">
         <v>646</v>
       </c>
-      <c r="G150">
+      <c r="G150" s="4">
         <v>3726877</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A151">
+    <row r="151" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="4">
         <v>150</v>
       </c>
-      <c r="B151">
+      <c r="B151" s="4">
         <v>802694</v>
       </c>
-      <c r="C151" t="s">
+      <c r="C151" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="D151" t="s">
-        <v>96</v>
-      </c>
-      <c r="E151" t="s">
+      <c r="D151" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E151" s="4" t="s">
         <v>647</v>
       </c>
-      <c r="F151" t="s">
+      <c r="F151" s="4" t="s">
         <v>673</v>
       </c>
-      <c r="G151">
+      <c r="G151" s="4">
         <v>10535237</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A152">
+    <row r="152" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="4">
         <v>151</v>
       </c>
-      <c r="B152">
+      <c r="B152" s="4">
         <v>802695</v>
       </c>
-      <c r="C152" t="s">
+      <c r="C152" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="D152" t="s">
-        <v>96</v>
-      </c>
-      <c r="E152" t="s">
-        <v>645</v>
-      </c>
-      <c r="F152" t="s">
+      <c r="D152" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E152" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F152" s="4" t="s">
         <v>655</v>
       </c>
-      <c r="G152">
+      <c r="G152" s="4">
         <v>10717612</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A153">
+    <row r="153" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="4">
         <v>152</v>
       </c>
-      <c r="B153">
+      <c r="B153" s="4">
         <v>802696</v>
       </c>
-      <c r="C153" t="s">
+      <c r="C153" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="D153" t="s">
-        <v>96</v>
-      </c>
-      <c r="E153" t="s">
-        <v>645</v>
-      </c>
-      <c r="F153" t="s">
+      <c r="D153" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E153" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F153" s="4" t="s">
         <v>646</v>
       </c>
-      <c r="G153">
+      <c r="G153" s="4">
         <v>10403993</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A154">
+    <row r="154" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="4">
         <v>153</v>
       </c>
-      <c r="B154">
+      <c r="B154" s="4">
         <v>802697</v>
       </c>
-      <c r="C154" t="s">
+      <c r="C154" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="D154" t="s">
-        <v>96</v>
-      </c>
-      <c r="E154" t="s">
-        <v>645</v>
-      </c>
-      <c r="F154" t="s">
+      <c r="D154" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E154" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F154" s="4" t="s">
         <v>652</v>
       </c>
-      <c r="G154">
+      <c r="G154" s="4">
         <v>10692024</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A155">
+    <row r="155" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="4">
         <v>154</v>
       </c>
-      <c r="B155">
+      <c r="B155" s="4">
         <v>802702</v>
       </c>
-      <c r="C155" t="s">
+      <c r="C155" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="D155" t="s">
-        <v>97</v>
-      </c>
-      <c r="E155" t="s">
-        <v>649</v>
-      </c>
-      <c r="F155" t="s">
+      <c r="D155" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E155" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F155" s="4" t="s">
         <v>663</v>
       </c>
-      <c r="G155">
+      <c r="G155" s="4">
         <v>11960307</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A156">
+    <row r="156" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="4">
         <v>155</v>
       </c>
-      <c r="B156">
+      <c r="B156" s="4">
         <v>802703</v>
       </c>
-      <c r="C156" t="s">
+      <c r="C156" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="D156" t="s">
-        <v>97</v>
-      </c>
-      <c r="E156" t="s">
-        <v>649</v>
-      </c>
-      <c r="F156" t="s">
+      <c r="D156" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E156" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F156" s="4" t="s">
         <v>663</v>
       </c>
-      <c r="G156">
+      <c r="G156" s="4">
         <v>11960307</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A157">
+    <row r="157" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="4">
         <v>156</v>
       </c>
-      <c r="B157">
+      <c r="B157" s="4">
         <v>802704</v>
       </c>
-      <c r="C157" t="s">
+      <c r="C157" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D157" t="s">
-        <v>97</v>
-      </c>
-      <c r="E157" t="s">
+      <c r="D157" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E157" s="4" t="s">
         <v>647</v>
       </c>
-      <c r="F157" t="s">
+      <c r="F157" s="4" t="s">
         <v>666</v>
       </c>
-      <c r="G157">
+      <c r="G157" s="4">
         <v>11959526</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A158">
+    <row r="158" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="4">
         <v>157</v>
       </c>
-      <c r="B158">
+      <c r="B158" s="4">
         <v>802705</v>
       </c>
-      <c r="C158" t="s">
+      <c r="C158" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D158" t="s">
-        <v>97</v>
-      </c>
-      <c r="E158" t="s">
+      <c r="D158" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E158" s="4" t="s">
         <v>647</v>
       </c>
-      <c r="F158" t="s">
+      <c r="F158" s="4" t="s">
         <v>666</v>
       </c>
-      <c r="G158">
+      <c r="G158" s="4">
         <v>11959526</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A159">
+    <row r="159" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="4">
         <v>158</v>
       </c>
-      <c r="B159">
+      <c r="B159" s="4">
         <v>802706</v>
       </c>
-      <c r="C159" t="s">
+      <c r="C159" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="D159" t="s">
-        <v>97</v>
-      </c>
-      <c r="E159" t="s">
-        <v>645</v>
-      </c>
-      <c r="F159" t="s">
+      <c r="D159" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E159" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F159" s="4" t="s">
         <v>655</v>
       </c>
-      <c r="G159">
+      <c r="G159" s="4">
         <v>11960897</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A160">
+    <row r="160" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="4">
         <v>159</v>
       </c>
-      <c r="B160">
+      <c r="B160" s="4">
         <v>802707</v>
       </c>
-      <c r="C160" t="s">
+      <c r="C160" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="D160" t="s">
-        <v>97</v>
-      </c>
-      <c r="E160" t="s">
-        <v>645</v>
-      </c>
-      <c r="F160" t="s">
+      <c r="D160" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E160" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F160" s="4" t="s">
         <v>661</v>
       </c>
-      <c r="G160">
+      <c r="G160" s="4">
         <v>108137811</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A161">
+    <row r="161" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="4">
         <v>160</v>
       </c>
-      <c r="B161">
+      <c r="B161" s="4">
         <v>802708</v>
       </c>
-      <c r="C161" t="s">
+      <c r="C161" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="D161" t="s">
-        <v>96</v>
-      </c>
-      <c r="E161" t="s">
-        <v>645</v>
-      </c>
-      <c r="F161" t="s">
+      <c r="D161" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E161" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F161" s="4" t="s">
         <v>661</v>
       </c>
-      <c r="G161">
+      <c r="G161" s="4">
         <v>11947983</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A162">
+    <row r="162" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="4">
         <v>161</v>
       </c>
-      <c r="B162">
+      <c r="B162" s="4">
         <v>802709</v>
       </c>
-      <c r="C162" t="s">
+      <c r="C162" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="D162" t="s">
+      <c r="D162" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E162" t="s">
-        <v>649</v>
-      </c>
-      <c r="F162" t="s">
+      <c r="E162" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F162" s="4" t="s">
         <v>657</v>
       </c>
-      <c r="G162">
+      <c r="G162" s="4">
         <v>7496521</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A163">
+    <row r="163" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="4">
         <v>162</v>
       </c>
-      <c r="B163">
+      <c r="B163" s="4">
         <v>802710</v>
       </c>
-      <c r="C163" t="s">
+      <c r="C163" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="D163" t="s">
-        <v>96</v>
-      </c>
-      <c r="E163" t="s">
-        <v>649</v>
-      </c>
-      <c r="F163" t="s">
+      <c r="D163" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E163" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F163" s="4" t="s">
         <v>674</v>
       </c>
-      <c r="G163">
+      <c r="G163" s="4">
         <v>7189340</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A164">
+    <row r="164" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="4">
         <v>163</v>
       </c>
-      <c r="B164">
+      <c r="B164" s="4">
         <v>802711</v>
       </c>
-      <c r="C164" t="s">
+      <c r="C164" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="D164" t="s">
-        <v>96</v>
-      </c>
-      <c r="E164" t="s">
-        <v>649</v>
-      </c>
-      <c r="F164" t="s">
+      <c r="D164" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E164" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F164" s="4" t="s">
         <v>674</v>
       </c>
-      <c r="G164">
+      <c r="G164" s="4">
         <v>7189340</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A165">
+    <row r="165" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="4">
         <v>164</v>
       </c>
-      <c r="B165">
+      <c r="B165" s="4">
         <v>802712</v>
       </c>
-      <c r="C165" t="s">
+      <c r="C165" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D165" t="s">
-        <v>97</v>
-      </c>
-      <c r="E165" t="s">
-        <v>645</v>
-      </c>
-      <c r="F165" t="s">
+      <c r="D165" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E165" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F165" s="4" t="s">
         <v>661</v>
       </c>
-      <c r="G165">
+      <c r="G165" s="4">
         <v>11959383</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A166">
+    <row r="166" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="4">
         <v>165</v>
       </c>
-      <c r="B166">
+      <c r="B166" s="4">
         <v>802713</v>
       </c>
-      <c r="C166" t="s">
+      <c r="C166" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D166" t="s">
-        <v>97</v>
-      </c>
-      <c r="E166" t="s">
-        <v>645</v>
-      </c>
-      <c r="F166" t="s">
+      <c r="D166" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E166" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F166" s="4" t="s">
         <v>661</v>
       </c>
-      <c r="G166">
+      <c r="G166" s="4">
         <v>11959383</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A167">
+    <row r="167" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="4">
         <v>166</v>
       </c>
-      <c r="B167">
+      <c r="B167" s="4">
         <v>802714</v>
       </c>
-      <c r="C167" t="s">
+      <c r="C167" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="D167" t="s">
-        <v>97</v>
-      </c>
-      <c r="E167" t="s">
-        <v>649</v>
-      </c>
-      <c r="F167" t="s">
+      <c r="D167" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E167" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F167" s="4" t="s">
         <v>656</v>
       </c>
-      <c r="G167">
+      <c r="G167" s="4">
         <v>11960283</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A168">
+    <row r="168" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="4">
         <v>167</v>
       </c>
-      <c r="B168">
+      <c r="B168" s="4">
         <v>802715</v>
       </c>
-      <c r="C168" t="s">
+      <c r="C168" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="D168" t="s">
-        <v>97</v>
-      </c>
-      <c r="E168" t="s">
-        <v>649</v>
-      </c>
-      <c r="F168" t="s">
+      <c r="D168" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E168" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F168" s="4" t="s">
         <v>656</v>
       </c>
-      <c r="G168">
+      <c r="G168" s="4">
         <v>11960283</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A169">
+    <row r="169" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="4">
         <v>168</v>
       </c>
-      <c r="B169">
+      <c r="B169" s="4">
         <v>802716</v>
       </c>
-      <c r="C169" t="s">
+      <c r="C169" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="D169" t="s">
-        <v>97</v>
-      </c>
-      <c r="E169" t="s">
-        <v>649</v>
-      </c>
-      <c r="F169" t="s">
+      <c r="D169" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E169" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F169" s="4" t="s">
         <v>656</v>
       </c>
-      <c r="G169">
+      <c r="G169" s="4">
         <v>11960283</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A170">
+    <row r="170" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="4">
         <v>169</v>
       </c>
-      <c r="B170">
+      <c r="B170" s="4">
         <v>802717</v>
       </c>
-      <c r="C170" t="s">
+      <c r="C170" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="D170" t="s">
-        <v>97</v>
-      </c>
-      <c r="E170" t="s">
+      <c r="D170" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E170" s="4" t="s">
         <v>647</v>
       </c>
-      <c r="F170" t="s">
+      <c r="F170" s="4" t="s">
         <v>666</v>
       </c>
-      <c r="G170">
+      <c r="G170" s="4">
         <v>11960287</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A171">
+    <row r="171" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="4">
         <v>170</v>
       </c>
-      <c r="B171">
+      <c r="B171" s="4">
         <v>802718</v>
       </c>
-      <c r="C171" t="s">
+      <c r="C171" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="D171" t="s">
-        <v>97</v>
-      </c>
-      <c r="E171" t="s">
-        <v>645</v>
-      </c>
-      <c r="F171" t="s">
+      <c r="D171" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E171" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F171" s="4" t="s">
         <v>661</v>
       </c>
-      <c r="G171">
+      <c r="G171" s="4">
         <v>11960399</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A172">
+    <row r="172" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="4">
         <v>171</v>
       </c>
-      <c r="B172">
+      <c r="B172" s="4">
         <v>802719</v>
       </c>
-      <c r="C172" t="s">
+      <c r="C172" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="D172" t="s">
-        <v>97</v>
-      </c>
-      <c r="E172" t="s">
+      <c r="D172" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E172" s="4" t="s">
         <v>647</v>
       </c>
-      <c r="F172" t="s">
+      <c r="F172" s="4" t="s">
         <v>666</v>
       </c>
-      <c r="G172">
+      <c r="G172" s="4">
         <v>11960287</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A173">
+    <row r="173" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="4">
         <v>172</v>
       </c>
-      <c r="B173">
+      <c r="B173" s="4">
         <v>802720</v>
       </c>
-      <c r="C173" t="s">
+      <c r="C173" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="D173" t="s">
-        <v>97</v>
-      </c>
-      <c r="E173" t="s">
+      <c r="D173" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E173" s="4" t="s">
         <v>647</v>
       </c>
-      <c r="F173" t="s">
+      <c r="F173" s="4" t="s">
         <v>666</v>
       </c>
-      <c r="G173">
+      <c r="G173" s="4">
         <v>11960287</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A174">
+    <row r="174" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="4">
         <v>173</v>
       </c>
-      <c r="B174">
+      <c r="B174" s="4">
         <v>802721</v>
       </c>
-      <c r="C174" t="s">
+      <c r="C174" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="D174" t="s">
+      <c r="D174" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="E174" t="s">
-        <v>649</v>
-      </c>
-      <c r="F174" t="s">
+      <c r="E174" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F174" s="4" t="s">
         <v>664</v>
       </c>
-      <c r="G174">
+      <c r="G174" s="4">
         <v>101517896</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A175">
+    <row r="175" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="4">
         <v>174</v>
       </c>
-      <c r="B175">
+      <c r="B175" s="4">
         <v>802722</v>
       </c>
-      <c r="C175" t="s">
+      <c r="C175" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="D175" t="s">
-        <v>97</v>
-      </c>
-      <c r="E175" t="s">
-        <v>645</v>
-      </c>
-      <c r="F175" t="s">
+      <c r="D175" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E175" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F175" s="4" t="s">
         <v>661</v>
       </c>
-      <c r="G175">
+      <c r="G175" s="4">
         <v>11960501</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A176">
+    <row r="176" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="4">
         <v>175</v>
       </c>
-      <c r="B176">
+      <c r="B176" s="4">
         <v>802723</v>
       </c>
-      <c r="C176" t="s">
+      <c r="C176" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="D176" t="s">
-        <v>97</v>
-      </c>
-      <c r="E176" t="s">
-        <v>645</v>
-      </c>
-      <c r="F176" t="s">
+      <c r="D176" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E176" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F176" s="4" t="s">
         <v>661</v>
       </c>
-      <c r="G176">
+      <c r="G176" s="4">
         <v>11960501</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A177">
+    <row r="177" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="4">
         <v>176</v>
       </c>
-      <c r="B177">
+      <c r="B177" s="4">
         <v>802724</v>
       </c>
-      <c r="C177" t="s">
+      <c r="C177" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="D177" t="s">
-        <v>97</v>
-      </c>
-      <c r="E177" t="s">
-        <v>645</v>
-      </c>
-      <c r="F177" t="s">
+      <c r="D177" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E177" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F177" s="4" t="s">
         <v>661</v>
       </c>
-      <c r="G177">
+      <c r="G177" s="4">
         <v>11960501</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A178">
+    <row r="178" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="4">
         <v>177</v>
       </c>
-      <c r="B178">
+      <c r="B178" s="4">
         <v>802725</v>
       </c>
-      <c r="C178" t="s">
+      <c r="C178" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="D178" t="s">
+      <c r="D178" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="E178" t="s">
-        <v>645</v>
-      </c>
-      <c r="F178" t="s">
+      <c r="E178" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F178" s="4" t="s">
         <v>655</v>
       </c>
-      <c r="G178">
+      <c r="G178" s="4">
         <v>937205</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A179">
+    <row r="179" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="4">
         <v>178</v>
       </c>
-      <c r="B179">
+      <c r="B179" s="4">
         <v>802726</v>
       </c>
-      <c r="C179" t="s">
+      <c r="C179" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="D179" t="s">
-        <v>97</v>
-      </c>
-      <c r="E179" t="s">
-        <v>649</v>
-      </c>
-      <c r="F179" t="s">
+      <c r="D179" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E179" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F179" s="4" t="s">
         <v>664</v>
       </c>
-      <c r="G179">
+      <c r="G179" s="4">
         <v>11960892</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A180">
+    <row r="180" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="4">
         <v>179</v>
       </c>
-      <c r="B180">
+      <c r="B180" s="4">
         <v>802727</v>
       </c>
-      <c r="C180" t="s">
+      <c r="C180" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="D180" t="s">
-        <v>97</v>
-      </c>
-      <c r="E180" t="s">
-        <v>645</v>
-      </c>
-      <c r="F180" t="s">
+      <c r="D180" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E180" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F180" s="4" t="s">
         <v>655</v>
       </c>
-      <c r="G180">
+      <c r="G180" s="4">
         <v>11960897</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A181">
+    <row r="181" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="4">
         <v>180</v>
       </c>
-      <c r="B181">
+      <c r="B181" s="4">
         <v>802728</v>
       </c>
-      <c r="C181" t="s">
+      <c r="C181" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="D181" t="s">
-        <v>97</v>
-      </c>
-      <c r="E181" t="s">
-        <v>645</v>
-      </c>
-      <c r="F181" t="s">
+      <c r="D181" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E181" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F181" s="4" t="s">
         <v>661</v>
       </c>
-      <c r="G181">
+      <c r="G181" s="4">
         <v>11960501</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A182">
+    <row r="182" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="4">
         <v>181</v>
       </c>
-      <c r="B182">
+      <c r="B182" s="4">
         <v>802729</v>
       </c>
-      <c r="C182" t="s">
+      <c r="C182" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="D182" t="s">
-        <v>97</v>
-      </c>
-      <c r="E182" t="s">
-        <v>645</v>
-      </c>
-      <c r="F182" t="s">
+      <c r="D182" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E182" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F182" s="4" t="s">
         <v>661</v>
       </c>
-      <c r="G182">
+      <c r="G182" s="4">
         <v>11960501</v>
       </c>
     </row>

--- a/Hit-Name-List-for-January-2023-(ACP).xlsx
+++ b/Hit-Name-List-for-January-2023-(ACP).xlsx
@@ -2622,8 +2622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K1432"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A168" workbookViewId="0">
-      <selection activeCell="A182" sqref="A25:XFD182"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6839,6006 +6839,6006 @@
         <v>11960501</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A183">
+    <row r="183" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="4">
         <v>182</v>
       </c>
-      <c r="B183">
+      <c r="B183" s="4">
         <v>802913</v>
       </c>
-      <c r="C183" t="s">
+      <c r="C183" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="D183" t="s">
-        <v>96</v>
-      </c>
-      <c r="E183" t="s">
-        <v>649</v>
-      </c>
-      <c r="F183" t="s">
+      <c r="D183" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E183" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F183" s="4" t="s">
         <v>658</v>
       </c>
-      <c r="G183">
+      <c r="G183" s="4">
         <v>9507978</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A184">
+    <row r="184" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="4">
         <v>183</v>
       </c>
-      <c r="B184">
+      <c r="B184" s="4">
         <v>802914</v>
       </c>
-      <c r="C184" t="s">
+      <c r="C184" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="D184" t="s">
-        <v>96</v>
-      </c>
-      <c r="E184" t="s">
-        <v>649</v>
-      </c>
-      <c r="F184" t="s">
+      <c r="D184" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E184" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F184" s="4" t="s">
         <v>664</v>
       </c>
-      <c r="G184">
+      <c r="G184" s="4">
         <v>10899011</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A185">
+    <row r="185" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="4">
         <v>184</v>
       </c>
-      <c r="B185">
+      <c r="B185" s="4">
         <v>802915</v>
       </c>
-      <c r="C185" t="s">
+      <c r="C185" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="D185" t="s">
-        <v>96</v>
-      </c>
-      <c r="E185" t="s">
-        <v>649</v>
-      </c>
-      <c r="F185" t="s">
+      <c r="D185" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E185" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F185" s="4" t="s">
         <v>664</v>
       </c>
-      <c r="G185">
+      <c r="G185" s="4">
         <v>10899011</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A186">
+    <row r="186" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="4">
         <v>185</v>
       </c>
-      <c r="B186">
+      <c r="B186" s="4">
         <v>802916</v>
       </c>
-      <c r="C186" t="s">
+      <c r="C186" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="D186" t="s">
-        <v>96</v>
-      </c>
-      <c r="E186" t="s">
-        <v>649</v>
-      </c>
-      <c r="F186" t="s">
+      <c r="D186" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E186" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F186" s="4" t="s">
         <v>664</v>
       </c>
-      <c r="G186">
+      <c r="G186" s="4">
         <v>10899011</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A187">
+    <row r="187" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="4">
         <v>186</v>
       </c>
-      <c r="B187">
+      <c r="B187" s="4">
         <v>802917</v>
       </c>
-      <c r="C187" t="s">
+      <c r="C187" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="D187" t="s">
-        <v>96</v>
-      </c>
-      <c r="E187" t="s">
+      <c r="D187" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E187" s="4" t="s">
         <v>647</v>
       </c>
-      <c r="F187" t="s">
+      <c r="F187" s="4" t="s">
         <v>653</v>
       </c>
-      <c r="G187">
+      <c r="G187" s="4">
         <v>9462232</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A188">
+    <row r="188" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="4">
         <v>187</v>
       </c>
-      <c r="B188">
+      <c r="B188" s="4">
         <v>802917</v>
       </c>
-      <c r="C188" t="s">
+      <c r="C188" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="D188" t="s">
-        <v>96</v>
-      </c>
-      <c r="E188" t="s">
-        <v>645</v>
-      </c>
-      <c r="F188" t="s">
+      <c r="D188" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E188" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F188" s="4" t="s">
         <v>655</v>
       </c>
-      <c r="G188">
+      <c r="G188" s="4">
         <v>1891475</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A189">
+    <row r="189" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="4">
         <v>188</v>
       </c>
-      <c r="B189">
+      <c r="B189" s="4">
         <v>802918</v>
       </c>
-      <c r="C189" t="s">
+      <c r="C189" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="D189" t="s">
-        <v>96</v>
-      </c>
-      <c r="E189" t="s">
-        <v>649</v>
-      </c>
-      <c r="F189" t="s">
+      <c r="D189" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E189" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F189" s="4" t="s">
         <v>675</v>
       </c>
-      <c r="G189">
+      <c r="G189" s="4">
         <v>1812002</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A190">
+    <row r="190" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="4">
         <v>189</v>
       </c>
-      <c r="B190">
+      <c r="B190" s="4">
         <v>802919</v>
       </c>
-      <c r="C190" t="s">
+      <c r="C190" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D190" t="s">
-        <v>96</v>
-      </c>
-      <c r="E190" t="s">
-        <v>645</v>
-      </c>
-      <c r="F190" t="s">
+      <c r="D190" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E190" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F190" s="4" t="s">
         <v>646</v>
       </c>
-      <c r="G190">
+      <c r="G190" s="4">
         <v>101017493</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A191">
+    <row r="191" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="4">
         <v>190</v>
       </c>
-      <c r="B191">
+      <c r="B191" s="4">
         <v>802920</v>
       </c>
-      <c r="C191" t="s">
+      <c r="C191" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="D191" t="s">
-        <v>96</v>
-      </c>
-      <c r="E191" t="s">
-        <v>649</v>
-      </c>
-      <c r="F191" t="s">
+      <c r="D191" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E191" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F191" s="4" t="s">
         <v>658</v>
       </c>
-      <c r="G191">
+      <c r="G191" s="4">
         <v>10334474</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A192">
+    <row r="192" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="4">
         <v>191</v>
       </c>
-      <c r="B192">
+      <c r="B192" s="4">
         <v>802920</v>
       </c>
-      <c r="C192" t="s">
+      <c r="C192" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="D192" t="s">
-        <v>96</v>
-      </c>
-      <c r="E192" t="s">
-        <v>645</v>
-      </c>
-      <c r="F192" t="s">
+      <c r="D192" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E192" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F192" s="4" t="s">
         <v>646</v>
       </c>
-      <c r="G192">
+      <c r="G192" s="4">
         <v>3727199</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A193">
+    <row r="193" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="4">
         <v>192</v>
       </c>
-      <c r="B193">
+      <c r="B193" s="4">
         <v>802921</v>
       </c>
-      <c r="C193" t="s">
+      <c r="C193" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D193" t="s">
-        <v>96</v>
-      </c>
-      <c r="E193" t="s">
-        <v>645</v>
-      </c>
-      <c r="F193" t="s">
+      <c r="D193" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E193" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F193" s="4" t="s">
         <v>652</v>
       </c>
-      <c r="G193">
+      <c r="G193" s="4">
         <v>102665972</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A194">
+    <row r="194" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="4">
         <v>193</v>
       </c>
-      <c r="B194">
+      <c r="B194" s="4">
         <v>802923</v>
       </c>
-      <c r="C194" t="s">
+      <c r="C194" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="D194" t="s">
-        <v>96</v>
-      </c>
-      <c r="E194" t="s">
-        <v>649</v>
-      </c>
-      <c r="F194" t="s">
+      <c r="D194" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E194" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F194" s="4" t="s">
         <v>658</v>
       </c>
-      <c r="G194">
+      <c r="G194" s="4">
         <v>9313522</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A195">
+    <row r="195" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="4">
         <v>194</v>
       </c>
-      <c r="B195">
+      <c r="B195" s="4">
         <v>802924</v>
       </c>
-      <c r="C195" t="s">
+      <c r="C195" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="D195" t="s">
-        <v>96</v>
-      </c>
-      <c r="E195" t="s">
-        <v>649</v>
-      </c>
-      <c r="F195" t="s">
+      <c r="D195" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E195" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F195" s="4" t="s">
         <v>654</v>
       </c>
-      <c r="G195">
+      <c r="G195" s="4">
         <v>10084224</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A196">
+    <row r="196" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="4">
         <v>195</v>
       </c>
-      <c r="B196">
+      <c r="B196" s="4">
         <v>802924</v>
       </c>
-      <c r="C196" t="s">
+      <c r="C196" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="D196" t="s">
-        <v>96</v>
-      </c>
-      <c r="E196" t="s">
-        <v>649</v>
-      </c>
-      <c r="F196" t="s">
+      <c r="D196" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E196" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F196" s="4" t="s">
         <v>654</v>
       </c>
-      <c r="G196">
+      <c r="G196" s="4">
         <v>11730777</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A197">
+    <row r="197" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="4">
         <v>196</v>
       </c>
-      <c r="B197">
+      <c r="B197" s="4">
         <v>802925</v>
       </c>
-      <c r="C197" t="s">
+      <c r="C197" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="D197" t="s">
-        <v>96</v>
-      </c>
-      <c r="E197" t="s">
-        <v>649</v>
-      </c>
-      <c r="F197" t="s">
+      <c r="D197" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E197" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F197" s="4" t="s">
         <v>653</v>
       </c>
-      <c r="G197">
+      <c r="G197" s="4">
         <v>7639083</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A198">
+    <row r="198" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="4">
         <v>197</v>
       </c>
-      <c r="B198">
+      <c r="B198" s="4">
         <v>802930</v>
       </c>
-      <c r="C198" t="s">
+      <c r="C198" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="D198" t="s">
+      <c r="D198" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="E198" t="s">
+      <c r="E198" s="4" t="s">
         <v>647</v>
       </c>
-      <c r="F198" t="s">
+      <c r="F198" s="4" t="s">
         <v>676</v>
       </c>
-      <c r="G198">
+      <c r="G198" s="4">
         <v>11962894</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A199">
+    <row r="199" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="4">
         <v>198</v>
       </c>
-      <c r="B199">
+      <c r="B199" s="4">
         <v>802931</v>
       </c>
-      <c r="C199" t="s">
+      <c r="C199" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="D199" t="s">
+      <c r="D199" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="E199" t="s">
+      <c r="E199" s="4" t="s">
         <v>647</v>
       </c>
-      <c r="F199" t="s">
+      <c r="F199" s="4" t="s">
         <v>676</v>
       </c>
-      <c r="G199">
+      <c r="G199" s="4">
         <v>11962894</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A200">
+    <row r="200" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="4">
         <v>199</v>
       </c>
-      <c r="B200">
+      <c r="B200" s="4">
         <v>802932</v>
       </c>
-      <c r="C200" t="s">
+      <c r="C200" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="D200" t="s">
+      <c r="D200" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="E200" t="s">
+      <c r="E200" s="4" t="s">
         <v>647</v>
       </c>
-      <c r="F200" t="s">
+      <c r="F200" s="4" t="s">
         <v>676</v>
       </c>
-      <c r="G200">
+      <c r="G200" s="4">
         <v>11962894</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A201">
+    <row r="201" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A201" s="4">
         <v>200</v>
       </c>
-      <c r="B201">
+      <c r="B201" s="4">
         <v>802933</v>
       </c>
-      <c r="C201" t="s">
+      <c r="C201" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="D201" t="s">
-        <v>97</v>
-      </c>
-      <c r="E201" t="s">
-        <v>645</v>
-      </c>
-      <c r="F201" t="s">
+      <c r="D201" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E201" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F201" s="4" t="s">
         <v>661</v>
       </c>
-      <c r="G201">
+      <c r="G201" s="4">
         <v>11961564</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A202">
+    <row r="202" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A202" s="4">
         <v>201</v>
       </c>
-      <c r="B202">
+      <c r="B202" s="4">
         <v>802934</v>
       </c>
-      <c r="C202" t="s">
+      <c r="C202" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="D202" t="s">
+      <c r="D202" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="E202" t="s">
-        <v>649</v>
-      </c>
-      <c r="F202" t="s">
+      <c r="E202" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F202" s="4" t="s">
         <v>677</v>
       </c>
-      <c r="G202">
+      <c r="G202" s="4">
         <v>10312450</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A203">
+    <row r="203" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="4">
         <v>202</v>
       </c>
-      <c r="B203">
+      <c r="B203" s="4">
         <v>802935</v>
       </c>
-      <c r="C203" t="s">
+      <c r="C203" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="D203" t="s">
-        <v>97</v>
-      </c>
-      <c r="E203" t="s">
-        <v>649</v>
-      </c>
-      <c r="F203" t="s">
+      <c r="D203" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E203" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F203" s="4" t="s">
         <v>656</v>
       </c>
-      <c r="G203">
+      <c r="G203" s="4">
         <v>11962979</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A204">
+    <row r="204" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A204" s="4">
         <v>203</v>
       </c>
-      <c r="B204">
+      <c r="B204" s="4">
         <v>802935</v>
       </c>
-      <c r="C204" t="s">
+      <c r="C204" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="D204" t="s">
-        <v>97</v>
-      </c>
-      <c r="E204" t="s">
-        <v>645</v>
-      </c>
-      <c r="F204" t="s">
+      <c r="D204" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E204" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F204" s="4" t="s">
         <v>652</v>
       </c>
-      <c r="G204">
+      <c r="G204" s="4">
         <v>5238506</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A205">
+    <row r="205" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A205" s="4">
         <v>204</v>
       </c>
-      <c r="B205">
+      <c r="B205" s="4">
         <v>802936</v>
       </c>
-      <c r="C205" t="s">
+      <c r="C205" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="D205" t="s">
-        <v>97</v>
-      </c>
-      <c r="E205" t="s">
-        <v>645</v>
-      </c>
-      <c r="F205" t="s">
+      <c r="D205" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E205" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F205" s="4" t="s">
         <v>661</v>
       </c>
-      <c r="G205">
+      <c r="G205" s="4">
         <v>10573512</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A206">
+    <row r="206" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A206" s="4">
         <v>205</v>
       </c>
-      <c r="B206">
+      <c r="B206" s="4">
         <v>802937</v>
       </c>
-      <c r="C206" t="s">
+      <c r="C206" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="D206" t="s">
-        <v>97</v>
-      </c>
-      <c r="E206" t="s">
-        <v>645</v>
-      </c>
-      <c r="F206" t="s">
+      <c r="D206" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E206" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F206" s="4" t="s">
         <v>661</v>
       </c>
-      <c r="G206">
+      <c r="G206" s="4">
         <v>10573512</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A207">
+    <row r="207" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="4">
         <v>206</v>
       </c>
-      <c r="B207">
+      <c r="B207" s="4">
         <v>802938</v>
       </c>
-      <c r="C207" t="s">
+      <c r="C207" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="D207" t="s">
-        <v>97</v>
-      </c>
-      <c r="E207" t="s">
-        <v>645</v>
-      </c>
-      <c r="F207" t="s">
+      <c r="D207" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E207" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F207" s="4" t="s">
         <v>661</v>
       </c>
-      <c r="G207">
+      <c r="G207" s="4">
         <v>11962967</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A208">
+    <row r="208" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A208" s="4">
         <v>207</v>
       </c>
-      <c r="B208">
+      <c r="B208" s="4">
         <v>802939</v>
       </c>
-      <c r="C208" t="s">
+      <c r="C208" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="D208" t="s">
-        <v>97</v>
-      </c>
-      <c r="E208" t="s">
-        <v>645</v>
-      </c>
-      <c r="F208" t="s">
+      <c r="D208" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E208" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F208" s="4" t="s">
         <v>661</v>
       </c>
-      <c r="G208">
+      <c r="G208" s="4">
         <v>11962967</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A209">
+    <row r="209" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A209" s="4">
         <v>208</v>
       </c>
-      <c r="B209">
+      <c r="B209" s="4">
         <v>802940</v>
       </c>
-      <c r="C209" t="s">
+      <c r="C209" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="D209" t="s">
-        <v>97</v>
-      </c>
-      <c r="E209" t="s">
-        <v>645</v>
-      </c>
-      <c r="F209" t="s">
+      <c r="D209" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E209" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F209" s="4" t="s">
         <v>661</v>
       </c>
-      <c r="G209">
+      <c r="G209" s="4">
         <v>11962967</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A210">
+    <row r="210" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A210" s="4">
         <v>209</v>
       </c>
-      <c r="B210">
+      <c r="B210" s="4">
         <v>802941</v>
       </c>
-      <c r="C210" t="s">
+      <c r="C210" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="D210" t="s">
-        <v>97</v>
-      </c>
-      <c r="E210" t="s">
-        <v>645</v>
-      </c>
-      <c r="F210" t="s">
+      <c r="D210" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E210" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F210" s="4" t="s">
         <v>661</v>
       </c>
-      <c r="G210">
+      <c r="G210" s="4">
         <v>11962967</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A211">
+    <row r="211" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="4">
         <v>210</v>
       </c>
-      <c r="B211">
+      <c r="B211" s="4">
         <v>802942</v>
       </c>
-      <c r="C211" t="s">
+      <c r="C211" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="D211" t="s">
-        <v>97</v>
-      </c>
-      <c r="E211" t="s">
-        <v>645</v>
-      </c>
-      <c r="F211" t="s">
+      <c r="D211" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E211" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F211" s="4" t="s">
         <v>661</v>
       </c>
-      <c r="G211">
+      <c r="G211" s="4">
         <v>11962967</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A212">
+    <row r="212" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A212" s="4">
         <v>211</v>
       </c>
-      <c r="B212">
+      <c r="B212" s="4">
         <v>802943</v>
       </c>
-      <c r="C212" t="s">
+      <c r="C212" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="D212" t="s">
-        <v>97</v>
-      </c>
-      <c r="E212" t="s">
+      <c r="D212" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E212" s="4" t="s">
         <v>647</v>
       </c>
-      <c r="F212" t="s">
+      <c r="F212" s="4" t="s">
         <v>666</v>
       </c>
-      <c r="G212">
+      <c r="G212" s="4">
         <v>11961733</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A213">
+    <row r="213" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="4">
         <v>212</v>
       </c>
-      <c r="B213">
+      <c r="B213" s="4">
         <v>802944</v>
       </c>
-      <c r="C213" t="s">
+      <c r="C213" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="D213" t="s">
-        <v>97</v>
-      </c>
-      <c r="E213" t="s">
-        <v>645</v>
-      </c>
-      <c r="F213" t="s">
+      <c r="D213" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E213" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F213" s="4" t="s">
         <v>661</v>
       </c>
-      <c r="G213">
+      <c r="G213" s="4">
         <v>11962489</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A214">
+    <row r="214" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A214" s="4">
         <v>213</v>
       </c>
-      <c r="B214">
+      <c r="B214" s="4">
         <v>802945</v>
       </c>
-      <c r="C214" t="s">
+      <c r="C214" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="D214" t="s">
-        <v>97</v>
-      </c>
-      <c r="E214" t="s">
-        <v>645</v>
-      </c>
-      <c r="F214" t="s">
+      <c r="D214" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E214" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F214" s="4" t="s">
         <v>661</v>
       </c>
-      <c r="G214">
+      <c r="G214" s="4">
         <v>11962489</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A215">
+    <row r="215" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A215" s="4">
         <v>214</v>
       </c>
-      <c r="B215">
+      <c r="B215" s="4">
         <v>802946</v>
       </c>
-      <c r="C215" t="s">
+      <c r="C215" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="D215" t="s">
-        <v>96</v>
-      </c>
-      <c r="E215" t="s">
-        <v>645</v>
-      </c>
-      <c r="F215" t="s">
+      <c r="D215" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E215" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F215" s="4" t="s">
         <v>655</v>
       </c>
-      <c r="G215">
+      <c r="G215" s="4">
         <v>7144889</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A216">
+    <row r="216" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A216" s="4">
         <v>215</v>
       </c>
-      <c r="B216">
+      <c r="B216" s="4">
         <v>802947</v>
       </c>
-      <c r="C216" t="s">
+      <c r="C216" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="D216" t="s">
+      <c r="D216" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="E216" t="s">
-        <v>645</v>
-      </c>
-      <c r="F216" t="s">
+      <c r="E216" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F216" s="4" t="s">
         <v>652</v>
       </c>
-      <c r="G216">
+      <c r="G216" s="4">
         <v>11962549</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A217">
+    <row r="217" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A217" s="4">
         <v>216</v>
       </c>
-      <c r="B217">
+      <c r="B217" s="4">
         <v>802948</v>
       </c>
-      <c r="C217" t="s">
+      <c r="C217" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="D217" t="s">
+      <c r="D217" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="E217" t="s">
-        <v>649</v>
-      </c>
-      <c r="F217" t="s">
+      <c r="E217" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F217" s="4" t="s">
         <v>664</v>
       </c>
-      <c r="G217">
+      <c r="G217" s="4">
         <v>11962739</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A218">
+    <row r="218" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A218" s="4">
         <v>217</v>
       </c>
-      <c r="B218">
+      <c r="B218" s="4">
         <v>802949</v>
       </c>
-      <c r="C218" t="s">
+      <c r="C218" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="D218" t="s">
+      <c r="D218" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="E218" t="s">
+      <c r="E218" s="4" t="s">
         <v>667</v>
       </c>
-      <c r="F218" t="s">
+      <c r="F218" s="4" t="s">
         <v>668</v>
       </c>
-      <c r="G218">
+      <c r="G218" s="4">
         <v>323328</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A219">
+    <row r="219" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A219" s="4">
         <v>218</v>
       </c>
-      <c r="B219">
+      <c r="B219" s="4">
         <v>802950</v>
       </c>
-      <c r="C219" t="s">
+      <c r="C219" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="D219" t="s">
+      <c r="D219" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="E219" t="s">
+      <c r="E219" s="4" t="s">
         <v>667</v>
       </c>
-      <c r="F219" t="s">
+      <c r="F219" s="4" t="s">
         <v>668</v>
       </c>
-      <c r="G219">
+      <c r="G219" s="4">
         <v>323328</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A220">
+    <row r="220" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A220" s="4">
         <v>219</v>
       </c>
-      <c r="B220">
+      <c r="B220" s="4">
         <v>802951</v>
       </c>
-      <c r="C220" t="s">
+      <c r="C220" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="D220" t="s">
+      <c r="D220" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="E220" t="s">
-        <v>649</v>
-      </c>
-      <c r="F220" t="s">
+      <c r="E220" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F220" s="4" t="s">
         <v>662</v>
       </c>
-      <c r="G220">
+      <c r="G220" s="4">
         <v>1508810</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A221">
+    <row r="221" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A221" s="4">
         <v>220</v>
       </c>
-      <c r="B221">
+      <c r="B221" s="4">
         <v>802952</v>
       </c>
-      <c r="C221" t="s">
+      <c r="C221" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="D221" t="s">
-        <v>97</v>
-      </c>
-      <c r="E221" t="s">
-        <v>645</v>
-      </c>
-      <c r="F221" t="s">
+      <c r="D221" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E221" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F221" s="4" t="s">
         <v>661</v>
       </c>
-      <c r="G221">
+      <c r="G221" s="4">
         <v>10072505</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A222">
+    <row r="222" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A222" s="4">
         <v>221</v>
       </c>
-      <c r="B222">
+      <c r="B222" s="4">
         <v>802953</v>
       </c>
-      <c r="C222" t="s">
+      <c r="C222" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="D222" t="s">
-        <v>97</v>
-      </c>
-      <c r="E222" t="s">
-        <v>645</v>
-      </c>
-      <c r="F222" t="s">
+      <c r="D222" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E222" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F222" s="4" t="s">
         <v>661</v>
       </c>
-      <c r="G222">
+      <c r="G222" s="4">
         <v>9919335</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A223">
+    <row r="223" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A223" s="4">
         <v>222</v>
       </c>
-      <c r="B223">
+      <c r="B223" s="4">
         <v>802954</v>
       </c>
-      <c r="C223" t="s">
+      <c r="C223" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="D223" t="s">
-        <v>97</v>
-      </c>
-      <c r="E223" t="s">
-        <v>649</v>
-      </c>
-      <c r="F223" t="s">
+      <c r="D223" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E223" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F223" s="4" t="s">
         <v>662</v>
       </c>
-      <c r="G223">
+      <c r="G223" s="4">
         <v>11925840</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A224">
+    <row r="224" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A224" s="4">
         <v>223</v>
       </c>
-      <c r="B224">
+      <c r="B224" s="4">
         <v>802955</v>
       </c>
-      <c r="C224" t="s">
+      <c r="C224" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="D224" t="s">
-        <v>97</v>
-      </c>
-      <c r="E224" t="s">
-        <v>649</v>
-      </c>
-      <c r="F224" t="s">
+      <c r="D224" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E224" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F224" s="4" t="s">
         <v>656</v>
       </c>
-      <c r="G224">
+      <c r="G224" s="4">
         <v>11962439</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A225">
+    <row r="225" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A225" s="4">
         <v>224</v>
       </c>
-      <c r="B225">
+      <c r="B225" s="4">
         <v>802956</v>
       </c>
-      <c r="C225" t="s">
+      <c r="C225" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D225" t="s">
-        <v>97</v>
-      </c>
-      <c r="E225" t="s">
-        <v>649</v>
-      </c>
-      <c r="F225" t="s">
+      <c r="D225" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E225" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F225" s="4" t="s">
         <v>662</v>
       </c>
-      <c r="G225">
+      <c r="G225" s="4">
         <v>11961991</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A226">
+    <row r="226" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A226" s="4">
         <v>225</v>
       </c>
-      <c r="B226">
+      <c r="B226" s="4">
         <v>802957</v>
       </c>
-      <c r="C226" t="s">
+      <c r="C226" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D226" t="s">
-        <v>97</v>
-      </c>
-      <c r="E226" t="s">
-        <v>649</v>
-      </c>
-      <c r="F226" t="s">
+      <c r="D226" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E226" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F226" s="4" t="s">
         <v>662</v>
       </c>
-      <c r="G226">
+      <c r="G226" s="4">
         <v>11961991</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A227">
+    <row r="227" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A227" s="4">
         <v>226</v>
       </c>
-      <c r="B227">
+      <c r="B227" s="4">
         <v>802958</v>
       </c>
-      <c r="C227" t="s">
+      <c r="C227" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D227" t="s">
-        <v>97</v>
-      </c>
-      <c r="E227" t="s">
-        <v>649</v>
-      </c>
-      <c r="F227" t="s">
+      <c r="D227" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E227" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F227" s="4" t="s">
         <v>662</v>
       </c>
-      <c r="G227">
+      <c r="G227" s="4">
         <v>11961991</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A228">
+    <row r="228" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A228" s="4">
         <v>227</v>
       </c>
-      <c r="B228">
+      <c r="B228" s="4">
         <v>802959</v>
       </c>
-      <c r="C228" t="s">
+      <c r="C228" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D228" t="s">
-        <v>97</v>
-      </c>
-      <c r="E228" t="s">
-        <v>649</v>
-      </c>
-      <c r="F228" t="s">
+      <c r="D228" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E228" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F228" s="4" t="s">
         <v>662</v>
       </c>
-      <c r="G228">
+      <c r="G228" s="4">
         <v>11961991</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A229">
+    <row r="229" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A229" s="4">
         <v>228</v>
       </c>
-      <c r="B229">
+      <c r="B229" s="4">
         <v>802960</v>
       </c>
-      <c r="C229" t="s">
+      <c r="C229" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D229" t="s">
-        <v>97</v>
-      </c>
-      <c r="E229" t="s">
-        <v>649</v>
-      </c>
-      <c r="F229" t="s">
+      <c r="D229" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E229" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F229" s="4" t="s">
         <v>662</v>
       </c>
-      <c r="G229">
+      <c r="G229" s="4">
         <v>11961991</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A230">
+    <row r="230" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A230" s="4">
         <v>229</v>
       </c>
-      <c r="B230">
+      <c r="B230" s="4">
         <v>802961</v>
       </c>
-      <c r="C230" t="s">
+      <c r="C230" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D230" t="s">
-        <v>97</v>
-      </c>
-      <c r="E230" t="s">
-        <v>649</v>
-      </c>
-      <c r="F230" t="s">
+      <c r="D230" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E230" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F230" s="4" t="s">
         <v>662</v>
       </c>
-      <c r="G230">
+      <c r="G230" s="4">
         <v>11961991</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A231">
+    <row r="231" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A231" s="4">
         <v>230</v>
       </c>
-      <c r="B231">
+      <c r="B231" s="4">
         <v>802961</v>
       </c>
-      <c r="C231" t="s">
+      <c r="C231" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D231" t="s">
-        <v>97</v>
-      </c>
-      <c r="E231" t="s">
-        <v>649</v>
-      </c>
-      <c r="F231" t="s">
+      <c r="D231" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E231" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F231" s="4" t="s">
         <v>662</v>
       </c>
-      <c r="G231">
+      <c r="G231" s="4">
         <v>11961991</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A232">
+    <row r="232" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A232" s="4">
         <v>231</v>
       </c>
-      <c r="B232">
+      <c r="B232" s="4">
         <v>802962</v>
       </c>
-      <c r="C232" t="s">
+      <c r="C232" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D232" t="s">
-        <v>97</v>
-      </c>
-      <c r="E232" t="s">
-        <v>649</v>
-      </c>
-      <c r="F232" t="s">
+      <c r="D232" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E232" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F232" s="4" t="s">
         <v>662</v>
       </c>
-      <c r="G232">
+      <c r="G232" s="4">
         <v>11961991</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A233">
+    <row r="233" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A233" s="4">
         <v>232</v>
       </c>
-      <c r="B233">
+      <c r="B233" s="4">
         <v>802963</v>
       </c>
-      <c r="C233" t="s">
+      <c r="C233" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D233" t="s">
-        <v>97</v>
-      </c>
-      <c r="E233" t="s">
-        <v>649</v>
-      </c>
-      <c r="F233" t="s">
+      <c r="D233" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E233" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F233" s="4" t="s">
         <v>662</v>
       </c>
-      <c r="G233">
+      <c r="G233" s="4">
         <v>11961991</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A234">
+    <row r="234" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A234" s="4">
         <v>233</v>
       </c>
-      <c r="B234">
+      <c r="B234" s="4">
         <v>802964</v>
       </c>
-      <c r="C234" t="s">
+      <c r="C234" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D234" t="s">
-        <v>97</v>
-      </c>
-      <c r="E234" t="s">
-        <v>649</v>
-      </c>
-      <c r="F234" t="s">
+      <c r="D234" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E234" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F234" s="4" t="s">
         <v>662</v>
       </c>
-      <c r="G234">
+      <c r="G234" s="4">
         <v>11961991</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A235">
+    <row r="235" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A235" s="4">
         <v>234</v>
       </c>
-      <c r="B235">
+      <c r="B235" s="4">
         <v>802965</v>
       </c>
-      <c r="C235" t="s">
+      <c r="C235" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D235" t="s">
-        <v>97</v>
-      </c>
-      <c r="E235" t="s">
-        <v>645</v>
-      </c>
-      <c r="F235" t="s">
+      <c r="D235" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E235" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F235" s="4" t="s">
         <v>661</v>
       </c>
-      <c r="G235">
+      <c r="G235" s="4">
         <v>11962514</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A236">
+    <row r="236" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A236" s="4">
         <v>235</v>
       </c>
-      <c r="B236">
+      <c r="B236" s="4">
         <v>802966</v>
       </c>
-      <c r="C236" t="s">
+      <c r="C236" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="D236" t="s">
-        <v>97</v>
-      </c>
-      <c r="E236" t="s">
-        <v>649</v>
-      </c>
-      <c r="F236" t="s">
+      <c r="D236" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E236" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F236" s="4" t="s">
         <v>656</v>
       </c>
-      <c r="G236">
+      <c r="G236" s="4">
         <v>11962439</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A237">
+    <row r="237" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A237" s="4">
         <v>236</v>
       </c>
-      <c r="B237">
+      <c r="B237" s="4">
         <v>802967</v>
       </c>
-      <c r="C237" t="s">
+      <c r="C237" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="D237" t="s">
-        <v>97</v>
-      </c>
-      <c r="E237" t="s">
-        <v>645</v>
-      </c>
-      <c r="F237" t="s">
+      <c r="D237" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E237" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F237" s="4" t="s">
         <v>661</v>
       </c>
-      <c r="G237">
+      <c r="G237" s="4">
         <v>11962685</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A238">
+    <row r="238" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A238" s="4">
         <v>237</v>
       </c>
-      <c r="B238">
+      <c r="B238" s="4">
         <v>802968</v>
       </c>
-      <c r="C238" t="s">
+      <c r="C238" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="D238" t="s">
-        <v>97</v>
-      </c>
-      <c r="E238" t="s">
-        <v>645</v>
-      </c>
-      <c r="F238" t="s">
+      <c r="D238" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E238" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F238" s="4" t="s">
         <v>678</v>
       </c>
-      <c r="G238">
+      <c r="G238" s="4">
         <v>10187498</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A239">
+    <row r="239" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A239" s="4">
         <v>238</v>
       </c>
-      <c r="B239">
+      <c r="B239" s="4">
         <v>802969</v>
       </c>
-      <c r="C239" t="s">
+      <c r="C239" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="D239" t="s">
+      <c r="D239" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="E239" t="s">
+      <c r="E239" s="4" t="s">
         <v>647</v>
       </c>
-      <c r="F239" t="s">
+      <c r="F239" s="4" t="s">
         <v>676</v>
       </c>
-      <c r="G239">
+      <c r="G239" s="4">
         <v>11962894</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A240">
+    <row r="240" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A240" s="4">
         <v>239</v>
       </c>
-      <c r="B240">
+      <c r="B240" s="4">
         <v>802970</v>
       </c>
-      <c r="C240" t="s">
+      <c r="C240" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="D240" t="s">
+      <c r="D240" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="E240" t="s">
+      <c r="E240" s="4" t="s">
         <v>647</v>
       </c>
-      <c r="F240" t="s">
+      <c r="F240" s="4" t="s">
         <v>676</v>
       </c>
-      <c r="G240">
+      <c r="G240" s="4">
         <v>11962894</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A241">
+    <row r="241" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A241" s="4">
         <v>240</v>
       </c>
-      <c r="B241">
+      <c r="B241" s="4">
         <v>802971</v>
       </c>
-      <c r="C241" t="s">
+      <c r="C241" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="D241" t="s">
+      <c r="D241" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="E241" t="s">
+      <c r="E241" s="4" t="s">
         <v>647</v>
       </c>
-      <c r="F241" t="s">
+      <c r="F241" s="4" t="s">
         <v>676</v>
       </c>
-      <c r="G241">
+      <c r="G241" s="4">
         <v>11962894</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A242">
+    <row r="242" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A242" s="4">
         <v>241</v>
       </c>
-      <c r="B242">
+      <c r="B242" s="4">
         <v>802972</v>
       </c>
-      <c r="C242" t="s">
+      <c r="C242" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="D242" t="s">
-        <v>97</v>
-      </c>
-      <c r="E242" t="s">
-        <v>645</v>
-      </c>
-      <c r="F242" t="s">
+      <c r="D242" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E242" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F242" s="4" t="s">
         <v>661</v>
       </c>
-      <c r="G242">
+      <c r="G242" s="4">
         <v>11962967</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A243">
+    <row r="243" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A243" s="4">
         <v>242</v>
       </c>
-      <c r="B243">
+      <c r="B243" s="4">
         <v>802973</v>
       </c>
-      <c r="C243" t="s">
+      <c r="C243" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="D243" t="s">
-        <v>97</v>
-      </c>
-      <c r="E243" t="s">
-        <v>645</v>
-      </c>
-      <c r="F243" t="s">
+      <c r="D243" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E243" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F243" s="4" t="s">
         <v>661</v>
       </c>
-      <c r="G243">
+      <c r="G243" s="4">
         <v>11962967</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A244">
+    <row r="244" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A244" s="4">
         <v>243</v>
       </c>
-      <c r="B244">
+      <c r="B244" s="4">
         <v>802974</v>
       </c>
-      <c r="C244" t="s">
+      <c r="C244" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="D244" t="s">
-        <v>97</v>
-      </c>
-      <c r="E244" t="s">
-        <v>645</v>
-      </c>
-      <c r="F244" t="s">
+      <c r="D244" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E244" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F244" s="4" t="s">
         <v>661</v>
       </c>
-      <c r="G244">
+      <c r="G244" s="4">
         <v>11962967</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A245">
+    <row r="245" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A245" s="4">
         <v>244</v>
       </c>
-      <c r="B245">
+      <c r="B245" s="4">
         <v>802975</v>
       </c>
-      <c r="C245" t="s">
+      <c r="C245" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="D245" t="s">
-        <v>97</v>
-      </c>
-      <c r="E245" t="s">
-        <v>645</v>
-      </c>
-      <c r="F245" t="s">
+      <c r="D245" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E245" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F245" s="4" t="s">
         <v>661</v>
       </c>
-      <c r="G245">
+      <c r="G245" s="4">
         <v>11962967</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A246">
+    <row r="246" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A246" s="4">
         <v>245</v>
       </c>
-      <c r="B246">
+      <c r="B246" s="4">
         <v>802976</v>
       </c>
-      <c r="C246" t="s">
+      <c r="C246" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="D246" t="s">
-        <v>97</v>
-      </c>
-      <c r="E246" t="s">
-        <v>645</v>
-      </c>
-      <c r="F246" t="s">
+      <c r="D246" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E246" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F246" s="4" t="s">
         <v>661</v>
       </c>
-      <c r="G246">
+      <c r="G246" s="4">
         <v>11962967</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A247">
+    <row r="247" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A247" s="4">
         <v>246</v>
       </c>
-      <c r="B247">
+      <c r="B247" s="4">
         <v>802977</v>
       </c>
-      <c r="C247" t="s">
+      <c r="C247" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="D247" t="s">
+      <c r="D247" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="E247" t="s">
-        <v>649</v>
-      </c>
-      <c r="F247" t="s">
+      <c r="E247" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F247" s="4" t="s">
         <v>662</v>
       </c>
-      <c r="G247">
+      <c r="G247" s="4">
         <v>1508810</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A248">
+    <row r="248" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A248" s="4">
         <v>247</v>
       </c>
-      <c r="B248">
+      <c r="B248" s="4">
         <v>803121</v>
       </c>
-      <c r="C248" t="s">
+      <c r="C248" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="D248" t="s">
-        <v>96</v>
-      </c>
-      <c r="E248" t="s">
-        <v>645</v>
-      </c>
-      <c r="F248" t="s">
+      <c r="D248" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E248" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F248" s="4" t="s">
         <v>655</v>
       </c>
-      <c r="G248">
+      <c r="G248" s="4">
         <v>1915235</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A249">
+    <row r="249" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A249" s="4">
         <v>248</v>
       </c>
-      <c r="B249">
+      <c r="B249" s="4">
         <v>803122</v>
       </c>
-      <c r="C249" t="s">
+      <c r="C249" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="D249" t="s">
-        <v>96</v>
-      </c>
-      <c r="E249" t="s">
-        <v>649</v>
-      </c>
-      <c r="F249" t="s">
+      <c r="D249" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E249" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F249" s="4" t="s">
         <v>679</v>
       </c>
-      <c r="G249">
+      <c r="G249" s="4">
         <v>702295</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A250">
+    <row r="250" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A250" s="4">
         <v>249</v>
       </c>
-      <c r="B250">
+      <c r="B250" s="4">
         <v>803123</v>
       </c>
-      <c r="C250" t="s">
+      <c r="C250" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="D250" t="s">
-        <v>96</v>
-      </c>
-      <c r="E250" t="s">
-        <v>649</v>
-      </c>
-      <c r="F250" t="s">
+      <c r="D250" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E250" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F250" s="4" t="s">
         <v>658</v>
       </c>
-      <c r="G250">
+      <c r="G250" s="4">
         <v>7566488</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A251">
+    <row r="251" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A251" s="4">
         <v>250</v>
       </c>
-      <c r="B251">
+      <c r="B251" s="4">
         <v>803125</v>
       </c>
-      <c r="C251" t="s">
+      <c r="C251" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="D251" t="s">
-        <v>96</v>
-      </c>
-      <c r="E251" t="s">
-        <v>649</v>
-      </c>
-      <c r="F251" t="s">
+      <c r="D251" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E251" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F251" s="4" t="s">
         <v>658</v>
       </c>
-      <c r="G251">
+      <c r="G251" s="4">
         <v>8548407</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A252">
+    <row r="252" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A252" s="4">
         <v>251</v>
       </c>
-      <c r="B252">
+      <c r="B252" s="4">
         <v>803126</v>
       </c>
-      <c r="C252" t="s">
+      <c r="C252" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="D252" t="s">
-        <v>96</v>
-      </c>
-      <c r="E252" t="s">
-        <v>649</v>
-      </c>
-      <c r="F252" t="s">
+      <c r="D252" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E252" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F252" s="4" t="s">
         <v>650</v>
       </c>
-      <c r="G252">
+      <c r="G252" s="4">
         <v>7766841</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A253">
+    <row r="253" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A253" s="4">
         <v>252</v>
       </c>
-      <c r="B253">
+      <c r="B253" s="4">
         <v>803128</v>
       </c>
-      <c r="C253" t="s">
+      <c r="C253" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="D253" t="s">
-        <v>96</v>
-      </c>
-      <c r="E253" t="s">
-        <v>649</v>
-      </c>
-      <c r="F253" t="s">
+      <c r="D253" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E253" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F253" s="4" t="s">
         <v>653</v>
       </c>
-      <c r="G253">
+      <c r="G253" s="4">
         <v>7634589</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A254">
+    <row r="254" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A254" s="4">
         <v>253</v>
       </c>
-      <c r="B254">
+      <c r="B254" s="4">
         <v>803128</v>
       </c>
-      <c r="C254" t="s">
+      <c r="C254" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="D254" t="s">
-        <v>96</v>
-      </c>
-      <c r="E254" t="s">
-        <v>649</v>
-      </c>
-      <c r="F254" t="s">
+      <c r="D254" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E254" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F254" s="4" t="s">
         <v>664</v>
       </c>
-      <c r="G254">
+      <c r="G254" s="4">
         <v>7177004</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A255">
+    <row r="255" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A255" s="4">
         <v>254</v>
       </c>
-      <c r="B255">
+      <c r="B255" s="4">
         <v>803128</v>
       </c>
-      <c r="C255" t="s">
+      <c r="C255" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="D255" t="s">
-        <v>96</v>
-      </c>
-      <c r="E255" t="s">
-        <v>645</v>
-      </c>
-      <c r="F255" t="s">
+      <c r="D255" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E255" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F255" s="4" t="s">
         <v>646</v>
       </c>
-      <c r="G255">
+      <c r="G255" s="4">
         <v>10398518</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A256">
+    <row r="256" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A256" s="4">
         <v>255</v>
       </c>
-      <c r="B256">
+      <c r="B256" s="4">
         <v>803128</v>
       </c>
-      <c r="C256" t="s">
+      <c r="C256" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="D256" t="s">
-        <v>96</v>
-      </c>
-      <c r="E256" t="s">
-        <v>645</v>
-      </c>
-      <c r="F256" t="s">
+      <c r="D256" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E256" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F256" s="4" t="s">
         <v>655</v>
       </c>
-      <c r="G256">
+      <c r="G256" s="4">
         <v>229343</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A257">
+    <row r="257" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A257" s="4">
         <v>256</v>
       </c>
-      <c r="B257">
+      <c r="B257" s="4">
         <v>803128</v>
       </c>
-      <c r="C257" t="s">
+      <c r="C257" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="D257" t="s">
-        <v>96</v>
-      </c>
-      <c r="E257" t="s">
-        <v>645</v>
-      </c>
-      <c r="F257" t="s">
+      <c r="D257" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E257" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F257" s="4" t="s">
         <v>661</v>
       </c>
-      <c r="G257">
+      <c r="G257" s="4">
         <v>10745460</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A258">
+    <row r="258" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A258" s="4">
         <v>257</v>
       </c>
-      <c r="B258">
+      <c r="B258" s="4">
         <v>803129</v>
       </c>
-      <c r="C258" t="s">
+      <c r="C258" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="D258" t="s">
-        <v>96</v>
-      </c>
-      <c r="E258" t="s">
-        <v>649</v>
-      </c>
-      <c r="F258" t="s">
+      <c r="D258" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E258" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F258" s="4" t="s">
         <v>658</v>
       </c>
-      <c r="G258">
+      <c r="G258" s="4">
         <v>7495932</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A259">
+    <row r="259" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A259" s="4">
         <v>258</v>
       </c>
-      <c r="B259">
+      <c r="B259" s="4">
         <v>803135</v>
       </c>
-      <c r="C259" t="s">
+      <c r="C259" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="D259" t="s">
+      <c r="D259" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="E259" t="s">
-        <v>645</v>
-      </c>
-      <c r="F259" t="s">
+      <c r="E259" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F259" s="4" t="s">
         <v>655</v>
       </c>
-      <c r="G259">
+      <c r="G259" s="4">
         <v>5380599</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A260">
+    <row r="260" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A260" s="4">
         <v>259</v>
       </c>
-      <c r="B260">
+      <c r="B260" s="4">
         <v>803136</v>
       </c>
-      <c r="C260" t="s">
+      <c r="C260" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="D260" t="s">
-        <v>97</v>
-      </c>
-      <c r="E260" t="s">
-        <v>645</v>
-      </c>
-      <c r="F260" t="s">
+      <c r="D260" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E260" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F260" s="4" t="s">
         <v>661</v>
       </c>
-      <c r="G260">
+      <c r="G260" s="4">
         <v>10459932</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A261">
+    <row r="261" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A261" s="4">
         <v>260</v>
       </c>
-      <c r="B261">
+      <c r="B261" s="4">
         <v>803136</v>
       </c>
-      <c r="C261" t="s">
+      <c r="C261" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="D261" t="s">
-        <v>97</v>
-      </c>
-      <c r="E261" t="s">
-        <v>645</v>
-      </c>
-      <c r="F261" t="s">
+      <c r="D261" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E261" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F261" s="4" t="s">
         <v>661</v>
       </c>
-      <c r="G261">
+      <c r="G261" s="4">
         <v>10459932</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A262">
+    <row r="262" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A262" s="4">
         <v>261</v>
       </c>
-      <c r="B262">
+      <c r="B262" s="4">
         <v>803137</v>
       </c>
-      <c r="C262" t="s">
+      <c r="C262" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D262" t="s">
-        <v>97</v>
-      </c>
-      <c r="E262" t="s">
-        <v>649</v>
-      </c>
-      <c r="F262" t="s">
+      <c r="D262" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E262" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F262" s="4" t="s">
         <v>656</v>
       </c>
-      <c r="G262">
+      <c r="G262" s="4">
         <v>11966175</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A263">
+    <row r="263" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A263" s="4">
         <v>262</v>
       </c>
-      <c r="B263">
+      <c r="B263" s="4">
         <v>803137</v>
       </c>
-      <c r="C263" t="s">
+      <c r="C263" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D263" t="s">
-        <v>97</v>
-      </c>
-      <c r="E263" t="s">
-        <v>649</v>
-      </c>
-      <c r="F263" t="s">
+      <c r="D263" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E263" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F263" s="4" t="s">
         <v>656</v>
       </c>
-      <c r="G263">
+      <c r="G263" s="4">
         <v>11966175</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A264">
+    <row r="264" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A264" s="4">
         <v>263</v>
       </c>
-      <c r="B264">
+      <c r="B264" s="4">
         <v>803138</v>
       </c>
-      <c r="C264" t="s">
+      <c r="C264" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="D264" t="s">
-        <v>97</v>
-      </c>
-      <c r="E264" t="s">
+      <c r="D264" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E264" s="4" t="s">
         <v>647</v>
       </c>
-      <c r="F264" t="s">
+      <c r="F264" s="4" t="s">
         <v>650</v>
       </c>
-      <c r="G264">
+      <c r="G264" s="4">
         <v>11966173</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A265">
+    <row r="265" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A265" s="4">
         <v>264</v>
       </c>
-      <c r="B265">
+      <c r="B265" s="4">
         <v>803138</v>
       </c>
-      <c r="C265" t="s">
+      <c r="C265" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="D265" t="s">
-        <v>97</v>
-      </c>
-      <c r="E265" t="s">
+      <c r="D265" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E265" s="4" t="s">
         <v>647</v>
       </c>
-      <c r="F265" t="s">
+      <c r="F265" s="4" t="s">
         <v>650</v>
       </c>
-      <c r="G265">
+      <c r="G265" s="4">
         <v>11966173</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A266">
+    <row r="266" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A266" s="4">
         <v>265</v>
       </c>
-      <c r="B266">
+      <c r="B266" s="4">
         <v>803139</v>
       </c>
-      <c r="C266" t="s">
+      <c r="C266" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="D266" t="s">
-        <v>97</v>
-      </c>
-      <c r="E266" t="s">
-        <v>649</v>
-      </c>
-      <c r="F266" t="s">
+      <c r="D266" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E266" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F266" s="4" t="s">
         <v>662</v>
       </c>
-      <c r="G266">
+      <c r="G266" s="4">
         <v>11724157</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A267">
+    <row r="267" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A267" s="4">
         <v>266</v>
       </c>
-      <c r="B267">
+      <c r="B267" s="4">
         <v>803139</v>
       </c>
-      <c r="C267" t="s">
+      <c r="C267" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="D267" t="s">
-        <v>97</v>
-      </c>
-      <c r="E267" t="s">
-        <v>649</v>
-      </c>
-      <c r="F267" t="s">
+      <c r="D267" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E267" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F267" s="4" t="s">
         <v>662</v>
       </c>
-      <c r="G267">
+      <c r="G267" s="4">
         <v>11724157</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A268">
+    <row r="268" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A268" s="4">
         <v>267</v>
       </c>
-      <c r="B268">
+      <c r="B268" s="4">
         <v>803140</v>
       </c>
-      <c r="C268" t="s">
+      <c r="C268" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="D268" t="s">
-        <v>97</v>
-      </c>
-      <c r="E268" t="s">
-        <v>649</v>
-      </c>
-      <c r="F268" t="s">
+      <c r="D268" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E268" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F268" s="4" t="s">
         <v>659</v>
       </c>
-      <c r="G268">
+      <c r="G268" s="4">
         <v>11869083</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A269">
+    <row r="269" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A269" s="4">
         <v>268</v>
       </c>
-      <c r="B269">
+      <c r="B269" s="4">
         <v>803140</v>
       </c>
-      <c r="C269" t="s">
+      <c r="C269" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="D269" t="s">
-        <v>97</v>
-      </c>
-      <c r="E269" t="s">
-        <v>649</v>
-      </c>
-      <c r="F269" t="s">
+      <c r="D269" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E269" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F269" s="4" t="s">
         <v>659</v>
       </c>
-      <c r="G269">
+      <c r="G269" s="4">
         <v>11869083</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A270">
+    <row r="270" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A270" s="4">
         <v>269</v>
       </c>
-      <c r="B270">
+      <c r="B270" s="4">
         <v>803141</v>
       </c>
-      <c r="C270" t="s">
+      <c r="C270" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="D270" t="s">
-        <v>97</v>
-      </c>
-      <c r="E270" t="s">
-        <v>649</v>
-      </c>
-      <c r="F270" t="s">
+      <c r="D270" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E270" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F270" s="4" t="s">
         <v>659</v>
       </c>
-      <c r="G270">
+      <c r="G270" s="4">
         <v>11869083</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A271">
+    <row r="271" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A271" s="4">
         <v>270</v>
       </c>
-      <c r="B271">
+      <c r="B271" s="4">
         <v>803141</v>
       </c>
-      <c r="C271" t="s">
+      <c r="C271" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="D271" t="s">
-        <v>97</v>
-      </c>
-      <c r="E271" t="s">
-        <v>649</v>
-      </c>
-      <c r="F271" t="s">
+      <c r="D271" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E271" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F271" s="4" t="s">
         <v>659</v>
       </c>
-      <c r="G271">
+      <c r="G271" s="4">
         <v>11869083</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A272">
+    <row r="272" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A272" s="4">
         <v>271</v>
       </c>
-      <c r="B272">
+      <c r="B272" s="4">
         <v>803142</v>
       </c>
-      <c r="C272" t="s">
+      <c r="C272" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="D272" t="s">
-        <v>97</v>
-      </c>
-      <c r="E272" t="s">
-        <v>649</v>
-      </c>
-      <c r="F272" t="s">
+      <c r="D272" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E272" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F272" s="4" t="s">
         <v>659</v>
       </c>
-      <c r="G272">
+      <c r="G272" s="4">
         <v>11869083</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A273">
+    <row r="273" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A273" s="4">
         <v>272</v>
       </c>
-      <c r="B273">
+      <c r="B273" s="4">
         <v>803142</v>
       </c>
-      <c r="C273" t="s">
+      <c r="C273" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="D273" t="s">
-        <v>97</v>
-      </c>
-      <c r="E273" t="s">
-        <v>649</v>
-      </c>
-      <c r="F273" t="s">
+      <c r="D273" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E273" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F273" s="4" t="s">
         <v>659</v>
       </c>
-      <c r="G273">
+      <c r="G273" s="4">
         <v>11869083</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A274">
+    <row r="274" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A274" s="4">
         <v>273</v>
       </c>
-      <c r="B274">
+      <c r="B274" s="4">
         <v>803143</v>
       </c>
-      <c r="C274" t="s">
+      <c r="C274" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D274" t="s">
-        <v>97</v>
-      </c>
-      <c r="E274" t="s">
-        <v>649</v>
-      </c>
-      <c r="F274" t="s">
+      <c r="D274" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E274" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F274" s="4" t="s">
         <v>670</v>
       </c>
-      <c r="G274">
+      <c r="G274" s="4">
         <v>11965846</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A275">
+    <row r="275" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A275" s="4">
         <v>274</v>
       </c>
-      <c r="B275">
+      <c r="B275" s="4">
         <v>803143</v>
       </c>
-      <c r="C275" t="s">
+      <c r="C275" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D275" t="s">
-        <v>97</v>
-      </c>
-      <c r="E275" t="s">
-        <v>649</v>
-      </c>
-      <c r="F275" t="s">
+      <c r="D275" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E275" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F275" s="4" t="s">
         <v>670</v>
       </c>
-      <c r="G275">
+      <c r="G275" s="4">
         <v>11965846</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A276">
+    <row r="276" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A276" s="4">
         <v>275</v>
       </c>
-      <c r="B276">
+      <c r="B276" s="4">
         <v>803144</v>
       </c>
-      <c r="C276" t="s">
+      <c r="C276" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="D276" t="s">
-        <v>97</v>
-      </c>
-      <c r="E276" t="s">
-        <v>649</v>
-      </c>
-      <c r="F276" t="s">
+      <c r="D276" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E276" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F276" s="4" t="s">
         <v>656</v>
       </c>
-      <c r="G276">
+      <c r="G276" s="4">
         <v>9037056</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A277">
+    <row r="277" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A277" s="4">
         <v>276</v>
       </c>
-      <c r="B277">
+      <c r="B277" s="4">
         <v>803144</v>
       </c>
-      <c r="C277" t="s">
+      <c r="C277" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="D277" t="s">
-        <v>97</v>
-      </c>
-      <c r="E277" t="s">
-        <v>649</v>
-      </c>
-      <c r="F277" t="s">
+      <c r="D277" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E277" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F277" s="4" t="s">
         <v>656</v>
       </c>
-      <c r="G277">
+      <c r="G277" s="4">
         <v>9037056</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A278">
+    <row r="278" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A278" s="4">
         <v>277</v>
       </c>
-      <c r="B278">
+      <c r="B278" s="4">
         <v>803145</v>
       </c>
-      <c r="C278" t="s">
+      <c r="C278" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="D278" t="s">
-        <v>97</v>
-      </c>
-      <c r="E278" t="s">
+      <c r="D278" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E278" s="4" t="s">
         <v>647</v>
       </c>
-      <c r="F278" t="s">
+      <c r="F278" s="4" t="s">
         <v>666</v>
       </c>
-      <c r="G278">
+      <c r="G278" s="4">
         <v>11966027</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A279">
+    <row r="279" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A279" s="4">
         <v>278</v>
       </c>
-      <c r="B279">
+      <c r="B279" s="4">
         <v>803145</v>
       </c>
-      <c r="C279" t="s">
+      <c r="C279" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="D279" t="s">
-        <v>97</v>
-      </c>
-      <c r="E279" t="s">
+      <c r="D279" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E279" s="4" t="s">
         <v>647</v>
       </c>
-      <c r="F279" t="s">
+      <c r="F279" s="4" t="s">
         <v>666</v>
       </c>
-      <c r="G279">
+      <c r="G279" s="4">
         <v>11966027</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A280">
+    <row r="280" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A280" s="4">
         <v>279</v>
       </c>
-      <c r="B280">
+      <c r="B280" s="4">
         <v>803146</v>
       </c>
-      <c r="C280" t="s">
+      <c r="C280" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="D280" t="s">
-        <v>97</v>
-      </c>
-      <c r="E280" t="s">
+      <c r="D280" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E280" s="4" t="s">
         <v>647</v>
       </c>
-      <c r="F280" t="s">
+      <c r="F280" s="4" t="s">
         <v>666</v>
       </c>
-      <c r="G280">
+      <c r="G280" s="4">
         <v>11966027</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A281">
+    <row r="281" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A281" s="4">
         <v>280</v>
       </c>
-      <c r="B281">
+      <c r="B281" s="4">
         <v>803146</v>
       </c>
-      <c r="C281" t="s">
+      <c r="C281" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="D281" t="s">
-        <v>97</v>
-      </c>
-      <c r="E281" t="s">
+      <c r="D281" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E281" s="4" t="s">
         <v>647</v>
       </c>
-      <c r="F281" t="s">
+      <c r="F281" s="4" t="s">
         <v>666</v>
       </c>
-      <c r="G281">
+      <c r="G281" s="4">
         <v>11966027</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A282">
+    <row r="282" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A282" s="4">
         <v>281</v>
       </c>
-      <c r="B282">
+      <c r="B282" s="4">
         <v>803147</v>
       </c>
-      <c r="C282" t="s">
+      <c r="C282" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="D282" t="s">
-        <v>97</v>
-      </c>
-      <c r="E282" t="s">
-        <v>649</v>
-      </c>
-      <c r="F282" t="s">
+      <c r="D282" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E282" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F282" s="4" t="s">
         <v>662</v>
       </c>
-      <c r="G282">
+      <c r="G282" s="4">
         <v>11963777</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A283">
+    <row r="283" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A283" s="4">
         <v>282</v>
       </c>
-      <c r="B283">
+      <c r="B283" s="4">
         <v>803147</v>
       </c>
-      <c r="C283" t="s">
+      <c r="C283" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="D283" t="s">
-        <v>97</v>
-      </c>
-      <c r="E283" t="s">
-        <v>649</v>
-      </c>
-      <c r="F283" t="s">
+      <c r="D283" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E283" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F283" s="4" t="s">
         <v>662</v>
       </c>
-      <c r="G283">
+      <c r="G283" s="4">
         <v>11963777</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A284">
+    <row r="284" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A284" s="4">
         <v>283</v>
       </c>
-      <c r="B284">
+      <c r="B284" s="4">
         <v>803148</v>
       </c>
-      <c r="C284" t="s">
+      <c r="C284" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="D284" t="s">
-        <v>97</v>
-      </c>
-      <c r="E284" t="s">
-        <v>649</v>
-      </c>
-      <c r="F284" t="s">
+      <c r="D284" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E284" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F284" s="4" t="s">
         <v>653</v>
       </c>
-      <c r="G284">
+      <c r="G284" s="4">
         <v>11964779</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A285">
+    <row r="285" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A285" s="4">
         <v>284</v>
       </c>
-      <c r="B285">
+      <c r="B285" s="4">
         <v>803148</v>
       </c>
-      <c r="C285" t="s">
+      <c r="C285" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="D285" t="s">
-        <v>97</v>
-      </c>
-      <c r="E285" t="s">
-        <v>649</v>
-      </c>
-      <c r="F285" t="s">
+      <c r="D285" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E285" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F285" s="4" t="s">
         <v>653</v>
       </c>
-      <c r="G285">
+      <c r="G285" s="4">
         <v>11964779</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A286">
+    <row r="286" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A286" s="4">
         <v>285</v>
       </c>
-      <c r="B286">
+      <c r="B286" s="4">
         <v>803149</v>
       </c>
-      <c r="C286" t="s">
+      <c r="C286" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="D286" t="s">
-        <v>97</v>
-      </c>
-      <c r="E286" t="s">
-        <v>649</v>
-      </c>
-      <c r="F286" t="s">
+      <c r="D286" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E286" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F286" s="4" t="s">
         <v>662</v>
       </c>
-      <c r="G286">
+      <c r="G286" s="4">
         <v>11967027</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A287">
+    <row r="287" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A287" s="4">
         <v>286</v>
       </c>
-      <c r="B287">
+      <c r="B287" s="4">
         <v>803149</v>
       </c>
-      <c r="C287" t="s">
+      <c r="C287" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="D287" t="s">
-        <v>97</v>
-      </c>
-      <c r="E287" t="s">
-        <v>649</v>
-      </c>
-      <c r="F287" t="s">
+      <c r="D287" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E287" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F287" s="4" t="s">
         <v>662</v>
       </c>
-      <c r="G287">
+      <c r="G287" s="4">
         <v>11967027</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A288">
+    <row r="288" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A288" s="4">
         <v>287</v>
       </c>
-      <c r="B288">
+      <c r="B288" s="4">
         <v>803150</v>
       </c>
-      <c r="C288" t="s">
+      <c r="C288" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="D288" t="s">
-        <v>97</v>
-      </c>
-      <c r="E288" t="s">
-        <v>645</v>
-      </c>
-      <c r="F288" t="s">
+      <c r="D288" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E288" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F288" s="4" t="s">
         <v>655</v>
       </c>
-      <c r="G288">
+      <c r="G288" s="4">
         <v>11925605</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A289">
+    <row r="289" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A289" s="4">
         <v>288</v>
       </c>
-      <c r="B289">
+      <c r="B289" s="4">
         <v>803150</v>
       </c>
-      <c r="C289" t="s">
+      <c r="C289" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="D289" t="s">
-        <v>97</v>
-      </c>
-      <c r="E289" t="s">
-        <v>645</v>
-      </c>
-      <c r="F289" t="s">
+      <c r="D289" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E289" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F289" s="4" t="s">
         <v>655</v>
       </c>
-      <c r="G289">
+      <c r="G289" s="4">
         <v>11925605</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A290">
+    <row r="290" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A290" s="4">
         <v>289</v>
       </c>
-      <c r="B290">
+      <c r="B290" s="4">
         <v>803151</v>
       </c>
-      <c r="C290" t="s">
+      <c r="C290" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="D290" t="s">
-        <v>97</v>
-      </c>
-      <c r="E290" t="s">
-        <v>645</v>
-      </c>
-      <c r="F290" t="s">
+      <c r="D290" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E290" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F290" s="4" t="s">
         <v>655</v>
       </c>
-      <c r="G290">
+      <c r="G290" s="4">
         <v>11925605</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A291">
+    <row r="291" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A291" s="4">
         <v>290</v>
       </c>
-      <c r="B291">
+      <c r="B291" s="4">
         <v>803151</v>
       </c>
-      <c r="C291" t="s">
+      <c r="C291" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="D291" t="s">
-        <v>97</v>
-      </c>
-      <c r="E291" t="s">
-        <v>645</v>
-      </c>
-      <c r="F291" t="s">
+      <c r="D291" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E291" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F291" s="4" t="s">
         <v>655</v>
       </c>
-      <c r="G291">
+      <c r="G291" s="4">
         <v>11925605</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A292">
+    <row r="292" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A292" s="4">
         <v>291</v>
       </c>
-      <c r="B292">
+      <c r="B292" s="4">
         <v>803152</v>
       </c>
-      <c r="C292" t="s">
+      <c r="C292" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="D292" t="s">
-        <v>97</v>
-      </c>
-      <c r="E292" t="s">
-        <v>649</v>
-      </c>
-      <c r="F292" t="s">
+      <c r="D292" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E292" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F292" s="4" t="s">
         <v>662</v>
       </c>
-      <c r="G292">
+      <c r="G292" s="4">
         <v>11965247</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A293">
+    <row r="293" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A293" s="4">
         <v>292</v>
       </c>
-      <c r="B293">
+      <c r="B293" s="4">
         <v>803152</v>
       </c>
-      <c r="C293" t="s">
+      <c r="C293" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="D293" t="s">
-        <v>97</v>
-      </c>
-      <c r="E293" t="s">
-        <v>649</v>
-      </c>
-      <c r="F293" t="s">
+      <c r="D293" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E293" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F293" s="4" t="s">
         <v>662</v>
       </c>
-      <c r="G293">
+      <c r="G293" s="4">
         <v>11965247</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A294">
+    <row r="294" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A294" s="4">
         <v>293</v>
       </c>
-      <c r="B294">
+      <c r="B294" s="4">
         <v>803153</v>
       </c>
-      <c r="C294" t="s">
+      <c r="C294" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="D294" t="s">
-        <v>97</v>
-      </c>
-      <c r="E294" t="s">
-        <v>649</v>
-      </c>
-      <c r="F294" t="s">
+      <c r="D294" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E294" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F294" s="4" t="s">
         <v>662</v>
       </c>
-      <c r="G294">
+      <c r="G294" s="4">
         <v>11965247</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A295">
+    <row r="295" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A295" s="4">
         <v>294</v>
       </c>
-      <c r="B295">
+      <c r="B295" s="4">
         <v>803153</v>
       </c>
-      <c r="C295" t="s">
+      <c r="C295" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="D295" t="s">
-        <v>97</v>
-      </c>
-      <c r="E295" t="s">
-        <v>649</v>
-      </c>
-      <c r="F295" t="s">
+      <c r="D295" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E295" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F295" s="4" t="s">
         <v>662</v>
       </c>
-      <c r="G295">
+      <c r="G295" s="4">
         <v>11965247</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A296">
+    <row r="296" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A296" s="4">
         <v>295</v>
       </c>
-      <c r="B296">
+      <c r="B296" s="4">
         <v>803154</v>
       </c>
-      <c r="C296" t="s">
+      <c r="C296" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="D296" t="s">
-        <v>97</v>
-      </c>
-      <c r="E296" t="s">
-        <v>649</v>
-      </c>
-      <c r="F296" t="s">
+      <c r="D296" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E296" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F296" s="4" t="s">
         <v>662</v>
       </c>
-      <c r="G296">
+      <c r="G296" s="4">
         <v>11965247</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A297">
+    <row r="297" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A297" s="4">
         <v>296</v>
       </c>
-      <c r="B297">
+      <c r="B297" s="4">
         <v>803154</v>
       </c>
-      <c r="C297" t="s">
+      <c r="C297" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="D297" t="s">
-        <v>97</v>
-      </c>
-      <c r="E297" t="s">
-        <v>649</v>
-      </c>
-      <c r="F297" t="s">
+      <c r="D297" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E297" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F297" s="4" t="s">
         <v>662</v>
       </c>
-      <c r="G297">
+      <c r="G297" s="4">
         <v>11965247</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A298">
+    <row r="298" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A298" s="4">
         <v>297</v>
       </c>
-      <c r="B298">
+      <c r="B298" s="4">
         <v>803155</v>
       </c>
-      <c r="C298" t="s">
+      <c r="C298" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="D298" t="s">
-        <v>97</v>
-      </c>
-      <c r="E298" t="s">
-        <v>649</v>
-      </c>
-      <c r="F298" t="s">
+      <c r="D298" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E298" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F298" s="4" t="s">
         <v>662</v>
       </c>
-      <c r="G298">
+      <c r="G298" s="4">
         <v>11965247</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A299">
+    <row r="299" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A299" s="4">
         <v>298</v>
       </c>
-      <c r="B299">
+      <c r="B299" s="4">
         <v>803155</v>
       </c>
-      <c r="C299" t="s">
+      <c r="C299" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="D299" t="s">
-        <v>97</v>
-      </c>
-      <c r="E299" t="s">
-        <v>649</v>
-      </c>
-      <c r="F299" t="s">
+      <c r="D299" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E299" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F299" s="4" t="s">
         <v>662</v>
       </c>
-      <c r="G299">
+      <c r="G299" s="4">
         <v>11965247</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A300">
+    <row r="300" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A300" s="4">
         <v>299</v>
       </c>
-      <c r="B300">
+      <c r="B300" s="4">
         <v>803156</v>
       </c>
-      <c r="C300" t="s">
+      <c r="C300" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="D300" t="s">
-        <v>97</v>
-      </c>
-      <c r="E300" t="s">
-        <v>649</v>
-      </c>
-      <c r="F300" t="s">
+      <c r="D300" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E300" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F300" s="4" t="s">
         <v>662</v>
       </c>
-      <c r="G300">
+      <c r="G300" s="4">
         <v>11965247</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A301">
+    <row r="301" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A301" s="4">
         <v>300</v>
       </c>
-      <c r="B301">
+      <c r="B301" s="4">
         <v>803156</v>
       </c>
-      <c r="C301" t="s">
+      <c r="C301" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="D301" t="s">
-        <v>97</v>
-      </c>
-      <c r="E301" t="s">
-        <v>649</v>
-      </c>
-      <c r="F301" t="s">
+      <c r="D301" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E301" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F301" s="4" t="s">
         <v>662</v>
       </c>
-      <c r="G301">
+      <c r="G301" s="4">
         <v>11965247</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A302">
+    <row r="302" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A302" s="4">
         <v>301</v>
       </c>
-      <c r="B302">
+      <c r="B302" s="4">
         <v>803157</v>
       </c>
-      <c r="C302" t="s">
+      <c r="C302" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="D302" t="s">
-        <v>97</v>
-      </c>
-      <c r="E302" t="s">
+      <c r="D302" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E302" s="4" t="s">
         <v>647</v>
       </c>
-      <c r="F302" t="s">
+      <c r="F302" s="4" t="s">
         <v>666</v>
       </c>
-      <c r="G302">
+      <c r="G302" s="4">
         <v>11961733</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A303">
+    <row r="303" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A303" s="4">
         <v>302</v>
       </c>
-      <c r="B303">
+      <c r="B303" s="4">
         <v>803157</v>
       </c>
-      <c r="C303" t="s">
+      <c r="C303" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="D303" t="s">
-        <v>97</v>
-      </c>
-      <c r="E303" t="s">
+      <c r="D303" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E303" s="4" t="s">
         <v>647</v>
       </c>
-      <c r="F303" t="s">
+      <c r="F303" s="4" t="s">
         <v>666</v>
       </c>
-      <c r="G303">
+      <c r="G303" s="4">
         <v>11961733</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A304">
+    <row r="304" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A304" s="4">
         <v>303</v>
       </c>
-      <c r="B304">
+      <c r="B304" s="4">
         <v>803158</v>
       </c>
-      <c r="C304" t="s">
+      <c r="C304" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="D304" t="s">
-        <v>97</v>
-      </c>
-      <c r="E304" t="s">
-        <v>649</v>
-      </c>
-      <c r="F304" t="s">
+      <c r="D304" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E304" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F304" s="4" t="s">
         <v>662</v>
       </c>
-      <c r="G304">
+      <c r="G304" s="4">
         <v>11967020</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A305">
+    <row r="305" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A305" s="4">
         <v>304</v>
       </c>
-      <c r="B305">
+      <c r="B305" s="4">
         <v>803158</v>
       </c>
-      <c r="C305" t="s">
+      <c r="C305" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="D305" t="s">
-        <v>97</v>
-      </c>
-      <c r="E305" t="s">
-        <v>649</v>
-      </c>
-      <c r="F305" t="s">
+      <c r="D305" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E305" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F305" s="4" t="s">
         <v>662</v>
       </c>
-      <c r="G305">
+      <c r="G305" s="4">
         <v>11967020</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A306">
+    <row r="306" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A306" s="4">
         <v>305</v>
       </c>
-      <c r="B306">
+      <c r="B306" s="4">
         <v>803159</v>
       </c>
-      <c r="C306" t="s">
+      <c r="C306" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="D306" t="s">
-        <v>97</v>
-      </c>
-      <c r="E306" t="s">
-        <v>649</v>
-      </c>
-      <c r="F306" t="s">
+      <c r="D306" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E306" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F306" s="4" t="s">
         <v>662</v>
       </c>
-      <c r="G306">
+      <c r="G306" s="4">
         <v>11967020</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A307">
+    <row r="307" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A307" s="4">
         <v>306</v>
       </c>
-      <c r="B307">
+      <c r="B307" s="4">
         <v>803159</v>
       </c>
-      <c r="C307" t="s">
+      <c r="C307" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="D307" t="s">
-        <v>97</v>
-      </c>
-      <c r="E307" t="s">
-        <v>649</v>
-      </c>
-      <c r="F307" t="s">
+      <c r="D307" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E307" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F307" s="4" t="s">
         <v>662</v>
       </c>
-      <c r="G307">
+      <c r="G307" s="4">
         <v>11967020</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A308">
+    <row r="308" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A308" s="4">
         <v>307</v>
       </c>
-      <c r="B308">
+      <c r="B308" s="4">
         <v>803160</v>
       </c>
-      <c r="C308" t="s">
+      <c r="C308" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="D308" t="s">
-        <v>97</v>
-      </c>
-      <c r="E308" t="s">
-        <v>649</v>
-      </c>
-      <c r="F308" t="s">
+      <c r="D308" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E308" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F308" s="4" t="s">
         <v>662</v>
       </c>
-      <c r="G308">
+      <c r="G308" s="4">
         <v>11967020</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A309">
+    <row r="309" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A309" s="4">
         <v>308</v>
       </c>
-      <c r="B309">
+      <c r="B309" s="4">
         <v>803160</v>
       </c>
-      <c r="C309" t="s">
+      <c r="C309" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="D309" t="s">
-        <v>97</v>
-      </c>
-      <c r="E309" t="s">
-        <v>649</v>
-      </c>
-      <c r="F309" t="s">
+      <c r="D309" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E309" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F309" s="4" t="s">
         <v>662</v>
       </c>
-      <c r="G309">
+      <c r="G309" s="4">
         <v>11967020</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A310">
+    <row r="310" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A310" s="4">
         <v>309</v>
       </c>
-      <c r="B310">
+      <c r="B310" s="4">
         <v>803161</v>
       </c>
-      <c r="C310" t="s">
+      <c r="C310" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="D310" t="s">
-        <v>97</v>
-      </c>
-      <c r="E310" t="s">
-        <v>649</v>
-      </c>
-      <c r="F310" t="s">
+      <c r="D310" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E310" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F310" s="4" t="s">
         <v>662</v>
       </c>
-      <c r="G310">
+      <c r="G310" s="4">
         <v>11967020</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A311">
+    <row r="311" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A311" s="4">
         <v>310</v>
       </c>
-      <c r="B311">
+      <c r="B311" s="4">
         <v>803161</v>
       </c>
-      <c r="C311" t="s">
+      <c r="C311" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="D311" t="s">
-        <v>97</v>
-      </c>
-      <c r="E311" t="s">
-        <v>649</v>
-      </c>
-      <c r="F311" t="s">
+      <c r="D311" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E311" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F311" s="4" t="s">
         <v>662</v>
       </c>
-      <c r="G311">
+      <c r="G311" s="4">
         <v>11967020</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A312">
+    <row r="312" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A312" s="4">
         <v>311</v>
       </c>
-      <c r="B312">
+      <c r="B312" s="4">
         <v>803162</v>
       </c>
-      <c r="C312" t="s">
+      <c r="C312" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="D312" t="s">
-        <v>97</v>
-      </c>
-      <c r="E312" t="s">
-        <v>649</v>
-      </c>
-      <c r="F312" t="s">
+      <c r="D312" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E312" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F312" s="4" t="s">
         <v>662</v>
       </c>
-      <c r="G312">
+      <c r="G312" s="4">
         <v>11967020</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A313">
+    <row r="313" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A313" s="4">
         <v>312</v>
       </c>
-      <c r="B313">
+      <c r="B313" s="4">
         <v>803162</v>
       </c>
-      <c r="C313" t="s">
+      <c r="C313" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="D313" t="s">
-        <v>97</v>
-      </c>
-      <c r="E313" t="s">
-        <v>649</v>
-      </c>
-      <c r="F313" t="s">
+      <c r="D313" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E313" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F313" s="4" t="s">
         <v>662</v>
       </c>
-      <c r="G313">
+      <c r="G313" s="4">
         <v>11967020</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A314">
+    <row r="314" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A314" s="4">
         <v>313</v>
       </c>
-      <c r="B314">
+      <c r="B314" s="4">
         <v>803163</v>
       </c>
-      <c r="C314" t="s">
+      <c r="C314" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="D314" t="s">
+      <c r="D314" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="E314" t="s">
+      <c r="E314" s="4" t="s">
         <v>647</v>
       </c>
-      <c r="F314" t="s">
+      <c r="F314" s="4" t="s">
         <v>650</v>
       </c>
-      <c r="G314">
+      <c r="G314" s="4">
         <v>7722023</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A315">
+    <row r="315" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A315" s="4">
         <v>314</v>
       </c>
-      <c r="B315">
+      <c r="B315" s="4">
         <v>803163</v>
       </c>
-      <c r="C315" t="s">
+      <c r="C315" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="D315" t="s">
+      <c r="D315" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="E315" t="s">
+      <c r="E315" s="4" t="s">
         <v>647</v>
       </c>
-      <c r="F315" t="s">
+      <c r="F315" s="4" t="s">
         <v>650</v>
       </c>
-      <c r="G315">
+      <c r="G315" s="4">
         <v>7722023</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A316">
+    <row r="316" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A316" s="4">
         <v>315</v>
       </c>
-      <c r="B316">
+      <c r="B316" s="4">
         <v>803164</v>
       </c>
-      <c r="C316" t="s">
+      <c r="C316" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="D316" t="s">
+      <c r="D316" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E316" t="s">
-        <v>649</v>
-      </c>
-      <c r="F316" t="s">
+      <c r="E316" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F316" s="4" t="s">
         <v>657</v>
       </c>
-      <c r="G316">
+      <c r="G316" s="4">
         <v>3745610</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A317">
+    <row r="317" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A317" s="4">
         <v>316</v>
       </c>
-      <c r="B317">
+      <c r="B317" s="4">
         <v>803164</v>
       </c>
-      <c r="C317" t="s">
+      <c r="C317" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="D317" t="s">
+      <c r="D317" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E317" t="s">
-        <v>649</v>
-      </c>
-      <c r="F317" t="s">
+      <c r="E317" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F317" s="4" t="s">
         <v>657</v>
       </c>
-      <c r="G317">
+      <c r="G317" s="4">
         <v>3745610</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A318">
+    <row r="318" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A318" s="4">
         <v>317</v>
       </c>
-      <c r="B318">
+      <c r="B318" s="4">
         <v>803165</v>
       </c>
-      <c r="C318" t="s">
+      <c r="C318" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="D318" t="s">
-        <v>97</v>
-      </c>
-      <c r="E318" t="s">
-        <v>645</v>
-      </c>
-      <c r="F318" t="s">
+      <c r="D318" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E318" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F318" s="4" t="s">
         <v>661</v>
       </c>
-      <c r="G318">
+      <c r="G318" s="4">
         <v>11966176</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A319">
+    <row r="319" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A319" s="4">
         <v>318</v>
       </c>
-      <c r="B319">
+      <c r="B319" s="4">
         <v>803165</v>
       </c>
-      <c r="C319" t="s">
+      <c r="C319" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="D319" t="s">
-        <v>97</v>
-      </c>
-      <c r="E319" t="s">
-        <v>645</v>
-      </c>
-      <c r="F319" t="s">
+      <c r="D319" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E319" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F319" s="4" t="s">
         <v>661</v>
       </c>
-      <c r="G319">
+      <c r="G319" s="4">
         <v>11966176</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A320">
+    <row r="320" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A320" s="4">
         <v>319</v>
       </c>
-      <c r="B320">
+      <c r="B320" s="4">
         <v>803166</v>
       </c>
-      <c r="C320" t="s">
+      <c r="C320" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="D320" t="s">
-        <v>97</v>
-      </c>
-      <c r="E320" t="s">
-        <v>645</v>
-      </c>
-      <c r="F320" t="s">
+      <c r="D320" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E320" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F320" s="4" t="s">
         <v>661</v>
       </c>
-      <c r="G320">
+      <c r="G320" s="4">
         <v>11966830</v>
       </c>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A321">
+    <row r="321" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A321" s="4">
         <v>320</v>
       </c>
-      <c r="B321">
+      <c r="B321" s="4">
         <v>803166</v>
       </c>
-      <c r="C321" t="s">
+      <c r="C321" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="D321" t="s">
-        <v>97</v>
-      </c>
-      <c r="E321" t="s">
-        <v>645</v>
-      </c>
-      <c r="F321" t="s">
+      <c r="D321" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E321" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F321" s="4" t="s">
         <v>661</v>
       </c>
-      <c r="G321">
+      <c r="G321" s="4">
         <v>11966830</v>
       </c>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A322">
+    <row r="322" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A322" s="4">
         <v>321</v>
       </c>
-      <c r="B322">
+      <c r="B322" s="4">
         <v>803167</v>
       </c>
-      <c r="C322" t="s">
+      <c r="C322" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="D322" t="s">
+      <c r="D322" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E322" t="s">
+      <c r="E322" s="4" t="s">
         <v>671</v>
       </c>
-      <c r="F322" t="s">
+      <c r="F322" s="4" t="s">
         <v>672</v>
       </c>
-      <c r="G322">
+      <c r="G322" s="4">
         <v>101299530</v>
       </c>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A323">
+    <row r="323" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A323" s="4">
         <v>322</v>
       </c>
-      <c r="B323">
+      <c r="B323" s="4">
         <v>803167</v>
       </c>
-      <c r="C323" t="s">
+      <c r="C323" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="D323" t="s">
+      <c r="D323" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E323" t="s">
+      <c r="E323" s="4" t="s">
         <v>671</v>
       </c>
-      <c r="F323" t="s">
+      <c r="F323" s="4" t="s">
         <v>672</v>
       </c>
-      <c r="G323">
+      <c r="G323" s="4">
         <v>101299530</v>
       </c>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A324">
+    <row r="324" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A324" s="4">
         <v>323</v>
       </c>
-      <c r="B324">
+      <c r="B324" s="4">
         <v>803168</v>
       </c>
-      <c r="C324" t="s">
+      <c r="C324" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="D324" t="s">
-        <v>97</v>
-      </c>
-      <c r="E324" t="s">
-        <v>649</v>
-      </c>
-      <c r="F324" t="s">
+      <c r="D324" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E324" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F324" s="4" t="s">
         <v>664</v>
       </c>
-      <c r="G324">
+      <c r="G324" s="4">
         <v>108146495</v>
       </c>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A325">
+    <row r="325" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A325" s="4">
         <v>324</v>
       </c>
-      <c r="B325">
+      <c r="B325" s="4">
         <v>803169</v>
       </c>
-      <c r="C325" t="s">
+      <c r="C325" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="D325" t="s">
-        <v>97</v>
-      </c>
-      <c r="E325" t="s">
-        <v>649</v>
-      </c>
-      <c r="F325" t="s">
+      <c r="D325" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E325" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F325" s="4" t="s">
         <v>664</v>
       </c>
-      <c r="G325">
+      <c r="G325" s="4">
         <v>108146495</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A326">
+    <row r="326" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A326" s="4">
         <v>325</v>
       </c>
-      <c r="B326">
+      <c r="B326" s="4">
         <v>803169</v>
       </c>
-      <c r="C326" t="s">
+      <c r="C326" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="D326" t="s">
-        <v>97</v>
-      </c>
-      <c r="E326" t="s">
-        <v>649</v>
-      </c>
-      <c r="F326" t="s">
+      <c r="D326" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E326" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F326" s="4" t="s">
         <v>664</v>
       </c>
-      <c r="G326">
+      <c r="G326" s="4">
         <v>108146495</v>
       </c>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A327">
+    <row r="327" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A327" s="4">
         <v>326</v>
       </c>
-      <c r="B327">
+      <c r="B327" s="4">
         <v>803170</v>
       </c>
-      <c r="C327" t="s">
+      <c r="C327" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="D327" t="s">
-        <v>97</v>
-      </c>
-      <c r="E327" t="s">
-        <v>649</v>
-      </c>
-      <c r="F327" t="s">
+      <c r="D327" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E327" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F327" s="4" t="s">
         <v>653</v>
       </c>
-      <c r="G327">
+      <c r="G327" s="4">
         <v>11823899</v>
       </c>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A328">
+    <row r="328" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A328" s="4">
         <v>327</v>
       </c>
-      <c r="B328">
+      <c r="B328" s="4">
         <v>803170</v>
       </c>
-      <c r="C328" t="s">
+      <c r="C328" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="D328" t="s">
-        <v>97</v>
-      </c>
-      <c r="E328" t="s">
-        <v>649</v>
-      </c>
-      <c r="F328" t="s">
+      <c r="D328" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E328" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F328" s="4" t="s">
         <v>653</v>
       </c>
-      <c r="G328">
+      <c r="G328" s="4">
         <v>11823899</v>
       </c>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A329">
+    <row r="329" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A329" s="4">
         <v>328</v>
       </c>
-      <c r="B329">
+      <c r="B329" s="4">
         <v>803171</v>
       </c>
-      <c r="C329" t="s">
+      <c r="C329" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D329" t="s">
-        <v>97</v>
-      </c>
-      <c r="E329" t="s">
+      <c r="D329" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E329" s="4" t="s">
         <v>647</v>
       </c>
-      <c r="F329" t="s">
+      <c r="F329" s="4" t="s">
         <v>666</v>
       </c>
-      <c r="G329">
+      <c r="G329" s="4">
         <v>10423056</v>
       </c>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A330">
+    <row r="330" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A330" s="4">
         <v>329</v>
       </c>
-      <c r="B330">
+      <c r="B330" s="4">
         <v>803171</v>
       </c>
-      <c r="C330" t="s">
+      <c r="C330" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D330" t="s">
-        <v>97</v>
-      </c>
-      <c r="E330" t="s">
+      <c r="D330" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E330" s="4" t="s">
         <v>647</v>
       </c>
-      <c r="F330" t="s">
+      <c r="F330" s="4" t="s">
         <v>666</v>
       </c>
-      <c r="G330">
+      <c r="G330" s="4">
         <v>10423056</v>
       </c>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A331">
+    <row r="331" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A331" s="4">
         <v>330</v>
       </c>
-      <c r="B331">
+      <c r="B331" s="4">
         <v>803172</v>
       </c>
-      <c r="C331" t="s">
+      <c r="C331" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D331" t="s">
-        <v>97</v>
-      </c>
-      <c r="E331" t="s">
+      <c r="D331" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E331" s="4" t="s">
         <v>647</v>
       </c>
-      <c r="F331" t="s">
+      <c r="F331" s="4" t="s">
         <v>666</v>
       </c>
-      <c r="G331">
+      <c r="G331" s="4">
         <v>10423056</v>
       </c>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A332">
+    <row r="332" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A332" s="4">
         <v>331</v>
       </c>
-      <c r="B332">
+      <c r="B332" s="4">
         <v>803172</v>
       </c>
-      <c r="C332" t="s">
+      <c r="C332" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D332" t="s">
-        <v>97</v>
-      </c>
-      <c r="E332" t="s">
+      <c r="D332" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E332" s="4" t="s">
         <v>647</v>
       </c>
-      <c r="F332" t="s">
+      <c r="F332" s="4" t="s">
         <v>666</v>
       </c>
-      <c r="G332">
+      <c r="G332" s="4">
         <v>10423056</v>
       </c>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A333">
+    <row r="333" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A333" s="4">
         <v>332</v>
       </c>
-      <c r="B333">
+      <c r="B333" s="4">
         <v>803173</v>
       </c>
-      <c r="C333" t="s">
+      <c r="C333" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="D333" t="s">
-        <v>97</v>
-      </c>
-      <c r="E333" t="s">
-        <v>645</v>
-      </c>
-      <c r="F333" t="s">
+      <c r="D333" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E333" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F333" s="4" t="s">
         <v>661</v>
       </c>
-      <c r="G333">
+      <c r="G333" s="4">
         <v>11965962</v>
       </c>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A334">
+    <row r="334" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A334" s="4">
         <v>333</v>
       </c>
-      <c r="B334">
+      <c r="B334" s="4">
         <v>803173</v>
       </c>
-      <c r="C334" t="s">
+      <c r="C334" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="D334" t="s">
-        <v>97</v>
-      </c>
-      <c r="E334" t="s">
-        <v>645</v>
-      </c>
-      <c r="F334" t="s">
+      <c r="D334" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E334" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F334" s="4" t="s">
         <v>661</v>
       </c>
-      <c r="G334">
+      <c r="G334" s="4">
         <v>11965962</v>
       </c>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A335">
+    <row r="335" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A335" s="4">
         <v>334</v>
       </c>
-      <c r="B335">
+      <c r="B335" s="4">
         <v>803174</v>
       </c>
-      <c r="C335" t="s">
+      <c r="C335" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="D335" t="s">
-        <v>97</v>
-      </c>
-      <c r="E335" t="s">
-        <v>645</v>
-      </c>
-      <c r="F335" t="s">
+      <c r="D335" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E335" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F335" s="4" t="s">
         <v>661</v>
       </c>
-      <c r="G335">
+      <c r="G335" s="4">
         <v>11965962</v>
       </c>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A336">
+    <row r="336" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A336" s="4">
         <v>335</v>
       </c>
-      <c r="B336">
+      <c r="B336" s="4">
         <v>803174</v>
       </c>
-      <c r="C336" t="s">
+      <c r="C336" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="D336" t="s">
-        <v>97</v>
-      </c>
-      <c r="E336" t="s">
-        <v>645</v>
-      </c>
-      <c r="F336" t="s">
+      <c r="D336" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E336" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F336" s="4" t="s">
         <v>661</v>
       </c>
-      <c r="G336">
+      <c r="G336" s="4">
         <v>11965962</v>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A337">
+    <row r="337" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A337" s="4">
         <v>336</v>
       </c>
-      <c r="B337">
+      <c r="B337" s="4">
         <v>803175</v>
       </c>
-      <c r="C337" t="s">
+      <c r="C337" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="D337" t="s">
-        <v>97</v>
-      </c>
-      <c r="E337" t="s">
-        <v>645</v>
-      </c>
-      <c r="F337" t="s">
+      <c r="D337" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E337" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F337" s="4" t="s">
         <v>661</v>
       </c>
-      <c r="G337">
+      <c r="G337" s="4">
         <v>11965962</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A338">
+    <row r="338" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A338" s="4">
         <v>337</v>
       </c>
-      <c r="B338">
+      <c r="B338" s="4">
         <v>803175</v>
       </c>
-      <c r="C338" t="s">
+      <c r="C338" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="D338" t="s">
-        <v>97</v>
-      </c>
-      <c r="E338" t="s">
-        <v>645</v>
-      </c>
-      <c r="F338" t="s">
+      <c r="D338" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E338" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F338" s="4" t="s">
         <v>661</v>
       </c>
-      <c r="G338">
+      <c r="G338" s="4">
         <v>11965962</v>
       </c>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A339">
+    <row r="339" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A339" s="4">
         <v>338</v>
       </c>
-      <c r="B339">
+      <c r="B339" s="4">
         <v>803176</v>
       </c>
-      <c r="C339" t="s">
+      <c r="C339" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="D339" t="s">
-        <v>97</v>
-      </c>
-      <c r="E339" t="s">
-        <v>649</v>
-      </c>
-      <c r="F339" t="s">
+      <c r="D339" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E339" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F339" s="4" t="s">
         <v>662</v>
       </c>
-      <c r="G339">
+      <c r="G339" s="4">
         <v>11744083</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A340">
+    <row r="340" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A340" s="4">
         <v>339</v>
       </c>
-      <c r="B340">
+      <c r="B340" s="4">
         <v>803176</v>
       </c>
-      <c r="C340" t="s">
+      <c r="C340" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="D340" t="s">
-        <v>97</v>
-      </c>
-      <c r="E340" t="s">
-        <v>649</v>
-      </c>
-      <c r="F340" t="s">
+      <c r="D340" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E340" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F340" s="4" t="s">
         <v>662</v>
       </c>
-      <c r="G340">
+      <c r="G340" s="4">
         <v>11744083</v>
       </c>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A341">
+    <row r="341" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A341" s="4">
         <v>340</v>
       </c>
-      <c r="B341">
+      <c r="B341" s="4">
         <v>803177</v>
       </c>
-      <c r="C341" t="s">
+      <c r="C341" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="D341" t="s">
-        <v>97</v>
-      </c>
-      <c r="E341" t="s">
-        <v>649</v>
-      </c>
-      <c r="F341" t="s">
+      <c r="D341" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E341" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F341" s="4" t="s">
         <v>650</v>
       </c>
-      <c r="G341">
+      <c r="G341" s="4">
         <v>11966132</v>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A342">
+    <row r="342" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A342" s="4">
         <v>341</v>
       </c>
-      <c r="B342">
+      <c r="B342" s="4">
         <v>803177</v>
       </c>
-      <c r="C342" t="s">
+      <c r="C342" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="D342" t="s">
-        <v>97</v>
-      </c>
-      <c r="E342" t="s">
-        <v>649</v>
-      </c>
-      <c r="F342" t="s">
+      <c r="D342" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E342" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F342" s="4" t="s">
         <v>650</v>
       </c>
-      <c r="G342">
+      <c r="G342" s="4">
         <v>11966132</v>
       </c>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A343">
+    <row r="343" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A343" s="4">
         <v>342</v>
       </c>
-      <c r="B343">
+      <c r="B343" s="4">
         <v>803178</v>
       </c>
-      <c r="C343" t="s">
+      <c r="C343" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="D343" t="s">
-        <v>96</v>
-      </c>
-      <c r="E343" t="s">
-        <v>649</v>
-      </c>
-      <c r="F343" t="s">
+      <c r="D343" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E343" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F343" s="4" t="s">
         <v>673</v>
       </c>
-      <c r="G343">
+      <c r="G343" s="4">
         <v>10435934</v>
       </c>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A344">
+    <row r="344" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A344" s="4">
         <v>343</v>
       </c>
-      <c r="B344">
+      <c r="B344" s="4">
         <v>803178</v>
       </c>
-      <c r="C344" t="s">
+      <c r="C344" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="D344" t="s">
-        <v>96</v>
-      </c>
-      <c r="E344" t="s">
-        <v>649</v>
-      </c>
-      <c r="F344" t="s">
+      <c r="D344" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E344" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F344" s="4" t="s">
         <v>673</v>
       </c>
-      <c r="G344">
+      <c r="G344" s="4">
         <v>10435934</v>
       </c>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A345">
+    <row r="345" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A345" s="4">
         <v>344</v>
       </c>
-      <c r="B345">
+      <c r="B345" s="4">
         <v>803179</v>
       </c>
-      <c r="C345" t="s">
+      <c r="C345" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="D345" t="s">
+      <c r="D345" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="E345" t="s">
-        <v>645</v>
-      </c>
-      <c r="F345" t="s">
+      <c r="E345" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F345" s="4" t="s">
         <v>652</v>
       </c>
-      <c r="G345">
+      <c r="G345" s="4">
         <v>11381483</v>
       </c>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A346">
+    <row r="346" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A346" s="4">
         <v>345</v>
       </c>
-      <c r="B346">
+      <c r="B346" s="4">
         <v>803179</v>
       </c>
-      <c r="C346" t="s">
+      <c r="C346" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="D346" t="s">
+      <c r="D346" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="E346" t="s">
-        <v>645</v>
-      </c>
-      <c r="F346" t="s">
+      <c r="E346" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F346" s="4" t="s">
         <v>652</v>
       </c>
-      <c r="G346">
+      <c r="G346" s="4">
         <v>11381483</v>
       </c>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A347">
+    <row r="347" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A347" s="4">
         <v>346</v>
       </c>
-      <c r="B347">
+      <c r="B347" s="4">
         <v>803180</v>
       </c>
-      <c r="C347" t="s">
+      <c r="C347" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="D347" t="s">
-        <v>97</v>
-      </c>
-      <c r="E347" t="s">
-        <v>649</v>
-      </c>
-      <c r="F347" t="s">
+      <c r="D347" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E347" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F347" s="4" t="s">
         <v>662</v>
       </c>
-      <c r="G347">
+      <c r="G347" s="4">
         <v>11965137</v>
       </c>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A348">
+    <row r="348" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A348" s="4">
         <v>347</v>
       </c>
-      <c r="B348">
+      <c r="B348" s="4">
         <v>803180</v>
       </c>
-      <c r="C348" t="s">
+      <c r="C348" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="D348" t="s">
-        <v>97</v>
-      </c>
-      <c r="E348" t="s">
-        <v>645</v>
-      </c>
-      <c r="F348" t="s">
+      <c r="D348" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E348" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F348" s="4" t="s">
         <v>661</v>
       </c>
-      <c r="G348">
+      <c r="G348" s="4">
         <v>11966106</v>
       </c>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A349">
+    <row r="349" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A349" s="4">
         <v>348</v>
       </c>
-      <c r="B349">
+      <c r="B349" s="4">
         <v>803180</v>
       </c>
-      <c r="C349" t="s">
+      <c r="C349" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="D349" t="s">
-        <v>97</v>
-      </c>
-      <c r="E349" t="s">
-        <v>649</v>
-      </c>
-      <c r="F349" t="s">
+      <c r="D349" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E349" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F349" s="4" t="s">
         <v>662</v>
       </c>
-      <c r="G349">
+      <c r="G349" s="4">
         <v>11965137</v>
       </c>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A350">
+    <row r="350" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A350" s="4">
         <v>349</v>
       </c>
-      <c r="B350">
+      <c r="B350" s="4">
         <v>803180</v>
       </c>
-      <c r="C350" t="s">
+      <c r="C350" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="D350" t="s">
-        <v>97</v>
-      </c>
-      <c r="E350" t="s">
-        <v>645</v>
-      </c>
-      <c r="F350" t="s">
+      <c r="D350" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E350" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F350" s="4" t="s">
         <v>661</v>
       </c>
-      <c r="G350">
+      <c r="G350" s="4">
         <v>11966106</v>
       </c>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A351">
+    <row r="351" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A351" s="4">
         <v>350</v>
       </c>
-      <c r="B351">
+      <c r="B351" s="4">
         <v>803181</v>
       </c>
-      <c r="C351" t="s">
+      <c r="C351" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="D351" t="s">
-        <v>97</v>
-      </c>
-      <c r="E351" t="s">
-        <v>649</v>
-      </c>
-      <c r="F351" t="s">
+      <c r="D351" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E351" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F351" s="4" t="s">
         <v>662</v>
       </c>
-      <c r="G351">
+      <c r="G351" s="4">
         <v>9397091</v>
       </c>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A352">
+    <row r="352" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A352" s="4">
         <v>351</v>
       </c>
-      <c r="B352">
+      <c r="B352" s="4">
         <v>803181</v>
       </c>
-      <c r="C352" t="s">
+      <c r="C352" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="D352" t="s">
-        <v>97</v>
-      </c>
-      <c r="E352" t="s">
-        <v>649</v>
-      </c>
-      <c r="F352" t="s">
+      <c r="D352" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E352" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F352" s="4" t="s">
         <v>662</v>
       </c>
-      <c r="G352">
+      <c r="G352" s="4">
         <v>11967020</v>
       </c>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A353">
+    <row r="353" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A353" s="4">
         <v>352</v>
       </c>
-      <c r="B353">
+      <c r="B353" s="4">
         <v>803181</v>
       </c>
-      <c r="C353" t="s">
+      <c r="C353" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="D353" t="s">
-        <v>97</v>
-      </c>
-      <c r="E353" t="s">
-        <v>649</v>
-      </c>
-      <c r="F353" t="s">
+      <c r="D353" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E353" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F353" s="4" t="s">
         <v>662</v>
       </c>
-      <c r="G353">
+      <c r="G353" s="4">
         <v>9397091</v>
       </c>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A354">
+    <row r="354" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A354" s="4">
         <v>353</v>
       </c>
-      <c r="B354">
+      <c r="B354" s="4">
         <v>803181</v>
       </c>
-      <c r="C354" t="s">
+      <c r="C354" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="D354" t="s">
-        <v>97</v>
-      </c>
-      <c r="E354" t="s">
-        <v>649</v>
-      </c>
-      <c r="F354" t="s">
+      <c r="D354" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E354" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F354" s="4" t="s">
         <v>662</v>
       </c>
-      <c r="G354">
+      <c r="G354" s="4">
         <v>11967020</v>
       </c>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A355">
+    <row r="355" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A355" s="4">
         <v>354</v>
       </c>
-      <c r="B355">
+      <c r="B355" s="4">
         <v>803182</v>
       </c>
-      <c r="C355" t="s">
+      <c r="C355" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="D355" t="s">
-        <v>97</v>
-      </c>
-      <c r="E355" t="s">
-        <v>645</v>
-      </c>
-      <c r="F355" t="s">
+      <c r="D355" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E355" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F355" s="4" t="s">
         <v>678</v>
       </c>
-      <c r="G355">
+      <c r="G355" s="4">
         <v>10951345</v>
       </c>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A356">
+    <row r="356" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A356" s="4">
         <v>355</v>
       </c>
-      <c r="B356">
+      <c r="B356" s="4">
         <v>803182</v>
       </c>
-      <c r="C356" t="s">
+      <c r="C356" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="D356" t="s">
-        <v>97</v>
-      </c>
-      <c r="E356" t="s">
-        <v>645</v>
-      </c>
-      <c r="F356" t="s">
+      <c r="D356" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E356" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F356" s="4" t="s">
         <v>678</v>
       </c>
-      <c r="G356">
+      <c r="G356" s="4">
         <v>10951345</v>
       </c>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A357">
+    <row r="357" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A357" s="4">
         <v>356</v>
       </c>
-      <c r="B357">
+      <c r="B357" s="4">
         <v>803183</v>
       </c>
-      <c r="C357" t="s">
+      <c r="C357" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="D357" t="s">
-        <v>97</v>
-      </c>
-      <c r="E357" t="s">
+      <c r="D357" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E357" s="4" t="s">
         <v>647</v>
       </c>
-      <c r="F357" t="s">
+      <c r="F357" s="4" t="s">
         <v>666</v>
       </c>
-      <c r="G357">
+      <c r="G357" s="4">
         <v>11964433</v>
       </c>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A358">
+    <row r="358" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A358" s="4">
         <v>357</v>
       </c>
-      <c r="B358">
+      <c r="B358" s="4">
         <v>803183</v>
       </c>
-      <c r="C358" t="s">
+      <c r="C358" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="D358" t="s">
-        <v>97</v>
-      </c>
-      <c r="E358" t="s">
+      <c r="D358" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E358" s="4" t="s">
         <v>647</v>
       </c>
-      <c r="F358" t="s">
+      <c r="F358" s="4" t="s">
         <v>666</v>
       </c>
-      <c r="G358">
+      <c r="G358" s="4">
         <v>11964433</v>
       </c>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A359">
+    <row r="359" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A359" s="4">
         <v>358</v>
       </c>
-      <c r="B359">
+      <c r="B359" s="4">
         <v>803184</v>
       </c>
-      <c r="C359" t="s">
+      <c r="C359" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="D359" t="s">
-        <v>97</v>
-      </c>
-      <c r="E359" t="s">
+      <c r="D359" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E359" s="4" t="s">
         <v>647</v>
       </c>
-      <c r="F359" t="s">
+      <c r="F359" s="4" t="s">
         <v>666</v>
       </c>
-      <c r="G359">
+      <c r="G359" s="4">
         <v>11964433</v>
       </c>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A360">
+    <row r="360" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A360" s="4">
         <v>359</v>
       </c>
-      <c r="B360">
+      <c r="B360" s="4">
         <v>803184</v>
       </c>
-      <c r="C360" t="s">
+      <c r="C360" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="D360" t="s">
-        <v>97</v>
-      </c>
-      <c r="E360" t="s">
+      <c r="D360" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E360" s="4" t="s">
         <v>647</v>
       </c>
-      <c r="F360" t="s">
+      <c r="F360" s="4" t="s">
         <v>666</v>
       </c>
-      <c r="G360">
+      <c r="G360" s="4">
         <v>11964433</v>
       </c>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A361">
+    <row r="361" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A361" s="4">
         <v>360</v>
       </c>
-      <c r="B361">
+      <c r="B361" s="4">
         <v>803185</v>
       </c>
-      <c r="C361" t="s">
+      <c r="C361" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="D361" t="s">
-        <v>97</v>
-      </c>
-      <c r="E361" t="s">
-        <v>649</v>
-      </c>
-      <c r="F361" t="s">
+      <c r="D361" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E361" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F361" s="4" t="s">
         <v>662</v>
       </c>
-      <c r="G361">
+      <c r="G361" s="4">
         <v>11967017</v>
       </c>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A362">
+    <row r="362" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A362" s="4">
         <v>361</v>
       </c>
-      <c r="B362">
+      <c r="B362" s="4">
         <v>803185</v>
       </c>
-      <c r="C362" t="s">
+      <c r="C362" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="D362" t="s">
-        <v>97</v>
-      </c>
-      <c r="E362" t="s">
-        <v>649</v>
-      </c>
-      <c r="F362" t="s">
+      <c r="D362" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E362" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F362" s="4" t="s">
         <v>662</v>
       </c>
-      <c r="G362">
+      <c r="G362" s="4">
         <v>11967017</v>
       </c>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A363">
+    <row r="363" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A363" s="4">
         <v>362</v>
       </c>
-      <c r="B363">
+      <c r="B363" s="4">
         <v>803186</v>
       </c>
-      <c r="C363" t="s">
+      <c r="C363" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="D363" t="s">
-        <v>97</v>
-      </c>
-      <c r="E363" t="s">
-        <v>649</v>
-      </c>
-      <c r="F363" t="s">
+      <c r="D363" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E363" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F363" s="4" t="s">
         <v>650</v>
       </c>
-      <c r="G363">
+      <c r="G363" s="4">
         <v>11966132</v>
       </c>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A364">
+    <row r="364" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A364" s="4">
         <v>363</v>
       </c>
-      <c r="B364">
+      <c r="B364" s="4">
         <v>803186</v>
       </c>
-      <c r="C364" t="s">
+      <c r="C364" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="D364" t="s">
-        <v>97</v>
-      </c>
-      <c r="E364" t="s">
-        <v>649</v>
-      </c>
-      <c r="F364" t="s">
+      <c r="D364" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E364" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F364" s="4" t="s">
         <v>650</v>
       </c>
-      <c r="G364">
+      <c r="G364" s="4">
         <v>11966132</v>
       </c>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A365">
+    <row r="365" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A365" s="4">
         <v>364</v>
       </c>
-      <c r="B365">
+      <c r="B365" s="4">
         <v>803187</v>
       </c>
-      <c r="C365" t="s">
+      <c r="C365" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="D365" t="s">
-        <v>97</v>
-      </c>
-      <c r="E365" t="s">
-        <v>649</v>
-      </c>
-      <c r="F365" t="s">
+      <c r="D365" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E365" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F365" s="4" t="s">
         <v>650</v>
       </c>
-      <c r="G365">
+      <c r="G365" s="4">
         <v>108147326</v>
       </c>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A366">
+    <row r="366" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A366" s="4">
         <v>365</v>
       </c>
-      <c r="B366">
+      <c r="B366" s="4">
         <v>803187</v>
       </c>
-      <c r="C366" t="s">
+      <c r="C366" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="D366" t="s">
-        <v>97</v>
-      </c>
-      <c r="E366" t="s">
-        <v>649</v>
-      </c>
-      <c r="F366" t="s">
+      <c r="D366" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E366" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F366" s="4" t="s">
         <v>650</v>
       </c>
-      <c r="G366">
+      <c r="G366" s="4">
         <v>108147326</v>
       </c>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A367">
+    <row r="367" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A367" s="4">
         <v>366</v>
       </c>
-      <c r="B367">
+      <c r="B367" s="4">
         <v>803188</v>
       </c>
-      <c r="C367" t="s">
+      <c r="C367" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="D367" t="s">
-        <v>97</v>
-      </c>
-      <c r="E367" t="s">
+      <c r="D367" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E367" s="4" t="s">
         <v>647</v>
       </c>
-      <c r="F367" t="s">
+      <c r="F367" s="4" t="s">
         <v>666</v>
       </c>
-      <c r="G367">
+      <c r="G367" s="4">
         <v>11964069</v>
       </c>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A368">
+    <row r="368" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A368" s="4">
         <v>367</v>
       </c>
-      <c r="B368">
+      <c r="B368" s="4">
         <v>803188</v>
       </c>
-      <c r="C368" t="s">
+      <c r="C368" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="D368" t="s">
-        <v>97</v>
-      </c>
-      <c r="E368" t="s">
+      <c r="D368" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E368" s="4" t="s">
         <v>647</v>
       </c>
-      <c r="F368" t="s">
+      <c r="F368" s="4" t="s">
         <v>666</v>
       </c>
-      <c r="G368">
+      <c r="G368" s="4">
         <v>11964069</v>
       </c>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A369">
+    <row r="369" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A369" s="4">
         <v>368</v>
       </c>
-      <c r="B369">
+      <c r="B369" s="4">
         <v>803189</v>
       </c>
-      <c r="C369" t="s">
+      <c r="C369" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="D369" t="s">
+      <c r="D369" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="E369" t="s">
-        <v>645</v>
-      </c>
-      <c r="F369" t="s">
+      <c r="E369" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F369" s="4" t="s">
         <v>655</v>
       </c>
-      <c r="G369">
+      <c r="G369" s="4">
         <v>937205</v>
       </c>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A370">
+    <row r="370" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A370" s="4">
         <v>369</v>
       </c>
-      <c r="B370">
+      <c r="B370" s="4">
         <v>803189</v>
       </c>
-      <c r="C370" t="s">
+      <c r="C370" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="D370" t="s">
+      <c r="D370" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="E370" t="s">
-        <v>645</v>
-      </c>
-      <c r="F370" t="s">
+      <c r="E370" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F370" s="4" t="s">
         <v>655</v>
       </c>
-      <c r="G370">
+      <c r="G370" s="4">
         <v>937205</v>
       </c>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A371">
+    <row r="371" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A371" s="4">
         <v>370</v>
       </c>
-      <c r="B371">
+      <c r="B371" s="4">
         <v>803190</v>
       </c>
-      <c r="C371" t="s">
+      <c r="C371" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="D371" t="s">
-        <v>97</v>
-      </c>
-      <c r="E371" t="s">
-        <v>645</v>
-      </c>
-      <c r="F371" t="s">
+      <c r="D371" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E371" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F371" s="4" t="s">
         <v>661</v>
       </c>
-      <c r="G371">
+      <c r="G371" s="4">
         <v>11965962</v>
       </c>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A372">
+    <row r="372" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A372" s="4">
         <v>371</v>
       </c>
-      <c r="B372">
+      <c r="B372" s="4">
         <v>803190</v>
       </c>
-      <c r="C372" t="s">
+      <c r="C372" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="D372" t="s">
-        <v>97</v>
-      </c>
-      <c r="E372" t="s">
-        <v>645</v>
-      </c>
-      <c r="F372" t="s">
+      <c r="D372" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E372" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F372" s="4" t="s">
         <v>661</v>
       </c>
-      <c r="G372">
+      <c r="G372" s="4">
         <v>11965962</v>
       </c>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A373">
+    <row r="373" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A373" s="4">
         <v>372</v>
       </c>
-      <c r="B373">
+      <c r="B373" s="4">
         <v>803191</v>
       </c>
-      <c r="C373" t="s">
+      <c r="C373" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="D373" t="s">
-        <v>97</v>
-      </c>
-      <c r="E373" t="s">
-        <v>645</v>
-      </c>
-      <c r="F373" t="s">
+      <c r="D373" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E373" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F373" s="4" t="s">
         <v>661</v>
       </c>
-      <c r="G373">
+      <c r="G373" s="4">
         <v>11965962</v>
       </c>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A374">
+    <row r="374" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A374" s="4">
         <v>373</v>
       </c>
-      <c r="B374">
+      <c r="B374" s="4">
         <v>803191</v>
       </c>
-      <c r="C374" t="s">
+      <c r="C374" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="D374" t="s">
-        <v>97</v>
-      </c>
-      <c r="E374" t="s">
-        <v>645</v>
-      </c>
-      <c r="F374" t="s">
+      <c r="D374" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E374" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F374" s="4" t="s">
         <v>661</v>
       </c>
-      <c r="G374">
+      <c r="G374" s="4">
         <v>11965962</v>
       </c>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A375">
+    <row r="375" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A375" s="4">
         <v>374</v>
       </c>
-      <c r="B375">
+      <c r="B375" s="4">
         <v>803192</v>
       </c>
-      <c r="C375" t="s">
+      <c r="C375" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="D375" t="s">
+      <c r="D375" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="E375" t="s">
+      <c r="E375" s="4" t="s">
         <v>647</v>
       </c>
-      <c r="F375" t="s">
+      <c r="F375" s="4" t="s">
         <v>676</v>
       </c>
-      <c r="G375">
+      <c r="G375" s="4">
         <v>11963841</v>
       </c>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A376">
+    <row r="376" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A376" s="4">
         <v>375</v>
       </c>
-      <c r="B376">
+      <c r="B376" s="4">
         <v>803192</v>
       </c>
-      <c r="C376" t="s">
+      <c r="C376" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="D376" t="s">
+      <c r="D376" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="E376" t="s">
+      <c r="E376" s="4" t="s">
         <v>647</v>
       </c>
-      <c r="F376" t="s">
+      <c r="F376" s="4" t="s">
         <v>676</v>
       </c>
-      <c r="G376">
+      <c r="G376" s="4">
         <v>11963841</v>
       </c>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A377">
+    <row r="377" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A377" s="4">
         <v>376</v>
       </c>
-      <c r="B377">
+      <c r="B377" s="4">
         <v>803193</v>
       </c>
-      <c r="C377" t="s">
+      <c r="C377" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="D377" t="s">
-        <v>97</v>
-      </c>
-      <c r="E377" t="s">
-        <v>649</v>
-      </c>
-      <c r="F377" t="s">
+      <c r="D377" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E377" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F377" s="4" t="s">
         <v>662</v>
       </c>
-      <c r="G377">
+      <c r="G377" s="4">
         <v>11967020</v>
       </c>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A378">
+    <row r="378" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A378" s="4">
         <v>377</v>
       </c>
-      <c r="B378">
+      <c r="B378" s="4">
         <v>803193</v>
       </c>
-      <c r="C378" t="s">
+      <c r="C378" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="D378" t="s">
-        <v>97</v>
-      </c>
-      <c r="E378" t="s">
-        <v>649</v>
-      </c>
-      <c r="F378" t="s">
+      <c r="D378" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E378" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F378" s="4" t="s">
         <v>662</v>
       </c>
-      <c r="G378">
+      <c r="G378" s="4">
         <v>11967020</v>
       </c>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A379">
+    <row r="379" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A379" s="4">
         <v>378</v>
       </c>
-      <c r="B379">
+      <c r="B379" s="4">
         <v>803194</v>
       </c>
-      <c r="C379" t="s">
+      <c r="C379" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="D379" t="s">
-        <v>97</v>
-      </c>
-      <c r="E379" t="s">
-        <v>649</v>
-      </c>
-      <c r="F379" t="s">
+      <c r="D379" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E379" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F379" s="4" t="s">
         <v>662</v>
       </c>
-      <c r="G379">
+      <c r="G379" s="4">
         <v>11967020</v>
       </c>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A380">
+    <row r="380" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A380" s="4">
         <v>379</v>
       </c>
-      <c r="B380">
+      <c r="B380" s="4">
         <v>803194</v>
       </c>
-      <c r="C380" t="s">
+      <c r="C380" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="D380" t="s">
-        <v>97</v>
-      </c>
-      <c r="E380" t="s">
-        <v>649</v>
-      </c>
-      <c r="F380" t="s">
+      <c r="D380" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E380" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F380" s="4" t="s">
         <v>662</v>
       </c>
-      <c r="G380">
+      <c r="G380" s="4">
         <v>11967020</v>
       </c>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A381">
+    <row r="381" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A381" s="4">
         <v>380</v>
       </c>
-      <c r="B381">
+      <c r="B381" s="4">
         <v>803195</v>
       </c>
-      <c r="C381" t="s">
+      <c r="C381" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="D381" t="s">
-        <v>97</v>
-      </c>
-      <c r="E381" t="s">
-        <v>649</v>
-      </c>
-      <c r="F381" t="s">
+      <c r="D381" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E381" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F381" s="4" t="s">
         <v>662</v>
       </c>
-      <c r="G381">
+      <c r="G381" s="4">
         <v>11967020</v>
       </c>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A382">
+    <row r="382" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A382" s="4">
         <v>381</v>
       </c>
-      <c r="B382">
+      <c r="B382" s="4">
         <v>803195</v>
       </c>
-      <c r="C382" t="s">
+      <c r="C382" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="D382" t="s">
-        <v>97</v>
-      </c>
-      <c r="E382" t="s">
-        <v>649</v>
-      </c>
-      <c r="F382" t="s">
+      <c r="D382" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E382" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F382" s="4" t="s">
         <v>662</v>
       </c>
-      <c r="G382">
+      <c r="G382" s="4">
         <v>11967020</v>
       </c>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A383">
+    <row r="383" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A383" s="4">
         <v>382</v>
       </c>
-      <c r="B383">
+      <c r="B383" s="4">
         <v>803196</v>
       </c>
-      <c r="C383" t="s">
+      <c r="C383" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="D383" t="s">
-        <v>97</v>
-      </c>
-      <c r="E383" t="s">
-        <v>649</v>
-      </c>
-      <c r="F383" t="s">
+      <c r="D383" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E383" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F383" s="4" t="s">
         <v>662</v>
       </c>
-      <c r="G383">
+      <c r="G383" s="4">
         <v>11967020</v>
       </c>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A384">
+    <row r="384" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A384" s="4">
         <v>383</v>
       </c>
-      <c r="B384">
+      <c r="B384" s="4">
         <v>803196</v>
       </c>
-      <c r="C384" t="s">
+      <c r="C384" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="D384" t="s">
-        <v>97</v>
-      </c>
-      <c r="E384" t="s">
-        <v>649</v>
-      </c>
-      <c r="F384" t="s">
+      <c r="D384" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E384" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F384" s="4" t="s">
         <v>662</v>
       </c>
-      <c r="G384">
+      <c r="G384" s="4">
         <v>11967020</v>
       </c>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A385">
+    <row r="385" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A385" s="4">
         <v>384</v>
       </c>
-      <c r="B385">
+      <c r="B385" s="4">
         <v>803197</v>
       </c>
-      <c r="C385" t="s">
+      <c r="C385" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="D385" t="s">
-        <v>97</v>
-      </c>
-      <c r="E385" t="s">
-        <v>649</v>
-      </c>
-      <c r="F385" t="s">
+      <c r="D385" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E385" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F385" s="4" t="s">
         <v>662</v>
       </c>
-      <c r="G385">
+      <c r="G385" s="4">
         <v>11967020</v>
       </c>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A386">
+    <row r="386" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A386" s="4">
         <v>385</v>
       </c>
-      <c r="B386">
+      <c r="B386" s="4">
         <v>803197</v>
       </c>
-      <c r="C386" t="s">
+      <c r="C386" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="D386" t="s">
-        <v>97</v>
-      </c>
-      <c r="E386" t="s">
-        <v>649</v>
-      </c>
-      <c r="F386" t="s">
+      <c r="D386" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E386" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F386" s="4" t="s">
         <v>662</v>
       </c>
-      <c r="G386">
+      <c r="G386" s="4">
         <v>11967020</v>
       </c>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A387">
+    <row r="387" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A387" s="4">
         <v>386</v>
       </c>
-      <c r="B387">
+      <c r="B387" s="4">
         <v>803198</v>
       </c>
-      <c r="C387" t="s">
+      <c r="C387" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D387" t="s">
-        <v>97</v>
-      </c>
-      <c r="E387" t="s">
-        <v>645</v>
-      </c>
-      <c r="F387" t="s">
+      <c r="D387" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E387" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F387" s="4" t="s">
         <v>661</v>
       </c>
-      <c r="G387">
+      <c r="G387" s="4">
         <v>10551747</v>
       </c>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A388">
+    <row r="388" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A388" s="4">
         <v>387</v>
       </c>
-      <c r="B388">
+      <c r="B388" s="4">
         <v>803198</v>
       </c>
-      <c r="C388" t="s">
+      <c r="C388" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D388" t="s">
-        <v>97</v>
-      </c>
-      <c r="E388" t="s">
-        <v>645</v>
-      </c>
-      <c r="F388" t="s">
+      <c r="D388" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E388" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F388" s="4" t="s">
         <v>661</v>
       </c>
-      <c r="G388">
+      <c r="G388" s="4">
         <v>10551747</v>
       </c>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A389">
+    <row r="389" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A389" s="4">
         <v>388</v>
       </c>
-      <c r="B389">
+      <c r="B389" s="4">
         <v>803199</v>
       </c>
-      <c r="C389" t="s">
+      <c r="C389" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="D389" t="s">
-        <v>97</v>
-      </c>
-      <c r="E389" t="s">
-        <v>649</v>
-      </c>
-      <c r="F389" t="s">
+      <c r="D389" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E389" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F389" s="4" t="s">
         <v>662</v>
       </c>
-      <c r="G389">
+      <c r="G389" s="4">
         <v>11965247</v>
       </c>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A390">
+    <row r="390" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A390" s="4">
         <v>389</v>
       </c>
-      <c r="B390">
+      <c r="B390" s="4">
         <v>803199</v>
       </c>
-      <c r="C390" t="s">
+      <c r="C390" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="D390" t="s">
-        <v>97</v>
-      </c>
-      <c r="E390" t="s">
-        <v>649</v>
-      </c>
-      <c r="F390" t="s">
+      <c r="D390" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E390" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F390" s="4" t="s">
         <v>662</v>
       </c>
-      <c r="G390">
+      <c r="G390" s="4">
         <v>11965247</v>
       </c>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A391">
+    <row r="391" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A391" s="4">
         <v>390</v>
       </c>
-      <c r="B391">
+      <c r="B391" s="4">
         <v>803200</v>
       </c>
-      <c r="C391" t="s">
+      <c r="C391" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="D391" t="s">
-        <v>97</v>
-      </c>
-      <c r="E391" t="s">
-        <v>649</v>
-      </c>
-      <c r="F391" t="s">
+      <c r="D391" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E391" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F391" s="4" t="s">
         <v>662</v>
       </c>
-      <c r="G391">
+      <c r="G391" s="4">
         <v>11965247</v>
       </c>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A392">
+    <row r="392" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A392" s="4">
         <v>391</v>
       </c>
-      <c r="B392">
+      <c r="B392" s="4">
         <v>803200</v>
       </c>
-      <c r="C392" t="s">
+      <c r="C392" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="D392" t="s">
-        <v>97</v>
-      </c>
-      <c r="E392" t="s">
-        <v>649</v>
-      </c>
-      <c r="F392" t="s">
+      <c r="D392" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E392" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F392" s="4" t="s">
         <v>662</v>
       </c>
-      <c r="G392">
+      <c r="G392" s="4">
         <v>11965247</v>
       </c>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A393">
+    <row r="393" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A393" s="4">
         <v>392</v>
       </c>
-      <c r="B393">
+      <c r="B393" s="4">
         <v>803201</v>
       </c>
-      <c r="C393" t="s">
+      <c r="C393" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="D393" t="s">
-        <v>97</v>
-      </c>
-      <c r="E393" t="s">
-        <v>649</v>
-      </c>
-      <c r="F393" t="s">
+      <c r="D393" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E393" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F393" s="4" t="s">
         <v>662</v>
       </c>
-      <c r="G393">
+      <c r="G393" s="4">
         <v>11965247</v>
       </c>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A394">
+    <row r="394" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A394" s="4">
         <v>393</v>
       </c>
-      <c r="B394">
+      <c r="B394" s="4">
         <v>803201</v>
       </c>
-      <c r="C394" t="s">
+      <c r="C394" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="D394" t="s">
-        <v>97</v>
-      </c>
-      <c r="E394" t="s">
-        <v>649</v>
-      </c>
-      <c r="F394" t="s">
+      <c r="D394" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E394" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F394" s="4" t="s">
         <v>662</v>
       </c>
-      <c r="G394">
+      <c r="G394" s="4">
         <v>11965247</v>
       </c>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A395">
+    <row r="395" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A395" s="4">
         <v>394</v>
       </c>
-      <c r="B395">
+      <c r="B395" s="4">
         <v>803202</v>
       </c>
-      <c r="C395" t="s">
+      <c r="C395" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="D395" t="s">
-        <v>97</v>
-      </c>
-      <c r="E395" t="s">
-        <v>649</v>
-      </c>
-      <c r="F395" t="s">
+      <c r="D395" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E395" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F395" s="4" t="s">
         <v>662</v>
       </c>
-      <c r="G395">
+      <c r="G395" s="4">
         <v>11965247</v>
       </c>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A396">
+    <row r="396" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A396" s="4">
         <v>395</v>
       </c>
-      <c r="B396">
+      <c r="B396" s="4">
         <v>803202</v>
       </c>
-      <c r="C396" t="s">
+      <c r="C396" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="D396" t="s">
-        <v>97</v>
-      </c>
-      <c r="E396" t="s">
-        <v>649</v>
-      </c>
-      <c r="F396" t="s">
+      <c r="D396" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E396" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F396" s="4" t="s">
         <v>662</v>
       </c>
-      <c r="G396">
+      <c r="G396" s="4">
         <v>11965247</v>
       </c>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A397">
+    <row r="397" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A397" s="4">
         <v>396</v>
       </c>
-      <c r="B397">
+      <c r="B397" s="4">
         <v>803203</v>
       </c>
-      <c r="C397" t="s">
+      <c r="C397" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="D397" t="s">
-        <v>97</v>
-      </c>
-      <c r="E397" t="s">
-        <v>649</v>
-      </c>
-      <c r="F397" t="s">
+      <c r="D397" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E397" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F397" s="4" t="s">
         <v>662</v>
       </c>
-      <c r="G397">
+      <c r="G397" s="4">
         <v>11965247</v>
       </c>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A398">
+    <row r="398" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A398" s="4">
         <v>397</v>
       </c>
-      <c r="B398">
+      <c r="B398" s="4">
         <v>803203</v>
       </c>
-      <c r="C398" t="s">
+      <c r="C398" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="D398" t="s">
-        <v>97</v>
-      </c>
-      <c r="E398" t="s">
-        <v>649</v>
-      </c>
-      <c r="F398" t="s">
+      <c r="D398" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E398" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F398" s="4" t="s">
         <v>662</v>
       </c>
-      <c r="G398">
+      <c r="G398" s="4">
         <v>11965247</v>
       </c>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A399">
+    <row r="399" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A399" s="4">
         <v>398</v>
       </c>
-      <c r="B399">
+      <c r="B399" s="4">
         <v>803204</v>
       </c>
-      <c r="C399" t="s">
+      <c r="C399" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="D399" t="s">
+      <c r="D399" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E399" t="s">
+      <c r="E399" s="4" t="s">
         <v>671</v>
       </c>
-      <c r="F399" t="s">
+      <c r="F399" s="4" t="s">
         <v>672</v>
       </c>
-      <c r="G399">
+      <c r="G399" s="4">
         <v>101299530</v>
       </c>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A400">
+    <row r="400" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A400" s="4">
         <v>399</v>
       </c>
-      <c r="B400">
+      <c r="B400" s="4">
         <v>803204</v>
       </c>
-      <c r="C400" t="s">
+      <c r="C400" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="D400" t="s">
+      <c r="D400" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E400" t="s">
+      <c r="E400" s="4" t="s">
         <v>671</v>
       </c>
-      <c r="F400" t="s">
+      <c r="F400" s="4" t="s">
         <v>672</v>
       </c>
-      <c r="G400">
+      <c r="G400" s="4">
         <v>101299530</v>
       </c>
     </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A401">
+    <row r="401" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A401" s="4">
         <v>400</v>
       </c>
-      <c r="B401">
+      <c r="B401" s="4">
         <v>803205</v>
       </c>
-      <c r="C401" t="s">
+      <c r="C401" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="D401" t="s">
-        <v>97</v>
-      </c>
-      <c r="E401" t="s">
-        <v>645</v>
-      </c>
-      <c r="F401" t="s">
+      <c r="D401" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E401" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F401" s="4" t="s">
         <v>661</v>
       </c>
-      <c r="G401">
+      <c r="G401" s="4">
         <v>11966830</v>
       </c>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A402">
+    <row r="402" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A402" s="4">
         <v>401</v>
       </c>
-      <c r="B402">
+      <c r="B402" s="4">
         <v>803205</v>
       </c>
-      <c r="C402" t="s">
+      <c r="C402" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="D402" t="s">
-        <v>97</v>
-      </c>
-      <c r="E402" t="s">
-        <v>645</v>
-      </c>
-      <c r="F402" t="s">
+      <c r="D402" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E402" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F402" s="4" t="s">
         <v>661</v>
       </c>
-      <c r="G402">
+      <c r="G402" s="4">
         <v>11966830</v>
       </c>
     </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A403">
+    <row r="403" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A403" s="4">
         <v>402</v>
       </c>
-      <c r="B403">
+      <c r="B403" s="4">
         <v>803465</v>
       </c>
-      <c r="C403" t="s">
+      <c r="C403" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="D403" t="s">
-        <v>96</v>
-      </c>
-      <c r="E403" t="s">
-        <v>645</v>
-      </c>
-      <c r="F403" t="s">
+      <c r="D403" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E403" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F403" s="4" t="s">
         <v>646</v>
       </c>
-      <c r="G403">
+      <c r="G403" s="4">
         <v>3727199</v>
       </c>
     </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A404">
+    <row r="404" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A404" s="4">
         <v>403</v>
       </c>
-      <c r="B404">
+      <c r="B404" s="4">
         <v>803466</v>
       </c>
-      <c r="C404" t="s">
+      <c r="C404" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="D404" t="s">
-        <v>96</v>
-      </c>
-      <c r="E404" t="s">
-        <v>649</v>
-      </c>
-      <c r="F404" t="s">
+      <c r="D404" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E404" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F404" s="4" t="s">
         <v>653</v>
       </c>
-      <c r="G404">
+      <c r="G404" s="4">
         <v>7621237</v>
       </c>
     </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A405">
+    <row r="405" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A405" s="4">
         <v>404</v>
       </c>
-      <c r="B405">
+      <c r="B405" s="4">
         <v>803467</v>
       </c>
-      <c r="C405" t="s">
+      <c r="C405" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="D405" t="s">
-        <v>96</v>
-      </c>
-      <c r="E405" t="s">
-        <v>649</v>
-      </c>
-      <c r="F405" t="s">
+      <c r="D405" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E405" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F405" s="4" t="s">
         <v>662</v>
       </c>
-      <c r="G405">
+      <c r="G405" s="4">
         <v>707343</v>
       </c>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A406">
+    <row r="406" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A406" s="4">
         <v>405</v>
       </c>
-      <c r="B406">
+      <c r="B406" s="4">
         <v>803468</v>
       </c>
-      <c r="C406" t="s">
+      <c r="C406" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="D406" t="s">
-        <v>96</v>
-      </c>
-      <c r="E406" t="s">
-        <v>649</v>
-      </c>
-      <c r="F406" t="s">
+      <c r="D406" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E406" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F406" s="4" t="s">
         <v>653</v>
       </c>
-      <c r="G406">
+      <c r="G406" s="4">
         <v>9980146</v>
       </c>
     </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A407">
+    <row r="407" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A407" s="4">
         <v>406</v>
       </c>
-      <c r="B407">
+      <c r="B407" s="4">
         <v>803469</v>
       </c>
-      <c r="C407" t="s">
+      <c r="C407" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="D407" t="s">
-        <v>96</v>
-      </c>
-      <c r="E407" t="s">
-        <v>645</v>
-      </c>
-      <c r="F407" t="s">
+      <c r="D407" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E407" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F407" s="4" t="s">
         <v>646</v>
       </c>
-      <c r="G407">
+      <c r="G407" s="4">
         <v>2083127</v>
       </c>
     </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A408">
+    <row r="408" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A408" s="4">
         <v>407</v>
       </c>
-      <c r="B408">
+      <c r="B408" s="4">
         <v>803470</v>
       </c>
-      <c r="C408" t="s">
+      <c r="C408" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="D408" t="s">
-        <v>96</v>
-      </c>
-      <c r="E408" t="s">
-        <v>649</v>
-      </c>
-      <c r="F408" t="s">
+      <c r="D408" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E408" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F408" s="4" t="s">
         <v>675</v>
       </c>
-      <c r="G408">
+      <c r="G408" s="4">
         <v>11453572</v>
       </c>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A409">
+    <row r="409" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A409" s="4">
         <v>408</v>
       </c>
-      <c r="B409">
+      <c r="B409" s="4">
         <v>803471</v>
       </c>
-      <c r="C409" t="s">
+      <c r="C409" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D409" t="s">
-        <v>96</v>
-      </c>
-      <c r="E409" t="s">
-        <v>649</v>
-      </c>
-      <c r="F409" t="s">
+      <c r="D409" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E409" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F409" s="4" t="s">
         <v>658</v>
       </c>
-      <c r="G409">
+      <c r="G409" s="4">
         <v>10503102</v>
       </c>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A410">
+    <row r="410" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A410" s="4">
         <v>409</v>
       </c>
-      <c r="B410">
+      <c r="B410" s="4">
         <v>803472</v>
       </c>
-      <c r="C410" t="s">
+      <c r="C410" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="D410" t="s">
-        <v>96</v>
-      </c>
-      <c r="E410" t="s">
-        <v>649</v>
-      </c>
-      <c r="F410" t="s">
+      <c r="D410" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E410" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F410" s="4" t="s">
         <v>679</v>
       </c>
-      <c r="G410">
+      <c r="G410" s="4">
         <v>702295</v>
       </c>
     </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A411">
+    <row r="411" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A411" s="4">
         <v>410</v>
       </c>
-      <c r="B411">
+      <c r="B411" s="4">
         <v>803473</v>
       </c>
-      <c r="C411" t="s">
+      <c r="C411" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="D411" t="s">
-        <v>96</v>
-      </c>
-      <c r="E411" t="s">
-        <v>649</v>
-      </c>
-      <c r="F411" t="s">
+      <c r="D411" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E411" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F411" s="4" t="s">
         <v>659</v>
       </c>
-      <c r="G411">
+      <c r="G411" s="4">
         <v>9323508</v>
       </c>
     </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A412">
+    <row r="412" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A412" s="4">
         <v>411</v>
       </c>
-      <c r="B412">
+      <c r="B412" s="4">
         <v>803474</v>
       </c>
-      <c r="C412" t="s">
+      <c r="C412" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="D412" t="s">
-        <v>96</v>
-      </c>
-      <c r="E412" t="s">
-        <v>649</v>
-      </c>
-      <c r="F412" t="s">
+      <c r="D412" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E412" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F412" s="4" t="s">
         <v>664</v>
       </c>
-      <c r="G412">
+      <c r="G412" s="4">
         <v>720644</v>
       </c>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A413">
+    <row r="413" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A413" s="4">
         <v>412</v>
       </c>
-      <c r="B413">
+      <c r="B413" s="4">
         <v>803475</v>
       </c>
-      <c r="C413" t="s">
+      <c r="C413" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="D413" t="s">
-        <v>96</v>
-      </c>
-      <c r="E413" t="s">
-        <v>645</v>
-      </c>
-      <c r="F413" t="s">
+      <c r="D413" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E413" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F413" s="4" t="s">
         <v>646</v>
       </c>
-      <c r="G413">
+      <c r="G413" s="4">
         <v>3759375</v>
       </c>
     </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A414">
+    <row r="414" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A414" s="4">
         <v>413</v>
       </c>
-      <c r="B414">
+      <c r="B414" s="4">
         <v>803476</v>
       </c>
-      <c r="C414" t="s">
+      <c r="C414" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="D414" t="s">
-        <v>96</v>
-      </c>
-      <c r="E414" t="s">
-        <v>645</v>
-      </c>
-      <c r="F414" t="s">
+      <c r="D414" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E414" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F414" s="4" t="s">
         <v>655</v>
       </c>
-      <c r="G414">
+      <c r="G414" s="4">
         <v>1848845</v>
       </c>
     </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A415">
+    <row r="415" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A415" s="4">
         <v>414</v>
       </c>
-      <c r="B415">
+      <c r="B415" s="4">
         <v>803477</v>
       </c>
-      <c r="C415" t="s">
+      <c r="C415" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="D415" t="s">
-        <v>96</v>
-      </c>
-      <c r="E415" t="s">
-        <v>645</v>
-      </c>
-      <c r="F415" t="s">
+      <c r="D415" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E415" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F415" s="4" t="s">
         <v>678</v>
       </c>
-      <c r="G415">
+      <c r="G415" s="4">
         <v>2102895</v>
       </c>
     </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A416">
+    <row r="416" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A416" s="4">
         <v>415</v>
       </c>
-      <c r="B416">
+      <c r="B416" s="4">
         <v>803477</v>
       </c>
-      <c r="C416" t="s">
+      <c r="C416" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="D416" t="s">
-        <v>96</v>
-      </c>
-      <c r="E416" t="s">
-        <v>645</v>
-      </c>
-      <c r="F416" t="s">
+      <c r="D416" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E416" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F416" s="4" t="s">
         <v>655</v>
       </c>
-      <c r="G416">
+      <c r="G416" s="4">
         <v>2415048</v>
       </c>
     </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A417">
+    <row r="417" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A417" s="4">
         <v>416</v>
       </c>
-      <c r="B417">
+      <c r="B417" s="4">
         <v>803477</v>
       </c>
-      <c r="C417" t="s">
+      <c r="C417" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="D417" t="s">
-        <v>96</v>
-      </c>
-      <c r="E417" t="s">
-        <v>645</v>
-      </c>
-      <c r="F417" t="s">
+      <c r="D417" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E417" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F417" s="4" t="s">
         <v>655</v>
       </c>
-      <c r="G417">
+      <c r="G417" s="4">
         <v>9017541</v>
       </c>
     </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A418">
+    <row r="418" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A418" s="4">
         <v>417</v>
       </c>
-      <c r="B418">
+      <c r="B418" s="4">
         <v>803478</v>
       </c>
-      <c r="C418" t="s">
+      <c r="C418" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="D418" t="s">
-        <v>96</v>
-      </c>
-      <c r="E418" t="s">
-        <v>645</v>
-      </c>
-      <c r="F418" t="s">
+      <c r="D418" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E418" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F418" s="4" t="s">
         <v>646</v>
       </c>
-      <c r="G418">
+      <c r="G418" s="4">
         <v>1851797</v>
       </c>
     </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A419">
+    <row r="419" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A419" s="4">
         <v>418</v>
       </c>
-      <c r="B419">
+      <c r="B419" s="4">
         <v>803479</v>
       </c>
-      <c r="C419" t="s">
+      <c r="C419" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="D419" t="s">
-        <v>96</v>
-      </c>
-      <c r="E419" t="s">
-        <v>649</v>
-      </c>
-      <c r="F419" t="s">
+      <c r="D419" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E419" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F419" s="4" t="s">
         <v>653</v>
       </c>
-      <c r="G419">
+      <c r="G419" s="4">
         <v>7659254</v>
       </c>
     </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A420">
+    <row r="420" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A420" s="4">
         <v>419</v>
       </c>
-      <c r="B420">
+      <c r="B420" s="4">
         <v>803480</v>
       </c>
-      <c r="C420" t="s">
+      <c r="C420" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="D420" t="s">
-        <v>96</v>
-      </c>
-      <c r="E420" t="s">
+      <c r="D420" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E420" s="4" t="s">
         <v>647</v>
       </c>
-      <c r="F420" t="s">
+      <c r="F420" s="4" t="s">
         <v>653</v>
       </c>
-      <c r="G420">
+      <c r="G420" s="4">
         <v>10094147</v>
       </c>
     </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A421">
+    <row r="421" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A421" s="4">
         <v>420</v>
       </c>
-      <c r="B421">
+      <c r="B421" s="4">
         <v>803481</v>
       </c>
-      <c r="C421" t="s">
+      <c r="C421" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="D421" t="s">
-        <v>96</v>
-      </c>
-      <c r="E421" t="s">
-        <v>649</v>
-      </c>
-      <c r="F421" t="s">
+      <c r="D421" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E421" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F421" s="4" t="s">
         <v>653</v>
       </c>
-      <c r="G421">
+      <c r="G421" s="4">
         <v>7632687</v>
       </c>
     </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A422">
+    <row r="422" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A422" s="4">
         <v>421</v>
       </c>
-      <c r="B422">
+      <c r="B422" s="4">
         <v>803482</v>
       </c>
-      <c r="C422" t="s">
+      <c r="C422" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="D422" t="s">
-        <v>96</v>
-      </c>
-      <c r="E422" t="s">
-        <v>649</v>
-      </c>
-      <c r="F422" t="s">
+      <c r="D422" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E422" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F422" s="4" t="s">
         <v>653</v>
       </c>
-      <c r="G422">
+      <c r="G422" s="4">
         <v>7632842</v>
       </c>
     </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A423">
+    <row r="423" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A423" s="4">
         <v>422</v>
       </c>
-      <c r="B423">
+      <c r="B423" s="4">
         <v>803483</v>
       </c>
-      <c r="C423" t="s">
+      <c r="C423" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="D423" t="s">
-        <v>96</v>
-      </c>
-      <c r="E423" t="s">
-        <v>645</v>
-      </c>
-      <c r="F423" t="s">
+      <c r="D423" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E423" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F423" s="4" t="s">
         <v>646</v>
       </c>
-      <c r="G423">
+      <c r="G423" s="4">
         <v>3726877</v>
       </c>
     </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A424">
+    <row r="424" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A424" s="4">
         <v>423</v>
       </c>
-      <c r="B424">
+      <c r="B424" s="4">
         <v>803484</v>
       </c>
-      <c r="C424" t="s">
+      <c r="C424" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="D424" t="s">
-        <v>96</v>
-      </c>
-      <c r="E424" t="s">
-        <v>645</v>
-      </c>
-      <c r="F424" t="s">
+      <c r="D424" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E424" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F424" s="4" t="s">
         <v>661</v>
       </c>
-      <c r="G424">
+      <c r="G424" s="4">
         <v>3104815</v>
       </c>
     </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A425">
+    <row r="425" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A425" s="4">
         <v>424</v>
       </c>
-      <c r="B425">
+      <c r="B425" s="4">
         <v>803485</v>
       </c>
-      <c r="C425" t="s">
+      <c r="C425" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="D425" t="s">
-        <v>96</v>
-      </c>
-      <c r="E425" t="s">
-        <v>649</v>
-      </c>
-      <c r="F425" t="s">
+      <c r="D425" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E425" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F425" s="4" t="s">
         <v>675</v>
       </c>
-      <c r="G425">
+      <c r="G425" s="4">
         <v>8617971</v>
       </c>
     </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A426">
+    <row r="426" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A426" s="4">
         <v>425</v>
       </c>
-      <c r="B426">
+      <c r="B426" s="4">
         <v>803486</v>
       </c>
-      <c r="C426" t="s">
+      <c r="C426" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="D426" t="s">
+      <c r="D426" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E426" t="s">
-        <v>645</v>
-      </c>
-      <c r="F426" t="s">
+      <c r="E426" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F426" s="4" t="s">
         <v>651</v>
       </c>
-      <c r="G426">
+      <c r="G426" s="4">
         <v>40198</v>
       </c>
     </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A427">
+    <row r="427" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A427" s="4">
         <v>426</v>
       </c>
-      <c r="B427">
+      <c r="B427" s="4">
         <v>803487</v>
       </c>
-      <c r="C427" t="s">
+      <c r="C427" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="D427" t="s">
+      <c r="D427" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E427" t="s">
-        <v>645</v>
-      </c>
-      <c r="F427" t="s">
+      <c r="E427" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F427" s="4" t="s">
         <v>651</v>
       </c>
-      <c r="G427">
+      <c r="G427" s="4">
         <v>40198</v>
       </c>
     </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A428">
+    <row r="428" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A428" s="4">
         <v>427</v>
       </c>
-      <c r="B428">
+      <c r="B428" s="4">
         <v>803488</v>
       </c>
-      <c r="C428" t="s">
+      <c r="C428" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="D428" t="s">
-        <v>97</v>
-      </c>
-      <c r="E428" t="s">
-        <v>645</v>
-      </c>
-      <c r="F428" t="s">
+      <c r="D428" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E428" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F428" s="4" t="s">
         <v>661</v>
       </c>
-      <c r="G428">
+      <c r="G428" s="4">
         <v>11968020</v>
       </c>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A429">
+    <row r="429" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A429" s="4">
         <v>428</v>
       </c>
-      <c r="B429">
+      <c r="B429" s="4">
         <v>803489</v>
       </c>
-      <c r="C429" t="s">
+      <c r="C429" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="D429" t="s">
-        <v>97</v>
-      </c>
-      <c r="E429" t="s">
-        <v>645</v>
-      </c>
-      <c r="F429" t="s">
+      <c r="D429" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E429" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F429" s="4" t="s">
         <v>655</v>
       </c>
-      <c r="G429">
+      <c r="G429" s="4">
         <v>10522112</v>
       </c>
     </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A430">
+    <row r="430" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A430" s="4">
         <v>429</v>
       </c>
-      <c r="B430">
+      <c r="B430" s="4">
         <v>803489</v>
       </c>
-      <c r="C430" t="s">
+      <c r="C430" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="D430" t="s">
-        <v>97</v>
-      </c>
-      <c r="E430" t="s">
-        <v>645</v>
-      </c>
-      <c r="F430" t="s">
+      <c r="D430" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E430" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F430" s="4" t="s">
         <v>661</v>
       </c>
-      <c r="G430">
+      <c r="G430" s="4">
         <v>11968020</v>
       </c>
     </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A431">
+    <row r="431" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A431" s="4">
         <v>430</v>
       </c>
-      <c r="B431">
+      <c r="B431" s="4">
         <v>803490</v>
       </c>
-      <c r="C431" t="s">
+      <c r="C431" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="D431" t="s">
-        <v>97</v>
-      </c>
-      <c r="E431" t="s">
-        <v>645</v>
-      </c>
-      <c r="F431" t="s">
+      <c r="D431" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E431" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F431" s="4" t="s">
         <v>661</v>
       </c>
-      <c r="G431">
+      <c r="G431" s="4">
         <v>10980372</v>
       </c>
     </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A432">
+    <row r="432" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A432" s="4">
         <v>431</v>
       </c>
-      <c r="B432">
+      <c r="B432" s="4">
         <v>803491</v>
       </c>
-      <c r="C432" t="s">
+      <c r="C432" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="D432" t="s">
-        <v>96</v>
-      </c>
-      <c r="E432" t="s">
-        <v>649</v>
-      </c>
-      <c r="F432" t="s">
+      <c r="D432" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E432" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F432" s="4" t="s">
         <v>654</v>
       </c>
-      <c r="G432">
+      <c r="G432" s="4">
         <v>107938348</v>
       </c>
     </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A433">
+    <row r="433" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A433" s="4">
         <v>432</v>
       </c>
-      <c r="B433">
+      <c r="B433" s="4">
         <v>803492</v>
       </c>
-      <c r="C433" t="s">
+      <c r="C433" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="D433" t="s">
-        <v>96</v>
-      </c>
-      <c r="E433" t="s">
-        <v>649</v>
-      </c>
-      <c r="F433" t="s">
+      <c r="D433" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E433" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F433" s="4" t="s">
         <v>654</v>
       </c>
-      <c r="G433">
+      <c r="G433" s="4">
         <v>107938348</v>
       </c>
     </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A434">
+    <row r="434" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A434" s="4">
         <v>433</v>
       </c>
-      <c r="B434">
+      <c r="B434" s="4">
         <v>803493</v>
       </c>
-      <c r="C434" t="s">
+      <c r="C434" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="D434" t="s">
-        <v>96</v>
-      </c>
-      <c r="E434" t="s">
-        <v>649</v>
-      </c>
-      <c r="F434" t="s">
+      <c r="D434" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E434" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F434" s="4" t="s">
         <v>654</v>
       </c>
-      <c r="G434">
+      <c r="G434" s="4">
         <v>107938348</v>
       </c>
     </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A435">
+    <row r="435" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A435" s="4">
         <v>434</v>
       </c>
-      <c r="B435">
+      <c r="B435" s="4">
         <v>803494</v>
       </c>
-      <c r="C435" t="s">
+      <c r="C435" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="D435" t="s">
-        <v>96</v>
-      </c>
-      <c r="E435" t="s">
-        <v>649</v>
-      </c>
-      <c r="F435" t="s">
+      <c r="D435" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E435" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F435" s="4" t="s">
         <v>654</v>
       </c>
-      <c r="G435">
+      <c r="G435" s="4">
         <v>107938348</v>
       </c>
     </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A436">
+    <row r="436" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A436" s="4">
         <v>435</v>
       </c>
-      <c r="B436">
+      <c r="B436" s="4">
         <v>803495</v>
       </c>
-      <c r="C436" t="s">
+      <c r="C436" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="D436" t="s">
-        <v>96</v>
-      </c>
-      <c r="E436" t="s">
-        <v>649</v>
-      </c>
-      <c r="F436" t="s">
+      <c r="D436" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E436" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F436" s="4" t="s">
         <v>654</v>
       </c>
-      <c r="G436">
+      <c r="G436" s="4">
         <v>107938348</v>
       </c>
     </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A437">
+    <row r="437" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A437" s="4">
         <v>436</v>
       </c>
-      <c r="B437">
+      <c r="B437" s="4">
         <v>803496</v>
       </c>
-      <c r="C437" t="s">
+      <c r="C437" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="D437" t="s">
-        <v>96</v>
-      </c>
-      <c r="E437" t="s">
-        <v>649</v>
-      </c>
-      <c r="F437" t="s">
+      <c r="D437" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E437" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F437" s="4" t="s">
         <v>654</v>
       </c>
-      <c r="G437">
+      <c r="G437" s="4">
         <v>107938348</v>
       </c>
     </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A438">
+    <row r="438" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A438" s="4">
         <v>437</v>
       </c>
-      <c r="B438">
+      <c r="B438" s="4">
         <v>803497</v>
       </c>
-      <c r="C438" t="s">
+      <c r="C438" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="D438" t="s">
-        <v>96</v>
-      </c>
-      <c r="E438" t="s">
-        <v>649</v>
-      </c>
-      <c r="F438" t="s">
+      <c r="D438" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E438" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F438" s="4" t="s">
         <v>654</v>
       </c>
-      <c r="G438">
+      <c r="G438" s="4">
         <v>107938348</v>
       </c>
     </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A439">
+    <row r="439" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A439" s="4">
         <v>438</v>
       </c>
-      <c r="B439">
+      <c r="B439" s="4">
         <v>803498</v>
       </c>
-      <c r="C439" t="s">
+      <c r="C439" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="D439" t="s">
-        <v>96</v>
-      </c>
-      <c r="E439" t="s">
-        <v>649</v>
-      </c>
-      <c r="F439" t="s">
+      <c r="D439" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E439" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F439" s="4" t="s">
         <v>654</v>
       </c>
-      <c r="G439">
+      <c r="G439" s="4">
         <v>107938348</v>
       </c>
     </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A440">
+    <row r="440" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A440" s="4">
         <v>439</v>
       </c>
-      <c r="B440">
+      <c r="B440" s="4">
         <v>803498</v>
       </c>
-      <c r="C440" t="s">
+      <c r="C440" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="D440" t="s">
-        <v>96</v>
-      </c>
-      <c r="E440" t="s">
-        <v>649</v>
-      </c>
-      <c r="F440" t="s">
+      <c r="D440" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E440" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F440" s="4" t="s">
         <v>654</v>
       </c>
-      <c r="G440">
+      <c r="G440" s="4">
         <v>107938348</v>
       </c>
     </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A441">
+    <row r="441" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A441" s="4">
         <v>440</v>
       </c>
-      <c r="B441">
+      <c r="B441" s="4">
         <v>803499</v>
       </c>
-      <c r="C441" t="s">
+      <c r="C441" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="D441" t="s">
-        <v>97</v>
-      </c>
-      <c r="E441" t="s">
-        <v>649</v>
-      </c>
-      <c r="F441" t="s">
+      <c r="D441" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E441" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F441" s="4" t="s">
         <v>664</v>
       </c>
-      <c r="G441">
+      <c r="G441" s="4">
         <v>10844530</v>
       </c>
     </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A442">
+    <row r="442" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A442" s="4">
         <v>441</v>
       </c>
-      <c r="B442">
+      <c r="B442" s="4">
         <v>803500</v>
       </c>
-      <c r="C442" t="s">
+      <c r="C442" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="D442" t="s">
-        <v>97</v>
-      </c>
-      <c r="E442" t="s">
-        <v>649</v>
-      </c>
-      <c r="F442" t="s">
+      <c r="D442" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E442" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F442" s="4" t="s">
         <v>664</v>
       </c>
-      <c r="G442">
+      <c r="G442" s="4">
         <v>10844530</v>
       </c>
     </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A443">
+    <row r="443" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A443" s="4">
         <v>442</v>
       </c>
-      <c r="B443">
+      <c r="B443" s="4">
         <v>803501</v>
       </c>
-      <c r="C443" t="s">
+      <c r="C443" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="D443" t="s">
-        <v>97</v>
-      </c>
-      <c r="E443" t="s">
-        <v>649</v>
-      </c>
-      <c r="F443" t="s">
+      <c r="D443" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E443" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="F443" s="4" t="s">
         <v>664</v>
       </c>
-      <c r="G443">
+      <c r="G443" s="4">
         <v>10844530</v>
       </c>
     </row>
